--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
     <sheet name="base_all与base分析" sheetId="2" r:id="rId2"/>
     <sheet name="iCA算法的分析" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="校庆论文" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="65">
   <si>
     <t>V6E10</t>
   </si>
@@ -231,6 +231,14 @@
   </si>
   <si>
     <t>V15E53</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASELINE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASELINE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1578,11 +1586,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119595520"/>
-        <c:axId val="119612544"/>
+        <c:axId val="116385792"/>
+        <c:axId val="116270208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119595520"/>
+        <c:axId val="116385792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,12 +1612,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119612544"/>
+        <c:crossAx val="116270208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1617,7 +1626,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119612544"/>
+        <c:axId val="116270208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,13 +1653,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119595520"/>
+        <c:crossAx val="116385792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1900,11 +1910,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119795712"/>
-        <c:axId val="119614848"/>
+        <c:axId val="116387328"/>
+        <c:axId val="116272512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119795712"/>
+        <c:axId val="116387328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119614848"/>
+        <c:crossAx val="116272512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1940,7 +1950,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119614848"/>
+        <c:axId val="116272512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1977,7 +1987,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119795712"/>
+        <c:crossAx val="116387328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2200,11 +2210,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119797248"/>
-        <c:axId val="119617152"/>
+        <c:axId val="128000000"/>
+        <c:axId val="116274816"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119797248"/>
+        <c:axId val="128000000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2242,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119617152"/>
+        <c:crossAx val="116274816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2240,7 +2250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119617152"/>
+        <c:axId val="116274816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2277,7 +2287,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119797248"/>
+        <c:crossAx val="128000000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2509,11 +2519,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="119797760"/>
-        <c:axId val="139649024"/>
+        <c:axId val="128000512"/>
+        <c:axId val="127983616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="119797760"/>
+        <c:axId val="128000512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2541,7 +2551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139649024"/>
+        <c:crossAx val="127983616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2549,7 +2559,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139649024"/>
+        <c:axId val="127983616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2586,7 +2596,1022 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119797760"/>
+        <c:crossAx val="128000512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$L$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASELINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$K$10:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$L$10:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.2269533333333342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.365433333333332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.016133333333315</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>186.05066666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101.35536666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$M$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$K$10:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$M$10:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.062233333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6555366666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.64173333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.851433333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="44702208"/>
+        <c:axId val="66907520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="44702208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66907520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66907520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法运行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44702208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.19444444444444445"/>
+          <c:y val="0.11072725284339457"/>
+          <c:w val="0.15487423447069115"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASELINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9075533333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9075533333333325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8984366666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9661466666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9515133333333319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$R$10:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.07553333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.511719999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2656266666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.811200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.781266666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="45213696"/>
+        <c:axId val="66906368"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45213696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66906368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="66906368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45213696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$L$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASELINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$K$61:$K$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$L$61:$L$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>92.269533333333342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>213.65433333333331</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>820.16133333333312</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1860.5066666666662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$M$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$K$61:$K$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$M$61:$M$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30.622333333333319</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.555366666666657</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>260.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>456.41733333333372</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="53863936"/>
+        <c:axId val="129578048"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="53863936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图稠密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="129578048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="129578048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法运行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="53863936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18957020997375323"/>
+          <c:y val="0.13850503062117236"/>
+          <c:w val="0.15487423447069115"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$Q$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASELINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$P$61:$P$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$Q$61:$Q$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.9075533333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9075533333333325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8984366666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9661466666666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>校庆论文!$R$60</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>校庆论文!$P$61:$P$64</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>校庆论文!$R$61:$R$64</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.07553333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.51172</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.265626666666599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.811200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="74959360"/>
+        <c:axId val="172556864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="74959360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图稠密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172556864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172556864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法运行消耗内存（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74959360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2716,6 +3741,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3022,8 +4172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J56" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4533,6 +5683,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -4542,12 +5698,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6111,15 +7261,1473 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="P87" sqref="P87"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+    <col min="4" max="4" width="8.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="133"/>
+      <c r="G1" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="135"/>
+      <c r="I1" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="135"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
+        <v>72</v>
+      </c>
+      <c r="C3" s="84">
+        <v>0.35488500000000001</v>
+      </c>
+      <c r="D3" s="86">
+        <v>0.35488500000000001</v>
+      </c>
+      <c r="E3" s="89">
+        <v>4.9452999999999996</v>
+      </c>
+      <c r="F3" s="86">
+        <v>9.3995099999999994</v>
+      </c>
+      <c r="G3" s="89">
+        <v>4.9531299999999998</v>
+      </c>
+      <c r="H3" s="86">
+        <v>6.3638399999999997</v>
+      </c>
+      <c r="I3" s="128">
+        <v>21.6797</v>
+      </c>
+      <c r="J3" s="128">
+        <v>2.2107299999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>80</v>
+      </c>
+      <c r="C4" s="84">
+        <v>0.27254</v>
+      </c>
+      <c r="D4" s="86">
+        <v>0.30803000000000003</v>
+      </c>
+      <c r="E4" s="89">
+        <v>4.90625</v>
+      </c>
+      <c r="F4" s="86">
+        <v>13.5267</v>
+      </c>
+      <c r="G4" s="89">
+        <v>4.9782799999999998</v>
+      </c>
+      <c r="H4" s="86">
+        <v>9.6358599999999992</v>
+      </c>
+      <c r="I4" s="128">
+        <v>4.9804700000000004</v>
+      </c>
+      <c r="J4" s="128">
+        <v>3.0160499999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="4">
+        <v>35</v>
+      </c>
+      <c r="C5" s="84">
+        <v>0.25268600000000002</v>
+      </c>
+      <c r="D5" s="86">
+        <v>0.25268600000000002</v>
+      </c>
+      <c r="E5" s="89">
+        <v>4.90625</v>
+      </c>
+      <c r="F5" s="86">
+        <v>5.67713</v>
+      </c>
+      <c r="G5" s="89">
+        <v>4.9531299999999998</v>
+      </c>
+      <c r="H5" s="86">
+        <v>5.2883599999999999</v>
+      </c>
+      <c r="I5" s="128">
+        <v>21.710899999999999</v>
+      </c>
+      <c r="J5" s="128">
+        <v>2.5071400000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45</v>
+      </c>
+      <c r="C6" s="84">
+        <v>0.127364</v>
+      </c>
+      <c r="D6" s="86">
+        <v>0.127364</v>
+      </c>
+      <c r="E6" s="89">
+        <v>4.9101600000000003</v>
+      </c>
+      <c r="F6" s="86">
+        <v>11.6869</v>
+      </c>
+      <c r="G6" s="89">
+        <v>4.9509400000000001</v>
+      </c>
+      <c r="H6" s="86">
+        <v>10.8988</v>
+      </c>
+      <c r="I6" s="128">
+        <v>20.7852</v>
+      </c>
+      <c r="J6" s="128">
+        <v>7.8108899999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="7">
+        <v>76</v>
+      </c>
+      <c r="C7" s="87">
+        <v>0.115151</v>
+      </c>
+      <c r="D7" s="88">
+        <v>0.115151</v>
+      </c>
+      <c r="E7" s="90">
+        <v>4.90625</v>
+      </c>
+      <c r="F7" s="88">
+        <v>6.5944500000000001</v>
+      </c>
+      <c r="G7" s="90">
+        <v>4.8632799999999996</v>
+      </c>
+      <c r="H7" s="88">
+        <v>7.1356599999999997</v>
+      </c>
+      <c r="I7" s="128">
+        <v>20.761700000000001</v>
+      </c>
+      <c r="J7" s="128">
+        <v>3.66351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="95">
+        <f>(SUM(E3:E7)-MAX(E3:E7)-MIN(E3:E7))/3</f>
+        <v>4.9075533333333334</v>
+      </c>
+      <c r="F8" s="95">
+        <f>(SUM(F3:F7)-MAX(F3:F7)-MIN(F3:F7))/3</f>
+        <v>9.2269533333333342</v>
+      </c>
+      <c r="G8" s="95">
+        <f>(SUM(G3:G7)-MAX(G3:G7)-MIN(G3:G7))/3</f>
+        <v>4.9524000000000008</v>
+      </c>
+      <c r="H8" s="95">
+        <f t="shared" ref="H8:I8" si="0">(SUM(H3:H7)-MAX(H3:H7)-MIN(H3:H7))/3</f>
+        <v>7.711786666666665</v>
+      </c>
+      <c r="I8" s="95">
+        <f t="shared" si="0"/>
+        <v>21.07553333333334</v>
+      </c>
+      <c r="J8" s="95">
+        <f>(SUM(J3:J7)-MAX(J3:J7)-MIN(J3:J7))/3</f>
+        <v>3.062233333333332</v>
+      </c>
+      <c r="K8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="85"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="K9" s="108"/>
+      <c r="L9" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="81"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="133"/>
+      <c r="G10" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="135"/>
+      <c r="I10" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="136"/>
+      <c r="K10" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="107">
+        <v>9.2269533333333342</v>
+      </c>
+      <c r="M10" s="111">
+        <v>3.062233333333332</v>
+      </c>
+      <c r="P10" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="107">
+        <v>4.9075533333333334</v>
+      </c>
+      <c r="R10" s="111">
+        <v>21.07553333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A11" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="89">
+        <v>21.365433333333332</v>
+      </c>
+      <c r="M11" s="105">
+        <v>7.6555366666666664</v>
+      </c>
+      <c r="P11" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="89">
+        <v>4.9075533333333325</v>
+      </c>
+      <c r="R11" s="105">
+        <v>15.511719999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A12" s="97" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="84">
+        <v>28</v>
+      </c>
+      <c r="C12" s="84">
+        <v>0.13029299999999999</v>
+      </c>
+      <c r="D12" s="86">
+        <v>0.13029299999999999</v>
+      </c>
+      <c r="E12" s="89">
+        <v>4.9101600000000003</v>
+      </c>
+      <c r="F12" s="83">
+        <v>12.769299999999999</v>
+      </c>
+      <c r="G12" s="85">
+        <v>4.9843799999999998</v>
+      </c>
+      <c r="H12" s="86">
+        <v>13.255000000000001</v>
+      </c>
+      <c r="I12" s="128">
+        <v>20.796900000000001</v>
+      </c>
+      <c r="J12" s="128">
+        <v>7.0067700000000004</v>
+      </c>
+      <c r="K12" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="89">
+        <v>82.016133333333315</v>
+      </c>
+      <c r="M12" s="105">
+        <v>26.039000000000001</v>
+      </c>
+      <c r="P12" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="89">
+        <v>4.8984366666666661</v>
+      </c>
+      <c r="R12" s="105">
+        <v>5.2656266666666669</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A13" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="84">
+        <v>8</v>
+      </c>
+      <c r="C13" s="84">
+        <v>0.53025500000000003</v>
+      </c>
+      <c r="D13" s="86">
+        <v>0.70925099999999996</v>
+      </c>
+      <c r="E13" s="89">
+        <v>4.8828100000000001</v>
+      </c>
+      <c r="F13" s="86">
+        <v>23.937999999999999</v>
+      </c>
+      <c r="G13" s="85">
+        <v>4.9726600000000003</v>
+      </c>
+      <c r="H13" s="86">
+        <v>24.740600000000001</v>
+      </c>
+      <c r="I13" s="128">
+        <v>20.789100000000001</v>
+      </c>
+      <c r="J13" s="128">
+        <v>5.5796400000000004</v>
+      </c>
+      <c r="K13" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="89">
+        <v>186.05066666666661</v>
+      </c>
+      <c r="M13" s="105">
+        <v>45.64173333333337</v>
+      </c>
+      <c r="P13" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="89">
+        <v>4.9661466666666669</v>
+      </c>
+      <c r="R13" s="105">
+        <v>20.811200000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A14" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="84">
+        <v>57</v>
+      </c>
+      <c r="C14" s="84">
+        <v>7.4866600000000005E-2</v>
+      </c>
+      <c r="D14" s="86">
+        <v>7.4866600000000005E-2</v>
+      </c>
+      <c r="E14" s="89">
+        <v>4.9218799999999998</v>
+      </c>
+      <c r="F14" s="86">
+        <v>19.5702</v>
+      </c>
+      <c r="G14" s="85">
+        <v>4.9765600000000001</v>
+      </c>
+      <c r="H14" s="86">
+        <v>19.918600000000001</v>
+      </c>
+      <c r="I14" s="128">
+        <v>20.769500000000001</v>
+      </c>
+      <c r="J14" s="128">
+        <v>10.3431</v>
+      </c>
+      <c r="K14" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="90">
+        <v>101.35536666666667</v>
+      </c>
+      <c r="M14" s="106">
+        <v>29.851433333333336</v>
+      </c>
+      <c r="P14" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="90">
+        <v>4.9515133333333319</v>
+      </c>
+      <c r="R14" s="106">
+        <v>20.781266666666671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A15" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="84">
+        <v>30</v>
+      </c>
+      <c r="C15" s="84">
+        <v>0.50131599999999998</v>
+      </c>
+      <c r="D15" s="86">
+        <v>0.538107</v>
+      </c>
+      <c r="E15" s="89">
+        <v>4.8984399999999999</v>
+      </c>
+      <c r="F15" s="86">
+        <v>40.113</v>
+      </c>
+      <c r="G15" s="85">
+        <v>4.9570299999999996</v>
+      </c>
+      <c r="H15" s="86">
+        <v>36.557000000000002</v>
+      </c>
+      <c r="I15" s="128">
+        <v>4.9765600000000001</v>
+      </c>
+      <c r="J15" s="128">
+        <v>9.3886400000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A16" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="87">
+        <v>56</v>
+      </c>
+      <c r="C16" s="87">
+        <v>7.9228300000000002E-2</v>
+      </c>
+      <c r="D16" s="88">
+        <v>7.9228300000000002E-2</v>
+      </c>
+      <c r="E16" s="90">
+        <v>4.9140600000000001</v>
+      </c>
+      <c r="F16" s="88">
+        <v>20.588100000000001</v>
+      </c>
+      <c r="G16" s="109">
+        <v>4.9492200000000004</v>
+      </c>
+      <c r="H16" s="88">
+        <v>16.2774</v>
+      </c>
+      <c r="I16" s="128">
+        <v>4.9218799999999998</v>
+      </c>
+      <c r="J16" s="128">
+        <v>6.5712000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="95">
+        <f t="shared" ref="E17:J17" si="1">(SUM(E12:E16)-MAX(E12:E16)-MIN(E12:E16))/3</f>
+        <v>4.9075533333333325</v>
+      </c>
+      <c r="F17" s="95">
+        <f t="shared" si="1"/>
+        <v>21.365433333333332</v>
+      </c>
+      <c r="G17" s="95">
+        <f t="shared" si="1"/>
+        <v>4.9687499999999991</v>
+      </c>
+      <c r="H17" s="95">
+        <f t="shared" si="1"/>
+        <v>20.312200000000001</v>
+      </c>
+      <c r="I17" s="95">
+        <f t="shared" si="1"/>
+        <v>15.511719999999999</v>
+      </c>
+      <c r="J17" s="95">
+        <f t="shared" si="1"/>
+        <v>7.6555366666666664</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="133"/>
+      <c r="G19" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="135"/>
+      <c r="I19" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="135"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="84">
+        <v>55</v>
+      </c>
+      <c r="C21" s="84">
+        <v>5.97624E-2</v>
+      </c>
+      <c r="D21" s="86">
+        <v>9.2986600000000003E-2</v>
+      </c>
+      <c r="E21" s="89">
+        <v>4.9570299999999996</v>
+      </c>
+      <c r="F21" s="86">
+        <v>120.73099999999999</v>
+      </c>
+      <c r="G21" s="89">
+        <v>4.9742199999999999</v>
+      </c>
+      <c r="H21" s="86">
+        <v>109.161</v>
+      </c>
+      <c r="I21" s="128">
+        <v>4.9843799999999998</v>
+      </c>
+      <c r="J21" s="128">
+        <v>20.695499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="97" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="84">
+        <v>47</v>
+      </c>
+      <c r="C22" s="84">
+        <v>3.5574799999999997E-2</v>
+      </c>
+      <c r="D22" s="86">
+        <v>4.3901900000000001E-2</v>
+      </c>
+      <c r="E22" s="89">
+        <v>4.9453100000000001</v>
+      </c>
+      <c r="F22" s="86">
+        <v>123.646</v>
+      </c>
+      <c r="G22" s="89">
+        <v>4.9140600000000001</v>
+      </c>
+      <c r="H22" s="86">
+        <v>88.173100000000005</v>
+      </c>
+      <c r="I22" s="128">
+        <v>4.9804700000000004</v>
+      </c>
+      <c r="J22" s="128">
+        <v>49.690600000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="84">
+        <v>30</v>
+      </c>
+      <c r="C23" s="84">
+        <v>1.2557E-2</v>
+      </c>
+      <c r="D23" s="86">
+        <v>1.2557E-2</v>
+      </c>
+      <c r="E23" s="89">
+        <v>4.875</v>
+      </c>
+      <c r="F23" s="86">
+        <v>48.333799999999997</v>
+      </c>
+      <c r="G23" s="89">
+        <v>4.9140600000000001</v>
+      </c>
+      <c r="H23" s="86">
+        <v>50.744399999999999</v>
+      </c>
+      <c r="I23" s="128">
+        <v>5.8515600000000001</v>
+      </c>
+      <c r="J23" s="128">
+        <v>33.819800000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="84">
+        <v>52</v>
+      </c>
+      <c r="C24" s="84">
+        <v>2.8080999999999998E-2</v>
+      </c>
+      <c r="D24" s="86">
+        <v>4.0843699999999997E-2</v>
+      </c>
+      <c r="E24" s="89">
+        <v>4.875</v>
+      </c>
+      <c r="F24" s="86">
+        <v>76.983599999999996</v>
+      </c>
+      <c r="G24" s="89">
+        <v>4.9140600000000001</v>
+      </c>
+      <c r="H24" s="86">
+        <v>70.507499999999993</v>
+      </c>
+      <c r="I24" s="128">
+        <v>4.9726600000000003</v>
+      </c>
+      <c r="J24" s="128">
+        <v>23.601700000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="98" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="87">
+        <v>63</v>
+      </c>
+      <c r="C25" s="87">
+        <v>6.5232899999999996E-2</v>
+      </c>
+      <c r="D25" s="88">
+        <v>7.6480199999999998E-2</v>
+      </c>
+      <c r="E25" s="90">
+        <v>4.8554700000000004</v>
+      </c>
+      <c r="F25" s="88">
+        <v>34.648400000000002</v>
+      </c>
+      <c r="G25" s="90">
+        <v>4.9179700000000004</v>
+      </c>
+      <c r="H25" s="88">
+        <v>28.764199999999999</v>
+      </c>
+      <c r="I25" s="128">
+        <v>5.8320299999999996</v>
+      </c>
+      <c r="J25" s="128">
+        <v>7.3846800000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A26" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="95">
+        <f t="shared" ref="E26:J26" si="2">(SUM(E21:E25)-MAX(E21:E25)-MIN(E21:E25))/3</f>
+        <v>4.8984366666666661</v>
+      </c>
+      <c r="F26" s="95">
+        <f t="shared" si="2"/>
+        <v>82.016133333333315</v>
+      </c>
+      <c r="G26" s="95">
+        <f t="shared" si="2"/>
+        <v>4.9153633333333344</v>
+      </c>
+      <c r="H26" s="95">
+        <f t="shared" si="2"/>
+        <v>69.808333333333351</v>
+      </c>
+      <c r="I26" s="95">
+        <f t="shared" si="2"/>
+        <v>5.2656266666666669</v>
+      </c>
+      <c r="J26" s="95">
+        <f t="shared" si="2"/>
+        <v>26.039000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="91" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="133"/>
+      <c r="G28" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H28" s="135"/>
+      <c r="I28" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="135"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A29" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I29" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A30" s="96" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="84">
+        <v>26</v>
+      </c>
+      <c r="C30" s="84">
+        <v>0.13227700000000001</v>
+      </c>
+      <c r="D30" s="86">
+        <v>0.21963299999999999</v>
+      </c>
+      <c r="E30" s="89">
+        <v>4.96875</v>
+      </c>
+      <c r="F30" s="86">
+        <v>1273.05</v>
+      </c>
+      <c r="G30" s="89">
+        <v>5.0273399999999997</v>
+      </c>
+      <c r="H30" s="86">
+        <v>1284.58</v>
+      </c>
+      <c r="I30" s="128">
+        <v>20.855499999999999</v>
+      </c>
+      <c r="J30" s="128">
+        <v>362.90800000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A31" s="97" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="84">
+        <v>61</v>
+      </c>
+      <c r="C31" s="84">
+        <v>0.111716</v>
+      </c>
+      <c r="D31" s="86">
+        <v>0.12133099999999999</v>
+      </c>
+      <c r="E31" s="89">
+        <v>5</v>
+      </c>
+      <c r="F31" s="86">
+        <v>118.955</v>
+      </c>
+      <c r="G31" s="89">
+        <v>4.9960899999999997</v>
+      </c>
+      <c r="H31" s="86">
+        <v>107.176</v>
+      </c>
+      <c r="I31" s="128">
+        <v>20.75</v>
+      </c>
+      <c r="J31" s="128">
+        <v>19.130400000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A32" s="97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="84">
+        <v>32</v>
+      </c>
+      <c r="C32" s="84">
+        <v>0.107603</v>
+      </c>
+      <c r="D32" s="86">
+        <v>0.107603</v>
+      </c>
+      <c r="E32" s="89">
+        <v>4.9726600000000003</v>
+      </c>
+      <c r="F32" s="86">
+        <v>59.498199999999997</v>
+      </c>
+      <c r="G32" s="89">
+        <v>4.9492200000000004</v>
+      </c>
+      <c r="H32" s="86">
+        <v>56.036999999999999</v>
+      </c>
+      <c r="I32" s="128">
+        <v>21.718800000000002</v>
+      </c>
+      <c r="J32" s="128">
+        <v>14.382400000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A33" s="97" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="84">
+        <v>62</v>
+      </c>
+      <c r="C33" s="84">
+        <v>3.3087600000000002E-2</v>
+      </c>
+      <c r="D33" s="86">
+        <v>3.3087600000000002E-2</v>
+      </c>
+      <c r="E33" s="89">
+        <v>4.9492200000000004</v>
+      </c>
+      <c r="F33" s="86">
+        <v>333.39600000000002</v>
+      </c>
+      <c r="G33" s="89">
+        <v>5</v>
+      </c>
+      <c r="H33" s="86">
+        <v>274.553</v>
+      </c>
+      <c r="I33" s="128">
+        <v>20.816400000000002</v>
+      </c>
+      <c r="J33" s="128">
+        <v>97.799000000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A34" s="98" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="87">
+        <v>27</v>
+      </c>
+      <c r="C34" s="87">
+        <v>6.9347400000000003E-2</v>
+      </c>
+      <c r="D34" s="88">
+        <v>0.122031</v>
+      </c>
+      <c r="E34" s="90">
+        <v>4.9570299999999996</v>
+      </c>
+      <c r="F34" s="88">
+        <v>105.801</v>
+      </c>
+      <c r="G34" s="90">
+        <v>4.9765600000000001</v>
+      </c>
+      <c r="H34" s="88">
+        <v>102.72199999999999</v>
+      </c>
+      <c r="I34" s="128">
+        <v>20.761700000000001</v>
+      </c>
+      <c r="J34" s="128">
+        <v>19.995799999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="95">
+        <f t="shared" ref="E35:J35" si="3">(SUM(E30:E34)-MAX(E30:E34)-MIN(E30:E34))/3</f>
+        <v>4.9661466666666669</v>
+      </c>
+      <c r="F35" s="95">
+        <f t="shared" si="3"/>
+        <v>186.05066666666661</v>
+      </c>
+      <c r="G35" s="95">
+        <f t="shared" si="3"/>
+        <v>4.9908833333333336</v>
+      </c>
+      <c r="H35" s="95">
+        <f t="shared" si="3"/>
+        <v>161.48366666666669</v>
+      </c>
+      <c r="I35" s="95">
+        <f t="shared" si="3"/>
+        <v>20.811200000000003</v>
+      </c>
+      <c r="J35" s="95">
+        <f t="shared" si="3"/>
+        <v>45.64173333333337</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="91" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="133"/>
+      <c r="G37" s="134" t="s">
+        <v>13</v>
+      </c>
+      <c r="H37" s="135"/>
+      <c r="I37" s="134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J37" s="135"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A38" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>3</v>
+      </c>
+      <c r="D38" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G38" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="H38" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="J38" s="104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A39" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="84">
+        <v>38</v>
+      </c>
+      <c r="C39" s="84">
+        <v>6.2850400000000001E-2</v>
+      </c>
+      <c r="D39" s="86">
+        <v>7.23805E-2</v>
+      </c>
+      <c r="E39" s="89">
+        <v>4.8789100000000003</v>
+      </c>
+      <c r="F39" s="86">
+        <v>81</v>
+      </c>
+      <c r="G39" s="89">
+        <v>4.9453100000000001</v>
+      </c>
+      <c r="H39" s="86">
+        <v>75.610799999999998</v>
+      </c>
+      <c r="I39" s="128">
+        <v>4.9648399999999997</v>
+      </c>
+      <c r="J39" s="128">
+        <v>20.111699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A40" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="84">
+        <v>38</v>
+      </c>
+      <c r="C40" s="84">
+        <v>0.107265</v>
+      </c>
+      <c r="D40" s="86">
+        <v>0.12765499999999999</v>
+      </c>
+      <c r="E40" s="89">
+        <v>4.9978100000000003</v>
+      </c>
+      <c r="F40" s="86">
+        <v>133.286</v>
+      </c>
+      <c r="G40" s="89">
+        <v>5.0078100000000001</v>
+      </c>
+      <c r="H40" s="86">
+        <v>117.666</v>
+      </c>
+      <c r="I40" s="128">
+        <v>20.796900000000001</v>
+      </c>
+      <c r="J40" s="128">
+        <v>32.670999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A41" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="84">
+        <v>81</v>
+      </c>
+      <c r="C41" s="84">
+        <v>2.3356999999999999E-2</v>
+      </c>
+      <c r="D41" s="86">
+        <v>2.3356999999999999E-2</v>
+      </c>
+      <c r="E41" s="89">
+        <v>4.9626599999999996</v>
+      </c>
+      <c r="F41" s="86">
+        <v>89.780100000000004</v>
+      </c>
+      <c r="G41" s="89">
+        <v>4.9748400000000004</v>
+      </c>
+      <c r="H41" s="86">
+        <v>81.949299999999994</v>
+      </c>
+      <c r="I41" s="128">
+        <v>20.800799999999999</v>
+      </c>
+      <c r="J41" s="128">
+        <v>36.771599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A42" s="97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="84">
+        <v>32</v>
+      </c>
+      <c r="C42" s="84">
+        <v>3.5573800000000003E-2</v>
+      </c>
+      <c r="D42" s="86">
+        <v>6.8818699999999997E-2</v>
+      </c>
+      <c r="E42" s="89">
+        <v>4.9331300000000002</v>
+      </c>
+      <c r="F42" s="86">
+        <v>195.32499999999999</v>
+      </c>
+      <c r="G42" s="89">
+        <v>4.9574999999999996</v>
+      </c>
+      <c r="H42" s="86">
+        <v>194.78100000000001</v>
+      </c>
+      <c r="I42" s="128">
+        <v>20.7578</v>
+      </c>
+      <c r="J42" s="128">
+        <v>73.750200000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A43" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="87">
+        <v>29</v>
+      </c>
+      <c r="C43" s="87">
+        <v>0.17837</v>
+      </c>
+      <c r="D43" s="88">
+        <v>0.20672499999999999</v>
+      </c>
+      <c r="E43" s="90">
+        <v>4.9587500000000002</v>
+      </c>
+      <c r="F43" s="88">
+        <v>71.137100000000004</v>
+      </c>
+      <c r="G43" s="90">
+        <v>4.9670300000000003</v>
+      </c>
+      <c r="H43" s="88">
+        <v>69.493300000000005</v>
+      </c>
+      <c r="I43" s="128">
+        <v>20.789100000000001</v>
+      </c>
+      <c r="J43" s="128">
+        <v>19.651700000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A44" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="95">
+        <f t="shared" ref="E44:J44" si="4">(SUM(E39:E43)-MAX(E39:E43)-MIN(E39:E43))/3</f>
+        <v>4.9515133333333319</v>
+      </c>
+      <c r="F44" s="95">
+        <f t="shared" si="4"/>
+        <v>101.35536666666667</v>
+      </c>
+      <c r="G44" s="95">
+        <f t="shared" si="4"/>
+        <v>4.9664566666666685</v>
+      </c>
+      <c r="H44" s="95">
+        <f t="shared" si="4"/>
+        <v>91.742033333333325</v>
+      </c>
+      <c r="I44" s="95">
+        <f t="shared" si="4"/>
+        <v>20.781266666666671</v>
+      </c>
+      <c r="J44" s="113">
+        <f t="shared" si="4"/>
+        <v>29.851433333333336</v>
+      </c>
+    </row>
+    <row r="60" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K60" s="108"/>
+      <c r="L60" s="110" t="s">
+        <v>63</v>
+      </c>
+      <c r="M60" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="R60" s="111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K61" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="L61">
+        <v>92.269533333333342</v>
+      </c>
+      <c r="M61">
+        <v>30.622333333333319</v>
+      </c>
+      <c r="P61" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="107">
+        <v>4.9075533333333334</v>
+      </c>
+      <c r="R61" s="111">
+        <v>21.07553333333334</v>
+      </c>
+    </row>
+    <row r="62" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K62" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="L62">
+        <v>213.65433333333331</v>
+      </c>
+      <c r="M62">
+        <v>76.555366666666657</v>
+      </c>
+      <c r="P62" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="89">
+        <v>4.9075533333333325</v>
+      </c>
+      <c r="R62" s="105">
+        <v>22.51172</v>
+      </c>
+    </row>
+    <row r="63" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K63" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="L63">
+        <v>820.16133333333312</v>
+      </c>
+      <c r="M63">
+        <v>260.39</v>
+      </c>
+      <c r="P63" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="89">
+        <v>4.8984366666666661</v>
+      </c>
+      <c r="R63" s="105">
+        <v>18.265626666666599</v>
+      </c>
+    </row>
+    <row r="64" spans="11:18" x14ac:dyDescent="0.15">
+      <c r="K64" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="L64">
+        <v>1860.5066666666662</v>
+      </c>
+      <c r="M64">
+        <v>456.41733333333372</v>
+      </c>
+      <c r="P64" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="90">
+        <v>4.9661466666666669</v>
+      </c>
+      <c r="R64" s="106">
+        <v>20.811200000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5580" windowHeight="4275"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="67">
   <si>
     <t>V6E10</t>
   </si>
@@ -204,13 +204,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>BASE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>ICA</t>
   </si>
   <si>
@@ -239,6 +232,22 @@
   </si>
   <si>
     <t>BASELINE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_FCP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FCP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_FCP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FCP</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1402,6 +1411,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1460,11 +1484,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE</c:v>
+                  <c:v>BASE_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1523,11 +1562,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA</c:v>
+                  <c:v>ICA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1586,11 +1640,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116385792"/>
-        <c:axId val="116270208"/>
+        <c:axId val="99572224"/>
+        <c:axId val="102901440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116385792"/>
+        <c:axId val="99572224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1672,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116270208"/>
+        <c:crossAx val="102901440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1626,7 +1680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116270208"/>
+        <c:axId val="102901440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116385792"/>
+        <c:crossAx val="99572224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1726,6 +1780,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1784,11 +1853,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE</c:v>
+                  <c:v>BASE_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1847,11 +1931,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA</c:v>
+                  <c:v>ICA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -1910,11 +2009,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116387328"/>
-        <c:axId val="116272512"/>
+        <c:axId val="102977024"/>
+        <c:axId val="102903744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116387328"/>
+        <c:axId val="102977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1942,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116272512"/>
+        <c:crossAx val="102903744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1950,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116272512"/>
+        <c:axId val="102903744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,7 +2086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116387328"/>
+        <c:crossAx val="102977024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2044,6 +2143,21 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2096,11 +2210,27 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE</c:v>
+                  <c:v>BASE_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2153,11 +2283,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA</c:v>
+                  <c:v>ICA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln w="12700">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2210,11 +2355,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128000000"/>
-        <c:axId val="116274816"/>
+        <c:axId val="112074752"/>
+        <c:axId val="102906048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128000000"/>
+        <c:axId val="112074752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116274816"/>
+        <c:crossAx val="102906048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2250,7 +2395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116274816"/>
+        <c:axId val="102906048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2287,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128000000"/>
+        <c:crossAx val="112074752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2298,8 +2443,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22537576552930888"/>
-          <c:y val="8.7386993292505113E-2"/>
+          <c:x val="0.22216531384269089"/>
+          <c:y val="5.021340119241232E-2"/>
           <c:w val="0.18256854201405778"/>
           <c:h val="0.25207830625495087"/>
         </c:manualLayout>
@@ -2354,6 +2499,26 @@
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:pattFill prst="ltHorz">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>'base_all,base,ica'!$P$61:$P$64</c:f>
@@ -2405,11 +2570,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE</c:v>
+                  <c:v>BASE_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2462,11 +2642,26 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA</c:v>
+                  <c:v>ICA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -2519,11 +2714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="128000512"/>
-        <c:axId val="127983616"/>
+        <c:axId val="112076288"/>
+        <c:axId val="111977024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128000512"/>
+        <c:axId val="112076288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2551,7 +2746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127983616"/>
+        <c:crossAx val="111977024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2559,7 +2754,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127983616"/>
+        <c:axId val="111977024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2791,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128000512"/>
+        <c:crossAx val="112076288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2774,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44702208"/>
-        <c:axId val="66907520"/>
+        <c:axId val="99569664"/>
+        <c:axId val="111979328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44702208"/>
+        <c:axId val="99569664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2801,13 +2996,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66907520"/>
+        <c:crossAx val="111979328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2815,7 +3009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66907520"/>
+        <c:axId val="111979328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,14 +3039,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44702208"/>
+        <c:crossAx val="99569664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3039,11 +3232,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45213696"/>
-        <c:axId val="66906368"/>
+        <c:axId val="103117312"/>
+        <c:axId val="111981632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45213696"/>
+        <c:axId val="103117312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3065,13 +3258,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66906368"/>
+        <c:crossAx val="111981632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3079,7 +3271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66906368"/>
+        <c:axId val="111981632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3109,21 +3301,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45213696"/>
+        <c:crossAx val="103117312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3282,11 +3472,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="53863936"/>
-        <c:axId val="129578048"/>
+        <c:axId val="103118336"/>
+        <c:axId val="111983936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="53863936"/>
+        <c:axId val="103118336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3314,7 +3504,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="129578048"/>
+        <c:crossAx val="111983936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3322,7 +3512,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="129578048"/>
+        <c:axId val="111983936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3359,7 +3549,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53863936"/>
+        <c:crossAx val="103118336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3534,11 +3724,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="74959360"/>
-        <c:axId val="172556864"/>
+        <c:axId val="95874048"/>
+        <c:axId val="112182976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74959360"/>
+        <c:axId val="95874048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3566,7 +3756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172556864"/>
+        <c:crossAx val="112182976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3574,7 +3764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172556864"/>
+        <c:axId val="112182976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74959360"/>
+        <c:crossAx val="95874048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3733,10 +3923,10 @@
       <xdr:rowOff>124384</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>10084</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>90370</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>167372</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4172,8 +4362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J56" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4443,20 +4633,20 @@
         <v>54</v>
       </c>
       <c r="M9" s="110" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N9" s="111" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P9" s="108"/>
       <c r="Q9" s="110" t="s">
         <v>53</v>
       </c>
       <c r="R9" s="110" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="S9" s="111" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
@@ -5561,25 +5751,25 @@
         <v>54</v>
       </c>
       <c r="M60" s="110" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="N60" s="111" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="P60" s="108"/>
       <c r="Q60" s="110" t="s">
         <v>53</v>
       </c>
       <c r="R60" s="110" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="S60" s="111" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="11:19" x14ac:dyDescent="0.15">
       <c r="K61" s="89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L61">
         <v>92.269533333333342</v>
@@ -5591,7 +5781,7 @@
         <v>30.622333333333319</v>
       </c>
       <c r="P61" s="89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q61" s="107">
         <v>4.9075533333333334</v>
@@ -5605,7 +5795,7 @@
     </row>
     <row r="62" spans="11:19" x14ac:dyDescent="0.15">
       <c r="K62" s="89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L62">
         <v>213.65433333333331</v>
@@ -5617,7 +5807,7 @@
         <v>76.555366666666657</v>
       </c>
       <c r="P62" s="89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q62" s="89">
         <v>4.9075533333333325</v>
@@ -5631,7 +5821,7 @@
     </row>
     <row r="63" spans="11:19" x14ac:dyDescent="0.15">
       <c r="K63" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L63">
         <v>820.16133333333312</v>
@@ -5643,7 +5833,7 @@
         <v>260.39</v>
       </c>
       <c r="P63" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q63" s="89">
         <v>4.8984366666666661</v>
@@ -5657,7 +5847,7 @@
     </row>
     <row r="64" spans="11:19" x14ac:dyDescent="0.15">
       <c r="K64" s="89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L64">
         <v>1860.5066666666662</v>
@@ -5669,7 +5859,7 @@
         <v>456.41733333333372</v>
       </c>
       <c r="P64" s="89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q64" s="90">
         <v>4.9661466666666669</v>
@@ -5683,12 +5873,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -5698,6 +5882,12 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7263,7 +7453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="P87" sqref="P87"/>
     </sheetView>
   </sheetViews>
@@ -7531,17 +7721,17 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="K9" s="108"/>
       <c r="L9" s="110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M9" s="111" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P9" s="108"/>
       <c r="Q9" s="110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R9" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
@@ -8613,22 +8803,22 @@
     <row r="60" spans="11:18" x14ac:dyDescent="0.15">
       <c r="K60" s="108"/>
       <c r="L60" s="110" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M60" s="111" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="P60" s="108"/>
       <c r="Q60" s="110" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R60" s="111" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="11:18" x14ac:dyDescent="0.15">
       <c r="K61" s="89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L61">
         <v>92.269533333333342</v>
@@ -8637,7 +8827,7 @@
         <v>30.622333333333319</v>
       </c>
       <c r="P61" s="89" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Q61" s="107">
         <v>4.9075533333333334</v>
@@ -8648,7 +8838,7 @@
     </row>
     <row r="62" spans="11:18" x14ac:dyDescent="0.15">
       <c r="K62" s="89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L62">
         <v>213.65433333333331</v>
@@ -8657,7 +8847,7 @@
         <v>76.555366666666657</v>
       </c>
       <c r="P62" s="89" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q62" s="89">
         <v>4.9075533333333325</v>
@@ -8668,7 +8858,7 @@
     </row>
     <row r="63" spans="11:18" x14ac:dyDescent="0.15">
       <c r="K63" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L63">
         <v>820.16133333333312</v>
@@ -8677,7 +8867,7 @@
         <v>260.39</v>
       </c>
       <c r="P63" s="89" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="Q63" s="89">
         <v>4.8984366666666661</v>
@@ -8688,7 +8878,7 @@
     </row>
     <row r="64" spans="11:18" x14ac:dyDescent="0.15">
       <c r="K64" s="89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L64">
         <v>1860.5066666666662</v>
@@ -8697,7 +8887,7 @@
         <v>456.41733333333372</v>
       </c>
       <c r="P64" s="89" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q64" s="90">
         <v>4.9661466666666669</v>
@@ -8708,6 +8898,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -8717,12 +8913,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5580" windowHeight="4275"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>

--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
     <sheet name="base_all与base分析" sheetId="2" r:id="rId2"/>
     <sheet name="iCA算法的分析" sheetId="3" r:id="rId3"/>
     <sheet name="校庆论文" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
+    <sheet name="BASE_FDP,ICA_FDP,ICA_FDP_APA" sheetId="5" r:id="rId5"/>
+    <sheet name="近似算法的相似性度量" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="99">
   <si>
     <t>V6E10</t>
   </si>
@@ -62,15 +62,15 @@
   </si>
   <si>
     <t>base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>base_all</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ica</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V8E14</t>
@@ -146,121 +146,251 @@
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>base</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>所有边断掉计算最大流时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>一个recompute平均时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>减少计算边的个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>节省时间</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>内存</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ica</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>A</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>根据流量减少计算个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>实际需要计算A边个数</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BASE_ALL</t>
   </si>
   <si>
     <t>BASE_ALL</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ICA</t>
   </si>
   <si>
     <t>ICA</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V15E21</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V15E32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V15E42</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>V15E53</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BASELINE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BASELINE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BASE_FCP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ICA_FCP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>BASE_FCP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ICA_FCP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图大小</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no2</t>
+  </si>
+  <si>
+    <t>no3</t>
+  </si>
+  <si>
+    <t>平均时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均内存消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_FDP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FDP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FDP_APA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>度量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均度量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>g2</t>
+  </si>
+  <si>
+    <t>g3</t>
+  </si>
+  <si>
+    <t>g4</t>
+  </si>
+  <si>
+    <t>g5</t>
+  </si>
+  <si>
+    <t>图稠密度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15E21</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15E32</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15E42</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V15E53</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8E14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V12E22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V14E26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准度量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>下界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,6 +604,21 @@
       <color theme="0"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -950,57 +1095,138 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1009,22 +1235,10 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1033,22 +1247,10 @@
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1057,25 +1259,10 @@
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1121,7 +1308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1133,15 +1320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1151,17 +1338,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1169,18 +1356,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1190,19 +1377,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1213,20 +1400,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1234,45 +1421,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="41">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="41">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="43">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1281,57 +1468,136 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="71">
     <cellStyle name="20% - 强调文字颜色 1" xfId="18" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="45"/>
+    <cellStyle name="20% - 强调文字颜色 1 3" xfId="59"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="22" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="47"/>
+    <cellStyle name="20% - 强调文字颜色 2 3" xfId="61"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="26" builtinId="38" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3 3" xfId="63"/>
     <cellStyle name="20% - 强调文字颜色 4" xfId="30" builtinId="42" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 4 2" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 4 3" xfId="65"/>
     <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 5 2" xfId="53"/>
+    <cellStyle name="20% - 强调文字颜色 5 3" xfId="67"/>
     <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 6 2" xfId="55"/>
+    <cellStyle name="20% - 强调文字颜色 6 3" xfId="69"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="19" builtinId="31" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 1 2" xfId="46"/>
+    <cellStyle name="40% - 强调文字颜色 1 3" xfId="60"/>
     <cellStyle name="40% - 强调文字颜色 2" xfId="23" builtinId="35" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 2 2" xfId="48"/>
+    <cellStyle name="40% - 强调文字颜色 2 3" xfId="62"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="27" builtinId="39" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 3 2" xfId="50"/>
+    <cellStyle name="40% - 强调文字颜色 3 3" xfId="64"/>
     <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 4 2" xfId="52"/>
+    <cellStyle name="40% - 强调文字颜色 4 3" xfId="66"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="35" builtinId="47" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 5 2" xfId="54"/>
+    <cellStyle name="40% - 强调文字颜色 5 3" xfId="68"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="39" builtinId="51" customBuiltin="1"/>
     <cellStyle name="40% - 强调文字颜色 6 2" xfId="56"/>
+    <cellStyle name="40% - 强调文字颜色 6 3" xfId="70"/>
     <cellStyle name="60% - 强调文字颜色 1" xfId="20" builtinId="32" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="24" builtinId="36" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 3" xfId="28" builtinId="40" customBuiltin="1"/>
@@ -1347,6 +1613,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="41"/>
     <cellStyle name="常规 3" xfId="43"/>
+    <cellStyle name="常规 4" xfId="57"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="16" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1365,6 +1632,7 @@
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="注释 2" xfId="42"/>
     <cellStyle name="注释 3" xfId="44"/>
+    <cellStyle name="注释 4" xfId="58"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1640,11 +1908,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99572224"/>
-        <c:axId val="102901440"/>
+        <c:axId val="114783232"/>
+        <c:axId val="114697920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99572224"/>
+        <c:axId val="114783232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1940,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102901440"/>
+        <c:crossAx val="114697920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1680,7 +1948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102901440"/>
+        <c:axId val="114697920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1982,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99572224"/>
+        <c:crossAx val="114783232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1745,7 +2013,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -1771,17 +2039,17 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$Q$9</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Q$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE_ALL</c:v>
+                  <c:v>BASE_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltHorz">
+            <a:pattFill prst="openDmnd">
               <a:fgClr>
                 <a:schemeClr val="tx1"/>
               </a:fgClr>
@@ -1791,14 +2059,18 @@
             </a:pattFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$17:$P$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1821,24 +2093,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'base_all,base,ica'!$Q$10:$Q$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Q$17:$Q$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9075533333333334</c:v>
+                  <c:v>5.0916680000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9075533333333325</c:v>
+                  <c:v>5.0893246666666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8984366666666661</c:v>
+                  <c:v>5.0895833333333336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9661466666666669</c:v>
+                  <c:v>5.0906253333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9515133333333319</c:v>
+                  <c:v>5.0960926666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1849,17 +2121,17 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$R$9</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE_FCP</c:v>
+                  <c:v>ICA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkDnDiag">
+            <a:pattFill prst="ltUpDiag">
               <a:fgClr>
                 <a:schemeClr val="tx1"/>
               </a:fgClr>
@@ -1869,14 +2141,18 @@
             </a:pattFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$17:$P$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1899,24 +2175,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'base_all,base,ica'!$R$10:$R$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$17:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.9524000000000008</c:v>
+                  <c:v>10.845320000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.9687499999999991</c:v>
+                  <c:v>11.715633333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9153633333333344</c:v>
+                  <c:v>10.909379333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9908833333333336</c:v>
+                  <c:v>16.016151999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9664566666666685</c:v>
+                  <c:v>14.952871999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1927,17 +2203,17 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$S$9</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FCP</c:v>
+                  <c:v>ICA_FDP_APA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="horzBrick">
+            <a:pattFill prst="smConfetti">
               <a:fgClr>
                 <a:schemeClr val="tx1"/>
               </a:fgClr>
@@ -1947,14 +2223,18 @@
             </a:pattFill>
             <a:ln>
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$17:$P$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1977,24 +2257,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'base_all,base,ica'!$S$10:$S$14</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$17:$S$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.07553333333334</c:v>
+                  <c:v>21.22448</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15.511719999999999</c:v>
+                  <c:v>21.355226666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2656266666666669</c:v>
+                  <c:v>19.048439333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.811200000000003</c:v>
+                  <c:v>20.233345333333336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20.781266666666671</c:v>
+                  <c:v>18.240378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,11 +2289,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="102977024"/>
-        <c:axId val="102903744"/>
+        <c:axId val="52564480"/>
+        <c:axId val="148465920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="102977024"/>
+        <c:axId val="52564480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2041,7 +2321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102903744"/>
+        <c:crossAx val="148465920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2049,7 +2329,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102903744"/>
+        <c:axId val="148465920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2366,2452 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102977024"/>
+        <c:crossAx val="52564480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Y$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$X$12:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Y$12:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.062233333333332</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6555366666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.039000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.64173333333337</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29.851433333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Z$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="diagBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$X$12:$X$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Z$12:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5021360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7157520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.964618000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522805999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.129814666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52567552"/>
+        <c:axId val="164376512"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52567552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164376512"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164376512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法时间消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52567552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17358442694663173"/>
+          <c:y val="9.6838363954505707E-2"/>
+          <c:w val="0.143082239720035"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:tint val="78000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AD$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AC$12:$AC$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AD$12:$AD$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.07553333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.511719999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2656266666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.811200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.781266666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AE$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AC$12:$AC$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$AE$12:$AE$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.952871999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="56867328"/>
+        <c:axId val="164379968"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56867328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164379968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164379968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56867328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$9:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5021360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7157520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.964618000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522805999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.129814666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$9:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1300508666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8303726666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2919506666666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.428239333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6149006666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52564992"/>
+        <c:axId val="100631104"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52564992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100631104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100631104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52564992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15833333333333333"/>
+          <c:y val="0.13387540099154271"/>
+          <c:w val="0.20340201224846893"/>
+          <c:h val="0.16743438320209975"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$J$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="diagBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$109:$I$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$J$109:$J$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>191.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.54560000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574.1210000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$109:$I$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$109:$K$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.622333333333302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5553666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420.417333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$109:$I$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$109:$L$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.7415200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.165165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="112332288"/>
+        <c:axId val="100635712"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112332288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>不同稠密度的图</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="100635712"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="100635712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112332288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22500000000000001"/>
+          <c:y val="0.11516477107028288"/>
+          <c:w val="0.20340201224846893"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$J$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$117:$I$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$J$117:$J$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0916680000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0893246666666672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0906253333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$117:$I$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$117:$K$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$117:$I$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$117:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.22448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.355226666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.048439333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.233345333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="77006336"/>
+        <c:axId val="151300928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="77006336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>不同稠密度的图</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="151300928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="151300928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77006336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$R$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均度量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近似算法的相似性度量!$R$12:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5713999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3076000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="98913792"/>
+        <c:axId val="163897920"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="98913792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163897920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163897920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="98913792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>下界</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:pattFill prst="ltDnDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近似算法的相似性度量!$S$12:$S$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63244999999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45175300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.37757000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31948549999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>标准度量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:pattFill prst="horzBrick">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:headEnd type="oval"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近似算法的相似性度量!$T$12:$T$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6729035550263649E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8155308949333897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2228630094323537E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="158898176"/>
+        <c:axId val="163904256"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="158898176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="163904256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="163904256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>相似性度量</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="158898176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$Q$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_ALL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'base_all,base,ica'!$Q$10:$Q$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9075533333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9075533333333325</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8984366666666661</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9661466666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9515133333333319</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$R$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkDnDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'base_all,base,ica'!$R$10:$R$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.9524000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9687499999999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9153633333333344</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9908833333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9664566666666685</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$S$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FCP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'base_all,base,ica'!$P$10:$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'base_all,base,ica'!$S$10:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.07553333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.511719999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.2656266666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.811200000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.781266666666671</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="116944896"/>
+        <c:axId val="114700224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="116944896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="114700224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="114700224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="116944896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2355,11 +5080,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112074752"/>
-        <c:axId val="102906048"/>
+        <c:axId val="116946432"/>
+        <c:axId val="114702528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112074752"/>
+        <c:axId val="116946432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2387,7 +5112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102906048"/>
+        <c:crossAx val="114702528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2395,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102906048"/>
+        <c:axId val="114702528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +5157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112074752"/>
+        <c:crossAx val="116946432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2714,11 +5439,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112076288"/>
-        <c:axId val="111977024"/>
+        <c:axId val="116946944"/>
+        <c:axId val="116908608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112076288"/>
+        <c:axId val="116946944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2746,7 +5471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111977024"/>
+        <c:crossAx val="116908608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2754,7 +5479,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111977024"/>
+        <c:axId val="116908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2791,7 +5516,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112076288"/>
+        <c:crossAx val="116946944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,11 +5694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="99569664"/>
-        <c:axId val="111979328"/>
+        <c:axId val="112365568"/>
+        <c:axId val="116910912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="99569664"/>
+        <c:axId val="112365568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +5726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111979328"/>
+        <c:crossAx val="116910912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3009,7 +5734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111979328"/>
+        <c:axId val="116910912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3045,7 +5770,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99569664"/>
+        <c:crossAx val="112365568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3232,11 +5957,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103117312"/>
-        <c:axId val="111981632"/>
+        <c:axId val="115578368"/>
+        <c:axId val="116913216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103117312"/>
+        <c:axId val="115578368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +5988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111981632"/>
+        <c:crossAx val="116913216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3271,7 +5996,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111981632"/>
+        <c:axId val="116913216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +6032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103117312"/>
+        <c:crossAx val="115578368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3472,11 +6197,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="103118336"/>
-        <c:axId val="111983936"/>
+        <c:axId val="115578880"/>
+        <c:axId val="116915520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="103118336"/>
+        <c:axId val="115578880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3504,7 +6229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111983936"/>
+        <c:crossAx val="116915520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3512,7 +6237,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="111983936"/>
+        <c:axId val="116915520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3549,7 +6274,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="103118336"/>
+        <c:crossAx val="115578880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3724,11 +6449,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="95874048"/>
-        <c:axId val="112182976"/>
+        <c:axId val="112335872"/>
+        <c:axId val="117032640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95874048"/>
+        <c:axId val="112335872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +6481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112182976"/>
+        <c:crossAx val="117032640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3764,7 +6489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112182976"/>
+        <c:axId val="117032640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3801,7 +6526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95874048"/>
+        <c:crossAx val="112335872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3810,6 +6535,382 @@
       <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$Q$9:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9176433333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.139433333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.460940000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.6375666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.03247333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dkUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$9:$R$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5021360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7157520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.964618000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522805999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.129814666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$9:$P$13</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$9:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.1300508666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8303726666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2919506666666662</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.428239333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6149006666666663</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="69860864"/>
+        <c:axId val="270029312"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="69860864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="270029312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="270029312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间消耗</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="69860864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16666666666666666"/>
+          <c:y val="0.10590551181102362"/>
+          <c:w val="0.20340201224846893"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4065,6 +7166,286 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="图表 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="图表 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="图表 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4362,8 +7743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N48" sqref="N48"/>
+    <sheetView topLeftCell="C58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M61" sqref="M61:N64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4802,7 +8183,7 @@
         <v>4.9153633333333344</v>
       </c>
       <c r="S12" s="105">
-        <v>5.2656266666666669</v>
+        <v>15.2656266666666</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.15">
@@ -5873,6 +9254,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -5882,14 +9269,8 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5901,7 +9282,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C44"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6497,7 +9878,7 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B37:D37"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6507,8 +9888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7443,7 +10824,7 @@
     <mergeCell ref="B31:F31"/>
     <mergeCell ref="B41:F41"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8898,12 +12279,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -8913,8 +12288,14 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8923,27 +12304,4613 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:AE121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="L127" sqref="L127"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <cols>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="144" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="144"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A3" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A4" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="140">
+        <v>6</v>
+      </c>
+      <c r="C4" s="154">
+        <v>1</v>
+      </c>
+      <c r="D4" s="143">
+        <v>5.6617199999999999</v>
+      </c>
+      <c r="E4" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="F4" s="143">
+        <v>5.6716800000000003</v>
+      </c>
+      <c r="G4" s="154">
+        <v>5.0039100000000003</v>
+      </c>
+      <c r="H4" s="143">
+        <v>5.36259</v>
+      </c>
+      <c r="I4" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="J4" s="143">
+        <f>(D4+F4+H4)/3</f>
+        <v>5.5653300000000003</v>
+      </c>
+      <c r="K4" s="154">
+        <f>(E4+G4+I4)/3</f>
+        <v>5.0742200000000004</v>
+      </c>
+      <c r="L4" s="161">
+        <f>(J4+J5+J6+J7+J8)/5</f>
+        <v>6.9176433333333334</v>
+      </c>
+      <c r="M4" s="161">
+        <f>(K4+K5+K6+K7+K8)/5</f>
+        <v>5.0916680000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A5" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="140">
+        <v>3</v>
+      </c>
+      <c r="C5" s="154">
+        <v>1</v>
+      </c>
+      <c r="D5" s="143">
+        <v>8.5422399999999996</v>
+      </c>
+      <c r="E5" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="F5" s="143">
+        <v>7.9946900000000003</v>
+      </c>
+      <c r="G5" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="H5" s="143">
+        <v>8.7176100000000005</v>
+      </c>
+      <c r="I5" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="J5" s="143">
+        <f t="shared" ref="J5:J28" si="0">(D5+F5+H5)/3</f>
+        <v>8.4181799999999996</v>
+      </c>
+      <c r="K5" s="154">
+        <f t="shared" ref="K5:K28" si="1">(E5+G5+I5)/3</f>
+        <v>5.1106799999999994</v>
+      </c>
+      <c r="L5" s="157"/>
+      <c r="M5" s="157"/>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A6" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="140">
+        <v>5</v>
+      </c>
+      <c r="C6" s="154">
+        <v>2</v>
+      </c>
+      <c r="D6" s="143">
+        <v>4.5738700000000003</v>
+      </c>
+      <c r="E6" s="154">
+        <v>4.9960899999999997</v>
+      </c>
+      <c r="F6" s="143">
+        <v>4.8727</v>
+      </c>
+      <c r="G6" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="H6" s="143">
+        <v>4.5216500000000002</v>
+      </c>
+      <c r="I6" s="154">
+        <v>5.0859399999999999</v>
+      </c>
+      <c r="J6" s="143">
+        <f t="shared" si="0"/>
+        <v>4.6560733333333344</v>
+      </c>
+      <c r="K6" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0611966666666666</v>
+      </c>
+      <c r="L6" s="157"/>
+      <c r="M6" s="157"/>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A7" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="140">
+        <v>1</v>
+      </c>
+      <c r="C7" s="154">
+        <v>5</v>
+      </c>
+      <c r="D7" s="143">
+        <v>9.3484700000000007</v>
+      </c>
+      <c r="E7" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="F7" s="143">
+        <v>9.3874099999999991</v>
+      </c>
+      <c r="G7" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="H7" s="143">
+        <v>9.3831799999999994</v>
+      </c>
+      <c r="I7" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="J7" s="143">
+        <f t="shared" si="0"/>
+        <v>9.3730200000000004</v>
+      </c>
+      <c r="K7" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1054699999999995</v>
+      </c>
+      <c r="L7" s="157"/>
+      <c r="M7" s="157"/>
+      <c r="P7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A8" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="140">
+        <v>5</v>
+      </c>
+      <c r="C8" s="154">
+        <v>1</v>
+      </c>
+      <c r="D8" s="143">
+        <v>6.5615300000000003</v>
+      </c>
+      <c r="E8" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="F8" s="143">
+        <v>6.5678599999999996</v>
+      </c>
+      <c r="G8" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="H8" s="143">
+        <v>6.5974500000000003</v>
+      </c>
+      <c r="I8" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="J8" s="143">
+        <f t="shared" si="0"/>
+        <v>6.575613333333334</v>
+      </c>
+      <c r="K8" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1067733333333338</v>
+      </c>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="R8" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="S8" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A9" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="140">
+        <v>5</v>
+      </c>
+      <c r="C9" s="154">
+        <v>6</v>
+      </c>
+      <c r="D9" s="143">
+        <v>12.233499999999999</v>
+      </c>
+      <c r="E9" s="154">
+        <v>5.0039100000000003</v>
+      </c>
+      <c r="F9" s="143">
+        <v>12.189399999999999</v>
+      </c>
+      <c r="G9" s="154">
+        <v>4.9726600000000003</v>
+      </c>
+      <c r="H9" s="143">
+        <v>12.054500000000001</v>
+      </c>
+      <c r="I9" s="154">
+        <v>5.0781299999999998</v>
+      </c>
+      <c r="J9" s="143">
+        <f t="shared" si="0"/>
+        <v>12.159133333333335</v>
+      </c>
+      <c r="K9" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0182333333333338</v>
+      </c>
+      <c r="L9" s="161">
+        <f t="shared" ref="L9" si="2">(J9+J10+J11+J12+J13)/5</f>
+        <v>20.139433333333333</v>
+      </c>
+      <c r="M9" s="161">
+        <f>(K9+K10+K11+K12+K13)/5</f>
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="P9" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="85">
+        <v>6.9176433333333334</v>
+      </c>
+      <c r="R9" s="85">
+        <v>3.5021360000000001</v>
+      </c>
+      <c r="S9" s="105">
+        <v>1.1300508666666667</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A10" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="140">
+        <v>3</v>
+      </c>
+      <c r="C10" s="154">
+        <v>2</v>
+      </c>
+      <c r="D10" s="143">
+        <v>22.850899999999999</v>
+      </c>
+      <c r="E10" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="F10" s="143">
+        <v>22.502300000000002</v>
+      </c>
+      <c r="G10" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="H10" s="143">
+        <v>23.4254</v>
+      </c>
+      <c r="I10" s="154">
+        <v>5.09375</v>
+      </c>
+      <c r="J10" s="143">
+        <f t="shared" si="0"/>
+        <v>22.926199999999998</v>
+      </c>
+      <c r="K10" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1067733333333329</v>
+      </c>
+      <c r="L10" s="157"/>
+      <c r="M10" s="157"/>
+      <c r="P10" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="85">
+        <v>20.139433333333333</v>
+      </c>
+      <c r="R10" s="85">
+        <v>7.7157520000000002</v>
+      </c>
+      <c r="S10" s="105">
+        <v>1.8303726666666666</v>
+      </c>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A11" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="140">
+        <v>8</v>
+      </c>
+      <c r="C11" s="154">
+        <v>3</v>
+      </c>
+      <c r="D11" s="143">
+        <v>18.336200000000002</v>
+      </c>
+      <c r="E11" s="154">
+        <v>5.0703100000000001</v>
+      </c>
+      <c r="F11" s="143">
+        <v>18.488700000000001</v>
+      </c>
+      <c r="G11" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="H11" s="143">
+        <v>18.330200000000001</v>
+      </c>
+      <c r="I11" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="J11" s="143">
+        <f t="shared" si="0"/>
+        <v>18.385033333333336</v>
+      </c>
+      <c r="K11" s="154">
+        <f t="shared" si="1"/>
+        <v>5.09375</v>
+      </c>
+      <c r="L11" s="157"/>
+      <c r="M11" s="157"/>
+      <c r="P11" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="85">
+        <v>67.460940000000008</v>
+      </c>
+      <c r="R11" s="85">
+        <v>15.964618000000002</v>
+      </c>
+      <c r="S11" s="105">
+        <v>3.2919506666666662</v>
+      </c>
+      <c r="W11" s="85"/>
+      <c r="X11" s="108"/>
+      <c r="Y11" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC11" s="108"/>
+      <c r="AD11" s="111" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE11" s="110" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A12" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="140">
+        <v>4</v>
+      </c>
+      <c r="C12" s="154">
+        <v>8</v>
+      </c>
+      <c r="D12" s="143">
+        <v>32.938600000000001</v>
+      </c>
+      <c r="E12" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="F12" s="143">
+        <v>32.050899999999999</v>
+      </c>
+      <c r="G12" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="H12" s="143">
+        <v>32.184899999999999</v>
+      </c>
+      <c r="I12" s="154">
+        <v>5.125</v>
+      </c>
+      <c r="J12" s="143">
+        <f t="shared" si="0"/>
+        <v>32.391466666666666</v>
+      </c>
+      <c r="K12" s="154">
+        <f t="shared" si="1"/>
+        <v>5.119793333333333</v>
+      </c>
+      <c r="L12" s="157"/>
+      <c r="M12" s="157"/>
+      <c r="P12" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="85">
+        <v>346.6375666666666</v>
+      </c>
+      <c r="R12" s="85">
+        <v>23.522805999999999</v>
+      </c>
+      <c r="S12" s="105">
+        <v>4.428239333333333</v>
+      </c>
+      <c r="W12" s="85"/>
+      <c r="X12" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="111">
+        <v>3.062233333333332</v>
+      </c>
+      <c r="Z12" s="85">
+        <v>3.5021360000000001</v>
+      </c>
+      <c r="AC12" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="111">
+        <v>21.07553333333334</v>
+      </c>
+      <c r="AE12" s="85">
+        <v>10.845320000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A13" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="140">
+        <v>6</v>
+      </c>
+      <c r="C13" s="154">
+        <v>2</v>
+      </c>
+      <c r="D13" s="143">
+        <v>15.1853</v>
+      </c>
+      <c r="E13" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="F13" s="143">
+        <v>14.782299999999999</v>
+      </c>
+      <c r="G13" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="H13" s="143">
+        <v>14.538399999999999</v>
+      </c>
+      <c r="I13" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="J13" s="143">
+        <f t="shared" si="0"/>
+        <v>14.835333333333333</v>
+      </c>
+      <c r="K13" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1080733333333326</v>
+      </c>
+      <c r="L13" s="157"/>
+      <c r="M13" s="157"/>
+      <c r="P13" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="109">
+        <v>106.03247333333334</v>
+      </c>
+      <c r="R13" s="109">
+        <v>26.129814666666668</v>
+      </c>
+      <c r="S13" s="106">
+        <v>4.6149006666666663</v>
+      </c>
+      <c r="W13" s="85"/>
+      <c r="X13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y13" s="105">
+        <v>7.6555366666666664</v>
+      </c>
+      <c r="Z13" s="85">
+        <v>7.7157520000000002</v>
+      </c>
+      <c r="AC13" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="105">
+        <v>15.511719999999999</v>
+      </c>
+      <c r="AE13" s="85">
+        <v>11.715633333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A14" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="140">
+        <v>3</v>
+      </c>
+      <c r="C14" s="154">
+        <v>4</v>
+      </c>
+      <c r="D14" s="143">
+        <v>104.131</v>
+      </c>
+      <c r="E14" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="F14" s="143">
+        <v>102.08499999999999</v>
+      </c>
+      <c r="G14" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="H14" s="143">
+        <v>101.127</v>
+      </c>
+      <c r="I14" s="154">
+        <v>4.9882799999999996</v>
+      </c>
+      <c r="J14" s="143">
+        <f t="shared" si="0"/>
+        <v>102.44766666666668</v>
+      </c>
+      <c r="K14" s="154">
+        <f t="shared" si="1"/>
+        <v>5.070313333333333</v>
+      </c>
+      <c r="L14" s="161">
+        <f t="shared" ref="L14:M14" si="3">(J14+J15+J16+J17+J18)/5</f>
+        <v>67.460940000000008</v>
+      </c>
+      <c r="M14" s="161">
+        <f t="shared" si="3"/>
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="P14" s="85"/>
+      <c r="W14" s="85"/>
+      <c r="X14" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="105">
+        <v>26.039000000000001</v>
+      </c>
+      <c r="Z14" s="85">
+        <v>15.964618000000002</v>
+      </c>
+      <c r="AC14" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD14" s="105">
+        <v>15.2656266666666</v>
+      </c>
+      <c r="AE14" s="85">
+        <v>10.909379333333334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A15" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="140">
+        <v>1</v>
+      </c>
+      <c r="C15" s="154">
+        <v>4</v>
+      </c>
+      <c r="D15" s="143">
+        <v>90.780799999999999</v>
+      </c>
+      <c r="E15" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="F15" s="143">
+        <v>88.368399999999994</v>
+      </c>
+      <c r="G15" s="154">
+        <v>5.1093799999999998</v>
+      </c>
+      <c r="H15" s="143">
+        <v>88.054500000000004</v>
+      </c>
+      <c r="I15" s="154">
+        <v>5.1210899999999997</v>
+      </c>
+      <c r="J15" s="143">
+        <f t="shared" si="0"/>
+        <v>89.067900000000009</v>
+      </c>
+      <c r="K15" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1132833333333325</v>
+      </c>
+      <c r="L15" s="157"/>
+      <c r="M15" s="157"/>
+      <c r="P15" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="W15" s="85"/>
+      <c r="X15" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y15" s="105">
+        <v>45.64173333333337</v>
+      </c>
+      <c r="Z15" s="85">
+        <v>23.522805999999999</v>
+      </c>
+      <c r="AC15" s="89" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD15" s="105">
+        <v>20.811200000000003</v>
+      </c>
+      <c r="AE15" s="85">
+        <v>16.016151999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.15">
+      <c r="A16" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="140">
+        <v>1</v>
+      </c>
+      <c r="C16" s="154">
+        <v>3</v>
+      </c>
+      <c r="D16" s="143">
+        <v>49.054200000000002</v>
+      </c>
+      <c r="E16" s="154">
+        <v>5.0898399999999997</v>
+      </c>
+      <c r="F16" s="143">
+        <v>50.172499999999999</v>
+      </c>
+      <c r="G16" s="154">
+        <v>5.1289100000000003</v>
+      </c>
+      <c r="H16" s="143">
+        <v>48.567599999999999</v>
+      </c>
+      <c r="I16" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="J16" s="143">
+        <f>(D16+F16+H16)/3</f>
+        <v>49.264766666666667</v>
+      </c>
+      <c r="K16" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1106766666666665</v>
+      </c>
+      <c r="L16" s="157"/>
+      <c r="M16" s="157"/>
+      <c r="P16" s="107"/>
+      <c r="Q16" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="S16" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16" s="85"/>
+      <c r="X16" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y16" s="106">
+        <v>29.851433333333336</v>
+      </c>
+      <c r="Z16" s="109">
+        <v>26.129814666666668</v>
+      </c>
+      <c r="AC16" s="90" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD16" s="106">
+        <v>20.781266666666671</v>
+      </c>
+      <c r="AE16" s="109">
+        <v>14.952871999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A17" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="140">
+        <v>2</v>
+      </c>
+      <c r="C17" s="154">
+        <v>8</v>
+      </c>
+      <c r="D17" s="143">
+        <v>74.724100000000007</v>
+      </c>
+      <c r="E17" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="F17" s="143">
+        <v>67.141400000000004</v>
+      </c>
+      <c r="G17" s="154">
+        <v>5.0078100000000001</v>
+      </c>
+      <c r="H17" s="143">
+        <v>64.990700000000004</v>
+      </c>
+      <c r="I17" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="J17" s="143">
+        <f t="shared" si="0"/>
+        <v>68.952066666666667</v>
+      </c>
+      <c r="K17" s="154">
+        <f t="shared" si="1"/>
+        <v>5.07552</v>
+      </c>
+      <c r="L17" s="157"/>
+      <c r="M17" s="157"/>
+      <c r="P17" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="85">
+        <v>5.0916680000000003</v>
+      </c>
+      <c r="R17" s="85">
+        <v>10.845320000000001</v>
+      </c>
+      <c r="S17" s="105">
+        <v>21.22448</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A18" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="140">
+        <v>8</v>
+      </c>
+      <c r="C18" s="154">
+        <v>1</v>
+      </c>
+      <c r="D18" s="143">
+        <v>27.307099999999998</v>
+      </c>
+      <c r="E18" s="154">
+        <v>5.0078100000000001</v>
+      </c>
+      <c r="F18" s="143">
+        <v>27.625499999999999</v>
+      </c>
+      <c r="G18" s="154">
+        <v>5.1210899999999997</v>
+      </c>
+      <c r="H18" s="143">
+        <v>27.784300000000002</v>
+      </c>
+      <c r="I18" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="J18" s="143">
+        <f t="shared" si="0"/>
+        <v>27.572299999999998</v>
+      </c>
+      <c r="K18" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0781233333333331</v>
+      </c>
+      <c r="L18" s="157"/>
+      <c r="M18" s="157"/>
+      <c r="P18" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q18" s="85">
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="R18" s="85">
+        <v>11.715633333333333</v>
+      </c>
+      <c r="S18" s="105">
+        <v>21.355226666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A19" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="140">
+        <v>6</v>
+      </c>
+      <c r="C19" s="154">
+        <v>5</v>
+      </c>
+      <c r="D19" s="143">
+        <v>1211.82</v>
+      </c>
+      <c r="E19" s="154">
+        <v>5.1367200000000004</v>
+      </c>
+      <c r="F19" s="143">
+        <v>1213.4100000000001</v>
+      </c>
+      <c r="G19" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="H19" s="143">
+        <v>1203.8399999999999</v>
+      </c>
+      <c r="I19" s="154">
+        <v>5.1210899999999997</v>
+      </c>
+      <c r="J19" s="143">
+        <f t="shared" si="0"/>
+        <v>1209.6899999999998</v>
+      </c>
+      <c r="K19" s="154">
+        <f t="shared" si="1"/>
+        <v>5.125</v>
+      </c>
+      <c r="L19" s="161">
+        <f t="shared" ref="L19:M19" si="4">(J19+J20+J21+J22+J23)/5</f>
+        <v>346.6375666666666</v>
+      </c>
+      <c r="M19" s="161">
+        <f t="shared" si="4"/>
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="P19" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q19" s="85">
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="R19" s="85">
+        <v>10.909379333333334</v>
+      </c>
+      <c r="S19" s="105">
+        <v>19.048439333333334</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A20" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="140">
+        <v>7</v>
+      </c>
+      <c r="C20" s="154">
+        <v>12</v>
+      </c>
+      <c r="D20" s="143">
+        <v>105.58799999999999</v>
+      </c>
+      <c r="E20" s="154">
+        <v>5.0898399999999997</v>
+      </c>
+      <c r="F20" s="143">
+        <v>105.687</v>
+      </c>
+      <c r="G20" s="154">
+        <v>5.0781299999999998</v>
+      </c>
+      <c r="H20" s="143">
+        <v>103.504</v>
+      </c>
+      <c r="I20" s="154">
+        <v>5.0859399999999999</v>
+      </c>
+      <c r="J20" s="143">
+        <f t="shared" si="0"/>
+        <v>104.92633333333333</v>
+      </c>
+      <c r="K20" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0846366666666674</v>
+      </c>
+      <c r="L20" s="157"/>
+      <c r="M20" s="157"/>
+      <c r="P20" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q20" s="85">
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="R20" s="85">
+        <v>16.016151999999998</v>
+      </c>
+      <c r="S20" s="105">
+        <v>20.233345333333336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A21" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="140">
+        <v>10</v>
+      </c>
+      <c r="C21" s="154">
+        <v>8</v>
+      </c>
+      <c r="D21" s="143">
+        <v>54.164999999999999</v>
+      </c>
+      <c r="E21" s="154">
+        <v>5.0820299999999996</v>
+      </c>
+      <c r="F21" s="143">
+        <v>52.7485</v>
+      </c>
+      <c r="G21" s="154">
+        <v>5.0820299999999996</v>
+      </c>
+      <c r="H21" s="143">
+        <v>54.801600000000001</v>
+      </c>
+      <c r="I21" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="J21" s="143">
+        <f t="shared" si="0"/>
+        <v>53.905033333333336</v>
+      </c>
+      <c r="K21" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0898433333333335</v>
+      </c>
+      <c r="L21" s="157"/>
+      <c r="M21" s="157"/>
+      <c r="P21" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="109">
+        <v>5.0960926666666664</v>
+      </c>
+      <c r="R21" s="109">
+        <v>14.952871999999999</v>
+      </c>
+      <c r="S21" s="106">
+        <v>18.240378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A22" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="140">
+        <v>12</v>
+      </c>
+      <c r="C22" s="154">
+        <v>6</v>
+      </c>
+      <c r="D22" s="143">
+        <v>268.90499999999997</v>
+      </c>
+      <c r="E22" s="154">
+        <v>5.1289100000000003</v>
+      </c>
+      <c r="F22" s="143">
+        <v>265.88099999999997</v>
+      </c>
+      <c r="G22" s="154">
+        <v>5.0195299999999996</v>
+      </c>
+      <c r="H22" s="143">
+        <v>262.928</v>
+      </c>
+      <c r="I22" s="154">
+        <v>5.1054700000000004</v>
+      </c>
+      <c r="J22" s="143">
+        <f t="shared" si="0"/>
+        <v>265.90466666666663</v>
+      </c>
+      <c r="K22" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0846366666666674</v>
+      </c>
+      <c r="L22" s="157"/>
+      <c r="M22" s="157"/>
+      <c r="P22" s="140"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A23" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="140">
+        <v>7</v>
+      </c>
+      <c r="C23" s="154">
+        <v>6</v>
+      </c>
+      <c r="D23" s="143">
+        <v>101.61199999999999</v>
+      </c>
+      <c r="E23" s="154">
+        <v>5.0117200000000004</v>
+      </c>
+      <c r="F23" s="143">
+        <v>97.454300000000003</v>
+      </c>
+      <c r="G23" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="H23" s="143">
+        <v>97.219099999999997</v>
+      </c>
+      <c r="I23" s="154">
+        <v>5.0820299999999996</v>
+      </c>
+      <c r="J23" s="143">
+        <f t="shared" si="0"/>
+        <v>98.761799999999994</v>
+      </c>
+      <c r="K23" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0690099999999996</v>
+      </c>
+      <c r="L23" s="157"/>
+      <c r="M23" s="157"/>
+      <c r="P23" s="140"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A24" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="140">
+        <v>12</v>
+      </c>
+      <c r="C24" s="154">
+        <v>8</v>
+      </c>
+      <c r="D24" s="143">
+        <v>72.2607</v>
+      </c>
+      <c r="E24" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="F24" s="143">
+        <v>73.676699999999997</v>
+      </c>
+      <c r="G24" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="H24" s="143">
+        <v>72.776200000000003</v>
+      </c>
+      <c r="I24" s="154">
+        <v>5.125</v>
+      </c>
+      <c r="J24" s="143">
+        <f t="shared" si="0"/>
+        <v>72.904533333333333</v>
+      </c>
+      <c r="K24" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1184900000000004</v>
+      </c>
+      <c r="L24" s="161">
+        <f t="shared" ref="L24" si="5">(J24+J25+J26+J27+J28)/5</f>
+        <v>106.03247333333334</v>
+      </c>
+      <c r="M24" s="161">
+        <f>(K24+K25+K26+K27+K28)/5</f>
+        <v>5.0960926666666664</v>
+      </c>
+      <c r="P24" s="140"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A25" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="140">
+        <v>7</v>
+      </c>
+      <c r="C25" s="154">
+        <v>8</v>
+      </c>
+      <c r="D25" s="143">
+        <v>113.292</v>
+      </c>
+      <c r="E25" s="154">
+        <v>5.1171899999999999</v>
+      </c>
+      <c r="F25" s="143">
+        <v>117.337</v>
+      </c>
+      <c r="G25" s="154">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="H25" s="143">
+        <v>114.194</v>
+      </c>
+      <c r="I25" s="154">
+        <v>5.125</v>
+      </c>
+      <c r="J25" s="143">
+        <f t="shared" si="0"/>
+        <v>114.94100000000002</v>
+      </c>
+      <c r="K25" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1184900000000004</v>
+      </c>
+      <c r="L25" s="157"/>
+      <c r="M25" s="157"/>
+      <c r="P25" s="140"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A26" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="140">
+        <v>12</v>
+      </c>
+      <c r="C26" s="154">
+        <v>10</v>
+      </c>
+      <c r="D26" s="143">
+        <v>80.324200000000005</v>
+      </c>
+      <c r="E26" s="154">
+        <v>5.1210899999999997</v>
+      </c>
+      <c r="F26" s="143">
+        <v>80.541200000000003</v>
+      </c>
+      <c r="G26" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="H26" s="143">
+        <v>80.526700000000005</v>
+      </c>
+      <c r="I26" s="154">
+        <v>5.1015600000000001</v>
+      </c>
+      <c r="J26" s="143">
+        <f t="shared" si="0"/>
+        <v>80.464033333333347</v>
+      </c>
+      <c r="K26" s="154">
+        <f t="shared" si="1"/>
+        <v>5.1080700000000006</v>
+      </c>
+      <c r="L26" s="157"/>
+      <c r="M26" s="157"/>
+      <c r="P26" s="140"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A27" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="140">
+        <v>7</v>
+      </c>
+      <c r="C27" s="154">
+        <v>3</v>
+      </c>
+      <c r="D27" s="143">
+        <v>191.62200000000001</v>
+      </c>
+      <c r="E27" s="154">
+        <v>5.0820299999999996</v>
+      </c>
+      <c r="F27" s="143">
+        <v>196.67599999999999</v>
+      </c>
+      <c r="G27" s="154">
+        <v>5.1210899999999997</v>
+      </c>
+      <c r="H27" s="143">
+        <v>192.358</v>
+      </c>
+      <c r="I27" s="154">
+        <v>5.0898399999999997</v>
+      </c>
+      <c r="J27" s="143">
+        <f t="shared" si="0"/>
+        <v>193.55199999999999</v>
+      </c>
+      <c r="K27" s="154">
+        <f t="shared" si="1"/>
+        <v>5.0976533333333327</v>
+      </c>
+      <c r="L27" s="157"/>
+      <c r="M27" s="157"/>
+      <c r="P27" s="140"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A28" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="155">
+        <v>12</v>
+      </c>
+      <c r="C28" s="152">
+        <v>2</v>
+      </c>
+      <c r="D28" s="153">
+        <v>69.770799999999994</v>
+      </c>
+      <c r="E28" s="152">
+        <v>5.0117200000000004</v>
+      </c>
+      <c r="F28" s="153">
+        <v>68.0364</v>
+      </c>
+      <c r="G28" s="152">
+        <v>4.9882799999999996</v>
+      </c>
+      <c r="H28" s="153">
+        <v>67.095200000000006</v>
+      </c>
+      <c r="I28" s="152">
+        <v>5.1132799999999996</v>
+      </c>
+      <c r="J28" s="153">
+        <f t="shared" si="0"/>
+        <v>68.300799999999995</v>
+      </c>
+      <c r="K28" s="152">
+        <f>(E28+G28+I28)/3</f>
+        <v>5.0377599999999996</v>
+      </c>
+      <c r="L28" s="157"/>
+      <c r="M28" s="157"/>
+      <c r="P28" s="85"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P29" s="140"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="P30" s="140"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A31" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="P31" s="140"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="A32" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H32" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I32" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="K32" s="149" t="s">
+        <v>76</v>
+      </c>
+      <c r="P32" s="140"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A33" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="140">
+        <v>6</v>
+      </c>
+      <c r="C33" s="154">
+        <v>1</v>
+      </c>
+      <c r="D33" s="143">
+        <v>1.03261</v>
+      </c>
+      <c r="E33" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="F33" s="143">
+        <v>1.03261</v>
+      </c>
+      <c r="G33" s="154">
+        <v>22.101600000000001</v>
+      </c>
+      <c r="H33" s="143">
+        <v>1.08846</v>
+      </c>
+      <c r="I33" s="154">
+        <v>5.2968799999999998</v>
+      </c>
+      <c r="J33" s="143">
+        <f>(D33+F33+I33)/3</f>
+        <v>2.4540333333333333</v>
+      </c>
+      <c r="K33" s="105">
+        <f>(E33+G33+I33)/3</f>
+        <v>10.90366</v>
+      </c>
+      <c r="L33" s="150">
+        <f>(J33+J34+J35+J36+J37)/5</f>
+        <v>3.5021360000000001</v>
+      </c>
+      <c r="M33" s="147">
+        <f>(K33+K34+K35+K36+K37)/5</f>
+        <v>10.845320000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A34" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="140">
+        <v>3</v>
+      </c>
+      <c r="C34" s="154">
+        <v>1</v>
+      </c>
+      <c r="D34" s="143">
+        <v>1.0727599999999999</v>
+      </c>
+      <c r="E34" s="154">
+        <v>6.2421899999999999</v>
+      </c>
+      <c r="F34" s="143">
+        <v>1.1775</v>
+      </c>
+      <c r="G34" s="154">
+        <v>22.105499999999999</v>
+      </c>
+      <c r="H34" s="143">
+        <v>1.3039700000000001</v>
+      </c>
+      <c r="I34" s="154">
+        <v>5.3085899999999997</v>
+      </c>
+      <c r="J34" s="143">
+        <f t="shared" ref="J34:J57" si="6">(D34+F34+I34)/3</f>
+        <v>2.5196166666666664</v>
+      </c>
+      <c r="K34" s="105">
+        <f t="shared" ref="K34:K57" si="7">(E34+G34+I34)/3</f>
+        <v>11.218760000000001</v>
+      </c>
+      <c r="L34" s="159"/>
+      <c r="M34" s="158"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A35" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="140">
+        <v>5</v>
+      </c>
+      <c r="C35" s="154">
+        <v>2</v>
+      </c>
+      <c r="D35" s="143">
+        <v>1.74105</v>
+      </c>
+      <c r="E35" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="F35" s="143">
+        <v>1.7706299999999999</v>
+      </c>
+      <c r="G35" s="154">
+        <v>21.191400000000002</v>
+      </c>
+      <c r="H35" s="143">
+        <v>1.79236</v>
+      </c>
+      <c r="I35" s="154">
+        <v>5.2773399999999997</v>
+      </c>
+      <c r="J35" s="143">
+        <f t="shared" si="6"/>
+        <v>2.9296733333333336</v>
+      </c>
+      <c r="K35" s="105">
+        <f t="shared" si="7"/>
+        <v>10.593746666666666</v>
+      </c>
+      <c r="L35" s="159"/>
+      <c r="M35" s="158"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A36" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="140">
+        <v>1</v>
+      </c>
+      <c r="C36" s="154">
+        <v>5</v>
+      </c>
+      <c r="D36" s="143">
+        <v>6.1682199999999998</v>
+      </c>
+      <c r="E36" s="154">
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="F36" s="143">
+        <v>6.0948700000000002</v>
+      </c>
+      <c r="G36" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H36" s="143">
+        <v>6.0849099999999998</v>
+      </c>
+      <c r="I36" s="154">
+        <v>5.3242200000000004</v>
+      </c>
+      <c r="J36" s="143">
+        <f t="shared" si="6"/>
+        <v>5.8624366666666674</v>
+      </c>
+      <c r="K36" s="105">
+        <f t="shared" si="7"/>
+        <v>10.911466666666668</v>
+      </c>
+      <c r="L36" s="159"/>
+      <c r="M36" s="158"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A37" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="140">
+        <v>5</v>
+      </c>
+      <c r="C37" s="154">
+        <v>1</v>
+      </c>
+      <c r="D37" s="143">
+        <v>2.8433899999999999</v>
+      </c>
+      <c r="E37" s="154">
+        <v>5.3203100000000001</v>
+      </c>
+      <c r="F37" s="143">
+        <v>3.0866799999999999</v>
+      </c>
+      <c r="G37" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H37" s="143">
+        <v>2.8925900000000002</v>
+      </c>
+      <c r="I37" s="154">
+        <v>5.3046899999999999</v>
+      </c>
+      <c r="J37" s="143">
+        <f t="shared" si="6"/>
+        <v>3.74492</v>
+      </c>
+      <c r="K37" s="105">
+        <f t="shared" si="7"/>
+        <v>10.598966666666668</v>
+      </c>
+      <c r="L37" s="159"/>
+      <c r="M37" s="158"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A38" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="140">
+        <v>5</v>
+      </c>
+      <c r="C38" s="154">
+        <v>6</v>
+      </c>
+      <c r="D38" s="143">
+        <v>4.6052600000000004</v>
+      </c>
+      <c r="E38" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="F38" s="143">
+        <v>4.6330299999999998</v>
+      </c>
+      <c r="G38" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="H38" s="143">
+        <v>4.7984400000000003</v>
+      </c>
+      <c r="I38" s="154">
+        <v>5.3164100000000003</v>
+      </c>
+      <c r="J38" s="143">
+        <f t="shared" si="6"/>
+        <v>4.8515666666666668</v>
+      </c>
+      <c r="K38" s="105">
+        <f t="shared" si="7"/>
+        <v>10.59637</v>
+      </c>
+      <c r="L38" s="150">
+        <f t="shared" ref="L38:M38" si="8">(J38+J39+J40+J41+J42)/5</f>
+        <v>7.7157520000000002</v>
+      </c>
+      <c r="M38" s="147">
+        <f t="shared" si="8"/>
+        <v>11.715633333333333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A39" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="140">
+        <v>3</v>
+      </c>
+      <c r="C39" s="154">
+        <v>2</v>
+      </c>
+      <c r="D39" s="143">
+        <v>1.39815</v>
+      </c>
+      <c r="E39" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="F39" s="143">
+        <v>1.4229000000000001</v>
+      </c>
+      <c r="G39" s="154">
+        <v>5.3203100000000001</v>
+      </c>
+      <c r="H39" s="143">
+        <v>1.39211</v>
+      </c>
+      <c r="I39" s="154">
+        <v>5.3007799999999996</v>
+      </c>
+      <c r="J39" s="143">
+        <f t="shared" si="6"/>
+        <v>2.7072766666666666</v>
+      </c>
+      <c r="K39" s="105">
+        <f t="shared" si="7"/>
+        <v>10.597663333333333</v>
+      </c>
+      <c r="L39" s="159"/>
+      <c r="M39" s="158"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A40" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="140">
+        <v>8</v>
+      </c>
+      <c r="C40" s="154">
+        <v>3</v>
+      </c>
+      <c r="D40" s="143">
+        <v>9.0348500000000005</v>
+      </c>
+      <c r="E40" s="154">
+        <v>5.3164100000000003</v>
+      </c>
+      <c r="F40" s="143">
+        <v>8.8111800000000002</v>
+      </c>
+      <c r="G40" s="154">
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="H40" s="143">
+        <v>11.4825</v>
+      </c>
+      <c r="I40" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="J40" s="143">
+        <f t="shared" si="6"/>
+        <v>13.009876666666665</v>
+      </c>
+      <c r="K40" s="105">
+        <f t="shared" si="7"/>
+        <v>10.912763333333332</v>
+      </c>
+      <c r="L40" s="159"/>
+      <c r="M40" s="158"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A41" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="140">
+        <v>4</v>
+      </c>
+      <c r="C41" s="154">
+        <v>8</v>
+      </c>
+      <c r="D41" s="143">
+        <v>1.7169000000000001</v>
+      </c>
+      <c r="E41" s="154">
+        <v>5.3085899999999997</v>
+      </c>
+      <c r="F41" s="143">
+        <v>1.31907</v>
+      </c>
+      <c r="G41" s="154">
+        <v>5.3242200000000004</v>
+      </c>
+      <c r="H41" s="143">
+        <v>1.3166500000000001</v>
+      </c>
+      <c r="I41" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J41" s="143">
+        <f t="shared" si="6"/>
+        <v>8.06799</v>
+      </c>
+      <c r="K41" s="105">
+        <f t="shared" si="7"/>
+        <v>10.60027</v>
+      </c>
+      <c r="L41" s="159"/>
+      <c r="M41" s="158"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A42" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="140">
+        <v>6</v>
+      </c>
+      <c r="C42" s="154">
+        <v>2</v>
+      </c>
+      <c r="D42" s="143">
+        <v>4.2795699999999997</v>
+      </c>
+      <c r="E42" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="F42" s="143">
+        <v>4.3785800000000004</v>
+      </c>
+      <c r="G42" s="154">
+        <v>21.1328</v>
+      </c>
+      <c r="H42" s="143">
+        <v>4.4145000000000003</v>
+      </c>
+      <c r="I42" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J42" s="143">
+        <f t="shared" si="6"/>
+        <v>9.9420500000000001</v>
+      </c>
+      <c r="K42" s="105">
+        <f t="shared" si="7"/>
+        <v>15.871099999999998</v>
+      </c>
+      <c r="L42" s="159"/>
+      <c r="M42" s="158"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A43" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="140">
+        <v>3</v>
+      </c>
+      <c r="C43" s="154">
+        <v>4</v>
+      </c>
+      <c r="D43" s="143">
+        <v>2.2439200000000001</v>
+      </c>
+      <c r="E43" s="154">
+        <v>5.3007799999999996</v>
+      </c>
+      <c r="F43" s="143">
+        <v>2.4687999999999999</v>
+      </c>
+      <c r="G43" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="H43" s="143">
+        <v>2.2907099999999998</v>
+      </c>
+      <c r="I43" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="J43" s="143">
+        <f t="shared" si="6"/>
+        <v>8.632106666666667</v>
+      </c>
+      <c r="K43" s="105">
+        <f t="shared" si="7"/>
+        <v>15.888026666666667</v>
+      </c>
+      <c r="L43" s="150">
+        <f t="shared" ref="L43:M43" si="9">(J43+J44+J45+J46+J47)/5</f>
+        <v>15.964618000000002</v>
+      </c>
+      <c r="M43" s="147">
+        <f t="shared" si="9"/>
+        <v>10.909379333333334</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A44" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="140">
+        <v>1</v>
+      </c>
+      <c r="C44" s="154">
+        <v>4</v>
+      </c>
+      <c r="D44" s="143">
+        <v>44.948500000000003</v>
+      </c>
+      <c r="E44" s="154">
+        <v>5.2968799999999998</v>
+      </c>
+      <c r="F44" s="143">
+        <v>44.888100000000001</v>
+      </c>
+      <c r="G44" s="154">
+        <v>21.1953</v>
+      </c>
+      <c r="H44" s="143">
+        <v>45.103000000000002</v>
+      </c>
+      <c r="I44" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="J44" s="143">
+        <f t="shared" si="6"/>
+        <v>31.716366666666669</v>
+      </c>
+      <c r="K44" s="105">
+        <f t="shared" si="7"/>
+        <v>10.601559999999999</v>
+      </c>
+      <c r="L44" s="159"/>
+      <c r="M44" s="158"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A45" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="140">
+        <v>1</v>
+      </c>
+      <c r="C45" s="154">
+        <v>3</v>
+      </c>
+      <c r="D45" s="143">
+        <v>28.325800000000001</v>
+      </c>
+      <c r="E45" s="154">
+        <v>6.21875</v>
+      </c>
+      <c r="F45" s="143">
+        <v>28.366</v>
+      </c>
+      <c r="G45" s="154">
+        <v>6.2539100000000003</v>
+      </c>
+      <c r="H45" s="143">
+        <v>28.5839</v>
+      </c>
+      <c r="I45" s="154">
+        <v>5.3281299999999998</v>
+      </c>
+      <c r="J45" s="143">
+        <f t="shared" si="6"/>
+        <v>20.673310000000001</v>
+      </c>
+      <c r="K45" s="105">
+        <f t="shared" si="7"/>
+        <v>5.9335966666666664</v>
+      </c>
+      <c r="L45" s="159"/>
+      <c r="M45" s="158"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A46" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="140">
+        <v>2</v>
+      </c>
+      <c r="C46" s="154">
+        <v>8</v>
+      </c>
+      <c r="D46" s="143">
+        <v>16.4726</v>
+      </c>
+      <c r="E46" s="154">
+        <v>6.2421899999999999</v>
+      </c>
+      <c r="F46" s="143">
+        <v>16.853300000000001</v>
+      </c>
+      <c r="G46" s="154">
+        <v>21.191400000000002</v>
+      </c>
+      <c r="H46" s="143">
+        <v>19.067299999999999</v>
+      </c>
+      <c r="I46" s="154">
+        <v>6.2382799999999996</v>
+      </c>
+      <c r="J46" s="143">
+        <f t="shared" si="6"/>
+        <v>13.188060000000002</v>
+      </c>
+      <c r="K46" s="105">
+        <f t="shared" si="7"/>
+        <v>11.223956666666666</v>
+      </c>
+      <c r="L46" s="159"/>
+      <c r="M46" s="158"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A47" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="140">
+        <v>8</v>
+      </c>
+      <c r="C47" s="154">
+        <v>1</v>
+      </c>
+      <c r="D47" s="143">
+        <v>5.29589</v>
+      </c>
+      <c r="E47" s="154">
+        <v>5.3046899999999999</v>
+      </c>
+      <c r="F47" s="143">
+        <v>5.3094700000000001</v>
+      </c>
+      <c r="G47" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="H47" s="143">
+        <v>5.1953699999999996</v>
+      </c>
+      <c r="I47" s="154">
+        <v>6.2343799999999998</v>
+      </c>
+      <c r="J47" s="143">
+        <f t="shared" si="6"/>
+        <v>5.6132466666666661</v>
+      </c>
+      <c r="K47" s="105">
+        <f t="shared" si="7"/>
+        <v>10.899756666666667</v>
+      </c>
+      <c r="L47" s="159"/>
+      <c r="M47" s="158"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A48" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="140">
+        <v>6</v>
+      </c>
+      <c r="C48" s="154">
+        <v>5</v>
+      </c>
+      <c r="D48" s="143">
+        <v>37.430399999999999</v>
+      </c>
+      <c r="E48" s="154">
+        <v>22.125</v>
+      </c>
+      <c r="F48" s="143">
+        <v>37.324800000000003</v>
+      </c>
+      <c r="G48" s="154">
+        <v>21.191400000000002</v>
+      </c>
+      <c r="H48" s="143">
+        <v>38.857199999999999</v>
+      </c>
+      <c r="I48" s="154">
+        <v>21.1875</v>
+      </c>
+      <c r="J48" s="143">
+        <f t="shared" si="6"/>
+        <v>31.980900000000002</v>
+      </c>
+      <c r="K48" s="105">
+        <f t="shared" si="7"/>
+        <v>21.501300000000001</v>
+      </c>
+      <c r="L48" s="150">
+        <f t="shared" ref="L48:M48" si="10">(J48+J49+J50+J51+J52)/5</f>
+        <v>23.522805999999999</v>
+      </c>
+      <c r="M48" s="147">
+        <f t="shared" si="10"/>
+        <v>16.016151999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A49" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="140">
+        <v>7</v>
+      </c>
+      <c r="C49" s="154">
+        <v>12</v>
+      </c>
+      <c r="D49" s="143">
+        <v>10.806100000000001</v>
+      </c>
+      <c r="E49" s="154">
+        <v>5.2890600000000001</v>
+      </c>
+      <c r="F49" s="143">
+        <v>11.227499999999999</v>
+      </c>
+      <c r="G49" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="H49" s="143">
+        <v>10.755100000000001</v>
+      </c>
+      <c r="I49" s="154">
+        <v>5.3085899999999997</v>
+      </c>
+      <c r="J49" s="143">
+        <f t="shared" si="6"/>
+        <v>9.1140633333333323</v>
+      </c>
+      <c r="K49" s="105">
+        <f t="shared" si="7"/>
+        <v>10.593749999999998</v>
+      </c>
+      <c r="L49" s="159"/>
+      <c r="M49" s="158"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A50" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="140">
+        <v>10</v>
+      </c>
+      <c r="C50" s="154">
+        <v>8</v>
+      </c>
+      <c r="D50" s="143">
+        <v>11.3316</v>
+      </c>
+      <c r="E50" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="F50" s="143">
+        <v>11.2072</v>
+      </c>
+      <c r="G50" s="154">
+        <v>5.3046899999999999</v>
+      </c>
+      <c r="H50" s="143">
+        <v>11.369899999999999</v>
+      </c>
+      <c r="I50" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="J50" s="143">
+        <f t="shared" si="6"/>
+        <v>14.572833333333335</v>
+      </c>
+      <c r="K50" s="105">
+        <f t="shared" si="7"/>
+        <v>15.88153</v>
+      </c>
+      <c r="L50" s="159"/>
+      <c r="M50" s="158"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A51" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="140">
+        <v>12</v>
+      </c>
+      <c r="C51" s="154">
+        <v>6</v>
+      </c>
+      <c r="D51" s="143">
+        <v>61.4679</v>
+      </c>
+      <c r="E51" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="F51" s="143">
+        <v>61.223700000000001</v>
+      </c>
+      <c r="G51" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="H51" s="143">
+        <v>61.990699999999997</v>
+      </c>
+      <c r="I51" s="154">
+        <v>21.199200000000001</v>
+      </c>
+      <c r="J51" s="143">
+        <f t="shared" si="6"/>
+        <v>47.963599999999992</v>
+      </c>
+      <c r="K51" s="105">
+        <f t="shared" si="7"/>
+        <v>21.184899999999999</v>
+      </c>
+      <c r="L51" s="159"/>
+      <c r="M51" s="158"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A52" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="140">
+        <v>7</v>
+      </c>
+      <c r="C52" s="154">
+        <v>6</v>
+      </c>
+      <c r="D52" s="143">
+        <v>10.5344</v>
+      </c>
+      <c r="E52" s="154">
+        <v>6.2578100000000001</v>
+      </c>
+      <c r="F52" s="143">
+        <v>10.2416</v>
+      </c>
+      <c r="G52" s="154">
+        <v>5.3281299999999998</v>
+      </c>
+      <c r="H52" s="143">
+        <v>10.035500000000001</v>
+      </c>
+      <c r="I52" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="J52" s="143">
+        <f t="shared" si="6"/>
+        <v>13.982633333333334</v>
+      </c>
+      <c r="K52" s="105">
+        <f t="shared" si="7"/>
+        <v>10.919280000000001</v>
+      </c>
+      <c r="L52" s="159"/>
+      <c r="M52" s="158"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A53" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B53" s="140">
+        <v>12</v>
+      </c>
+      <c r="C53" s="154">
+        <v>8</v>
+      </c>
+      <c r="D53" s="143">
+        <v>15.5671</v>
+      </c>
+      <c r="E53" s="154">
+        <v>21.156300000000002</v>
+      </c>
+      <c r="F53" s="143">
+        <v>15.583399999999999</v>
+      </c>
+      <c r="G53" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="H53" s="143">
+        <v>16.0168</v>
+      </c>
+      <c r="I53" s="154">
+        <v>5.3203100000000001</v>
+      </c>
+      <c r="J53" s="143">
+        <f t="shared" si="6"/>
+        <v>12.156936666666667</v>
+      </c>
+      <c r="K53" s="105">
+        <f t="shared" si="7"/>
+        <v>10.59637</v>
+      </c>
+      <c r="L53" s="150">
+        <f t="shared" ref="L53:M53" si="11">(J53+J54+J55+J56+J57)/5</f>
+        <v>26.129814666666668</v>
+      </c>
+      <c r="M53" s="147">
+        <f t="shared" si="11"/>
+        <v>14.952871999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A54" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="140">
+        <v>7</v>
+      </c>
+      <c r="C54" s="154">
+        <v>8</v>
+      </c>
+      <c r="D54" s="143">
+        <v>29.7288</v>
+      </c>
+      <c r="E54" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="F54" s="143">
+        <v>26.9636</v>
+      </c>
+      <c r="G54" s="154">
+        <v>5.3242200000000004</v>
+      </c>
+      <c r="H54" s="143">
+        <v>26.8993</v>
+      </c>
+      <c r="I54" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="J54" s="143">
+        <f t="shared" si="6"/>
+        <v>25.956066666666668</v>
+      </c>
+      <c r="K54" s="105">
+        <f t="shared" si="7"/>
+        <v>15.884106666666668</v>
+      </c>
+      <c r="L54" s="159"/>
+      <c r="M54" s="158"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A55" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" s="140">
+        <v>12</v>
+      </c>
+      <c r="C55" s="154">
+        <v>10</v>
+      </c>
+      <c r="D55" s="143">
+        <v>33.510599999999997</v>
+      </c>
+      <c r="E55" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="F55" s="143">
+        <v>33.552599999999998</v>
+      </c>
+      <c r="G55" s="154">
+        <v>6.21875</v>
+      </c>
+      <c r="H55" s="143">
+        <v>33.787700000000001</v>
+      </c>
+      <c r="I55" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="J55" s="143">
+        <f t="shared" si="6"/>
+        <v>29.414299999999997</v>
+      </c>
+      <c r="K55" s="105">
+        <f t="shared" si="7"/>
+        <v>16.191416666666665</v>
+      </c>
+      <c r="L55" s="159"/>
+      <c r="M55" s="158"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A56" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" s="140">
+        <v>7</v>
+      </c>
+      <c r="C56" s="154">
+        <v>3</v>
+      </c>
+      <c r="D56" s="143">
+        <v>64.137699999999995</v>
+      </c>
+      <c r="E56" s="154">
+        <v>21.191400000000002</v>
+      </c>
+      <c r="F56" s="143">
+        <v>65.110299999999995</v>
+      </c>
+      <c r="G56" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="H56" s="143">
+        <v>62.754100000000001</v>
+      </c>
+      <c r="I56" s="154">
+        <v>6.2578100000000001</v>
+      </c>
+      <c r="J56" s="143">
+        <f t="shared" si="6"/>
+        <v>45.16860333333333</v>
+      </c>
+      <c r="K56" s="105">
+        <f t="shared" si="7"/>
+        <v>16.209636666666665</v>
+      </c>
+      <c r="L56" s="159"/>
+      <c r="M56" s="158"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A57" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" s="155">
+        <v>12</v>
+      </c>
+      <c r="C57" s="152">
+        <v>2</v>
+      </c>
+      <c r="D57" s="153">
+        <v>16.216699999999999</v>
+      </c>
+      <c r="E57" s="152">
+        <v>5.3085899999999997</v>
+      </c>
+      <c r="F57" s="153">
+        <v>16.4787</v>
+      </c>
+      <c r="G57" s="152">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="H57" s="153">
+        <v>16.3706</v>
+      </c>
+      <c r="I57" s="152">
+        <v>21.164100000000001</v>
+      </c>
+      <c r="J57" s="153">
+        <f t="shared" si="6"/>
+        <v>17.953166666666664</v>
+      </c>
+      <c r="K57" s="106">
+        <f t="shared" si="7"/>
+        <v>15.882829999999998</v>
+      </c>
+      <c r="L57" s="156"/>
+      <c r="M57" s="145"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A60" s="141" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A61" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E61" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="F61" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="I61" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="151" t="s">
+        <v>75</v>
+      </c>
+      <c r="K61" s="149" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A62" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="140">
+        <v>6</v>
+      </c>
+      <c r="C62" s="154">
+        <v>1</v>
+      </c>
+      <c r="D62" s="143">
+        <v>1.03261</v>
+      </c>
+      <c r="E62" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="F62" s="143">
+        <v>1.0513300000000001</v>
+      </c>
+      <c r="G62" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="H62" s="143">
+        <v>1.0305</v>
+      </c>
+      <c r="I62" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J62" s="143">
+        <f>(D62+F62+H62)/3</f>
+        <v>1.0381466666666668</v>
+      </c>
+      <c r="K62" s="105">
+        <f>(E62+G62+I62)/3</f>
+        <v>21.171900000000001</v>
+      </c>
+      <c r="L62" s="150">
+        <f>(J62+J63+J64+J65+J66)/5</f>
+        <v>1.1300508666666667</v>
+      </c>
+      <c r="M62" s="147">
+        <f>(K62+K63+K64+K65+K66)/5</f>
+        <v>21.22448</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A63" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="140">
+        <v>3</v>
+      </c>
+      <c r="C63" s="154">
+        <v>1</v>
+      </c>
+      <c r="D63" s="143">
+        <v>1.03352</v>
+      </c>
+      <c r="E63" s="154">
+        <v>21.144500000000001</v>
+      </c>
+      <c r="F63" s="143">
+        <v>1.0386500000000001</v>
+      </c>
+      <c r="G63" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="H63" s="143">
+        <v>1.02477</v>
+      </c>
+      <c r="I63" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J63" s="143">
+        <f t="shared" ref="J63:J86" si="12">(D63+F63+H63)/3</f>
+        <v>1.0323133333333334</v>
+      </c>
+      <c r="K63" s="105">
+        <f t="shared" ref="K63:K86" si="13">(E63+G63+I63)/3</f>
+        <v>21.164066666666667</v>
+      </c>
+      <c r="L63" s="159"/>
+      <c r="M63" s="158"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A64" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="140">
+        <v>5</v>
+      </c>
+      <c r="C64" s="154">
+        <v>2</v>
+      </c>
+      <c r="D64" s="143">
+        <v>0.88833200000000001</v>
+      </c>
+      <c r="E64" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="F64" s="143">
+        <v>0.81981300000000001</v>
+      </c>
+      <c r="G64" s="154">
+        <v>22.0898</v>
+      </c>
+      <c r="H64" s="143">
+        <v>0.80532499999999996</v>
+      </c>
+      <c r="I64" s="154">
+        <v>21.136700000000001</v>
+      </c>
+      <c r="J64" s="143">
+        <f t="shared" si="12"/>
+        <v>0.83782333333333325</v>
+      </c>
+      <c r="K64" s="105">
+        <f t="shared" si="13"/>
+        <v>21.466133333333335</v>
+      </c>
+      <c r="L64" s="159"/>
+      <c r="M64" s="158"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" s="140">
+        <v>1</v>
+      </c>
+      <c r="C65" s="154">
+        <v>5</v>
+      </c>
+      <c r="D65" s="143">
+        <v>1.6879200000000001</v>
+      </c>
+      <c r="E65" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="F65" s="143">
+        <v>1.86511</v>
+      </c>
+      <c r="G65" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="H65" s="143">
+        <v>1.64446</v>
+      </c>
+      <c r="I65" s="154">
+        <v>21.144500000000001</v>
+      </c>
+      <c r="J65" s="143">
+        <f t="shared" si="12"/>
+        <v>1.7324966666666668</v>
+      </c>
+      <c r="K65" s="105">
+        <f t="shared" si="13"/>
+        <v>21.154933333333336</v>
+      </c>
+      <c r="L65" s="159"/>
+      <c r="M65" s="158"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="140">
+        <v>5</v>
+      </c>
+      <c r="C66" s="154">
+        <v>1</v>
+      </c>
+      <c r="D66" s="143">
+        <v>1.0283899999999999</v>
+      </c>
+      <c r="E66" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="F66" s="143">
+        <v>1.0036400000000001</v>
+      </c>
+      <c r="G66" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="H66" s="143">
+        <v>0.99639299999999997</v>
+      </c>
+      <c r="I66" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="J66" s="143">
+        <f t="shared" si="12"/>
+        <v>1.0094743333333331</v>
+      </c>
+      <c r="K66" s="105">
+        <f t="shared" si="13"/>
+        <v>21.165366666666667</v>
+      </c>
+      <c r="L66" s="159"/>
+      <c r="M66" s="158"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="140">
+        <v>5</v>
+      </c>
+      <c r="C67" s="154">
+        <v>6</v>
+      </c>
+      <c r="D67" s="143">
+        <v>1.82134</v>
+      </c>
+      <c r="E67" s="154">
+        <v>22.078099999999999</v>
+      </c>
+      <c r="F67" s="143">
+        <v>1.74437</v>
+      </c>
+      <c r="G67" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H67" s="143">
+        <v>1.78149</v>
+      </c>
+      <c r="I67" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="J67" s="143">
+        <f t="shared" si="12"/>
+        <v>1.7824</v>
+      </c>
+      <c r="K67" s="105">
+        <f t="shared" si="13"/>
+        <v>21.473966666666666</v>
+      </c>
+      <c r="L67" s="150">
+        <f t="shared" ref="L67:M67" si="14">(J67+J68+J69+J70+J71)/5</f>
+        <v>1.8303726666666666</v>
+      </c>
+      <c r="M67" s="147">
+        <f t="shared" si="14"/>
+        <v>21.355226666666667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="140">
+        <v>3</v>
+      </c>
+      <c r="C68" s="154">
+        <v>2</v>
+      </c>
+      <c r="D68" s="143">
+        <v>1.39724</v>
+      </c>
+      <c r="E68" s="154">
+        <v>22.109400000000001</v>
+      </c>
+      <c r="F68" s="143">
+        <v>1.45309</v>
+      </c>
+      <c r="G68" s="154">
+        <v>22.105499999999999</v>
+      </c>
+      <c r="H68" s="143">
+        <v>1.38517</v>
+      </c>
+      <c r="I68" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="J68" s="143">
+        <f t="shared" si="12"/>
+        <v>1.4118333333333333</v>
+      </c>
+      <c r="K68" s="105">
+        <f t="shared" si="13"/>
+        <v>21.795599999999997</v>
+      </c>
+      <c r="L68" s="159"/>
+      <c r="M68" s="158"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="140">
+        <v>8</v>
+      </c>
+      <c r="C69" s="154">
+        <v>3</v>
+      </c>
+      <c r="D69" s="143">
+        <v>2.3528899999999999</v>
+      </c>
+      <c r="E69" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="F69" s="143">
+        <v>2.4582299999999999</v>
+      </c>
+      <c r="G69" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H69" s="143">
+        <v>2.3489599999999999</v>
+      </c>
+      <c r="I69" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="J69" s="143">
+        <f t="shared" si="12"/>
+        <v>2.3866933333333331</v>
+      </c>
+      <c r="K69" s="105">
+        <f t="shared" si="13"/>
+        <v>21.164066666666667</v>
+      </c>
+      <c r="L69" s="159"/>
+      <c r="M69" s="158"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A70" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="140">
+        <v>4</v>
+      </c>
+      <c r="C70" s="154">
+        <v>8</v>
+      </c>
+      <c r="D70" s="143">
+        <v>1.37249</v>
+      </c>
+      <c r="E70" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="F70" s="143">
+        <v>1.28345</v>
+      </c>
+      <c r="G70" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H70" s="143">
+        <v>1.39483</v>
+      </c>
+      <c r="I70" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="J70" s="143">
+        <f t="shared" si="12"/>
+        <v>1.3502566666666667</v>
+      </c>
+      <c r="K70" s="105">
+        <f t="shared" si="13"/>
+        <v>21.174499999999998</v>
+      </c>
+      <c r="L70" s="159"/>
+      <c r="M70" s="158"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A71" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="140">
+        <v>6</v>
+      </c>
+      <c r="C71" s="154">
+        <v>2</v>
+      </c>
+      <c r="D71" s="143">
+        <v>2.2354699999999998</v>
+      </c>
+      <c r="E71" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="F71" s="143">
+        <v>2.2327499999999998</v>
+      </c>
+      <c r="G71" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H71" s="143">
+        <v>2.1938200000000001</v>
+      </c>
+      <c r="I71" s="154">
+        <v>21.164100000000001</v>
+      </c>
+      <c r="J71" s="143">
+        <f t="shared" si="12"/>
+        <v>2.2206799999999998</v>
+      </c>
+      <c r="K71" s="105">
+        <f t="shared" si="13"/>
+        <v>21.168000000000003</v>
+      </c>
+      <c r="L71" s="159"/>
+      <c r="M71" s="158"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A72" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B72" s="140">
+        <v>3</v>
+      </c>
+      <c r="C72" s="154">
+        <v>4</v>
+      </c>
+      <c r="D72" s="143">
+        <v>2.2092100000000001</v>
+      </c>
+      <c r="E72" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="F72" s="143">
+        <v>2.20106</v>
+      </c>
+      <c r="G72" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H72" s="143">
+        <v>2.21102</v>
+      </c>
+      <c r="I72" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="J72" s="143">
+        <f t="shared" si="12"/>
+        <v>2.2070966666666667</v>
+      </c>
+      <c r="K72" s="105">
+        <f t="shared" si="13"/>
+        <v>21.166666666666668</v>
+      </c>
+      <c r="L72" s="150">
+        <f t="shared" ref="L72:M72" si="15">(J72+J73+J74+J75+J76)/5</f>
+        <v>3.2919506666666662</v>
+      </c>
+      <c r="M72" s="147">
+        <f t="shared" si="15"/>
+        <v>19.048439333333334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A73" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B73" s="140">
+        <v>1</v>
+      </c>
+      <c r="C73" s="154">
+        <v>4</v>
+      </c>
+      <c r="D73" s="143">
+        <v>3.4051200000000001</v>
+      </c>
+      <c r="E73" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="F73" s="143">
+        <v>3.5077500000000001</v>
+      </c>
+      <c r="G73" s="154">
+        <v>21.175799999999999</v>
+      </c>
+      <c r="H73" s="143">
+        <v>3.5125799999999998</v>
+      </c>
+      <c r="I73" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="J73" s="143">
+        <f t="shared" si="12"/>
+        <v>3.4751499999999997</v>
+      </c>
+      <c r="K73" s="105">
+        <f t="shared" si="13"/>
+        <v>21.177099999999999</v>
+      </c>
+      <c r="L73" s="159"/>
+      <c r="M73" s="158"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A74" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B74" s="140">
+        <v>1</v>
+      </c>
+      <c r="C74" s="154">
+        <v>3</v>
+      </c>
+      <c r="D74" s="143">
+        <v>4.7902899999999997</v>
+      </c>
+      <c r="E74" s="154">
+        <v>21.136700000000001</v>
+      </c>
+      <c r="F74" s="143">
+        <v>4.7936100000000001</v>
+      </c>
+      <c r="G74" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="H74" s="143">
+        <v>5.1660899999999996</v>
+      </c>
+      <c r="I74" s="154">
+        <v>21.144500000000001</v>
+      </c>
+      <c r="J74" s="143">
+        <f t="shared" si="12"/>
+        <v>4.9166633333333332</v>
+      </c>
+      <c r="K74" s="105">
+        <f t="shared" si="13"/>
+        <v>21.140599999999999</v>
+      </c>
+      <c r="L74" s="159"/>
+      <c r="M74" s="158"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A75" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="140">
+        <v>2</v>
+      </c>
+      <c r="C75" s="154">
+        <v>8</v>
+      </c>
+      <c r="D75" s="143">
+        <v>3.5952899999999999</v>
+      </c>
+      <c r="E75" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="F75" s="143">
+        <v>3.6625999999999999</v>
+      </c>
+      <c r="G75" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="H75" s="143">
+        <v>3.63</v>
+      </c>
+      <c r="I75" s="154">
+        <v>21.164100000000001</v>
+      </c>
+      <c r="J75" s="143">
+        <f t="shared" si="12"/>
+        <v>3.6292966666666664</v>
+      </c>
+      <c r="K75" s="105">
+        <f t="shared" si="13"/>
+        <v>21.161466666666669</v>
+      </c>
+      <c r="L75" s="159"/>
+      <c r="M75" s="158"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A76" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76" s="140">
+        <v>8</v>
+      </c>
+      <c r="C76" s="154">
+        <v>1</v>
+      </c>
+      <c r="D76" s="143">
+        <v>2.2267199999999998</v>
+      </c>
+      <c r="E76" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="F76" s="143">
+        <v>2.2252100000000001</v>
+      </c>
+      <c r="G76" s="154">
+        <v>5.3046899999999999</v>
+      </c>
+      <c r="H76" s="143">
+        <v>2.2427100000000002</v>
+      </c>
+      <c r="I76" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="J76" s="143">
+        <f t="shared" si="12"/>
+        <v>2.2315466666666666</v>
+      </c>
+      <c r="K76" s="105">
+        <f t="shared" si="13"/>
+        <v>10.596363333333334</v>
+      </c>
+      <c r="L76" s="159"/>
+      <c r="M76" s="158"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A77" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="140">
+        <v>6</v>
+      </c>
+      <c r="C77" s="154">
+        <v>5</v>
+      </c>
+      <c r="D77" s="143">
+        <v>2.81833</v>
+      </c>
+      <c r="E77" s="154">
+        <v>22.093800000000002</v>
+      </c>
+      <c r="F77" s="143">
+        <v>2.71963</v>
+      </c>
+      <c r="G77" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="H77" s="143">
+        <v>2.74831</v>
+      </c>
+      <c r="I77" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J77" s="143">
+        <f t="shared" si="12"/>
+        <v>2.7620900000000002</v>
+      </c>
+      <c r="K77" s="105">
+        <f t="shared" si="13"/>
+        <v>21.481800000000003</v>
+      </c>
+      <c r="L77" s="150">
+        <f t="shared" ref="L77:M77" si="16">(J77+J78+J79+J80+J81)/5</f>
+        <v>4.428239333333333</v>
+      </c>
+      <c r="M77" s="147">
+        <f t="shared" si="16"/>
+        <v>20.233345333333336</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A78" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="140">
+        <v>7</v>
+      </c>
+      <c r="C78" s="154">
+        <v>12</v>
+      </c>
+      <c r="D78" s="143">
+        <v>4.6897799999999998</v>
+      </c>
+      <c r="E78" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="F78" s="143">
+        <v>4.8567</v>
+      </c>
+      <c r="G78" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="H78" s="143">
+        <v>4.8579100000000004</v>
+      </c>
+      <c r="I78" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="J78" s="143">
+        <f t="shared" si="12"/>
+        <v>4.8014633333333334</v>
+      </c>
+      <c r="K78" s="105">
+        <f t="shared" si="13"/>
+        <v>21.165366666666667</v>
+      </c>
+      <c r="L78" s="159"/>
+      <c r="M78" s="158"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A79" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="140">
+        <v>10</v>
+      </c>
+      <c r="C79" s="154">
+        <v>8</v>
+      </c>
+      <c r="D79" s="143">
+        <v>4.79331</v>
+      </c>
+      <c r="E79" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="F79" s="143">
+        <v>4.7915000000000001</v>
+      </c>
+      <c r="G79" s="154">
+        <v>22.0977</v>
+      </c>
+      <c r="H79" s="143">
+        <v>4.9608400000000001</v>
+      </c>
+      <c r="I79" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="J79" s="143">
+        <f t="shared" si="12"/>
+        <v>4.8485500000000004</v>
+      </c>
+      <c r="K79" s="105">
+        <f t="shared" si="13"/>
+        <v>21.479200000000002</v>
+      </c>
+      <c r="L79" s="159"/>
+      <c r="M79" s="158"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A80" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="140">
+        <v>12</v>
+      </c>
+      <c r="C80" s="154">
+        <v>6</v>
+      </c>
+      <c r="D80" s="143">
+        <v>6.4755000000000003</v>
+      </c>
+      <c r="E80" s="154">
+        <v>5.2968799999999998</v>
+      </c>
+      <c r="F80" s="143">
+        <v>6.5886899999999997</v>
+      </c>
+      <c r="G80" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H80" s="143">
+        <v>6.9614700000000003</v>
+      </c>
+      <c r="I80" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="J80" s="143">
+        <f t="shared" si="12"/>
+        <v>6.6752200000000004</v>
+      </c>
+      <c r="K80" s="105">
+        <f t="shared" si="13"/>
+        <v>15.869793333333334</v>
+      </c>
+      <c r="L80" s="159"/>
+      <c r="M80" s="158"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A81" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="140">
+        <v>7</v>
+      </c>
+      <c r="C81" s="154">
+        <v>6</v>
+      </c>
+      <c r="D81" s="143">
+        <v>3.0887899999999999</v>
+      </c>
+      <c r="E81" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="F81" s="143">
+        <v>3.07158</v>
+      </c>
+      <c r="G81" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="H81" s="143">
+        <v>3.0012500000000002</v>
+      </c>
+      <c r="I81" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="J81" s="143">
+        <f t="shared" si="12"/>
+        <v>3.0538733333333337</v>
+      </c>
+      <c r="K81" s="105">
+        <f t="shared" si="13"/>
+        <v>21.170566666666669</v>
+      </c>
+      <c r="L81" s="159"/>
+      <c r="M81" s="158"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A82" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" s="140">
+        <v>12</v>
+      </c>
+      <c r="C82" s="154">
+        <v>8</v>
+      </c>
+      <c r="D82" s="143">
+        <v>3.45885</v>
+      </c>
+      <c r="E82" s="154">
+        <v>5.2773399999999997</v>
+      </c>
+      <c r="F82" s="143">
+        <v>3.5705300000000002</v>
+      </c>
+      <c r="G82" s="154">
+        <v>5.2773399999999997</v>
+      </c>
+      <c r="H82" s="143">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="I82" s="154">
+        <v>22.074200000000001</v>
+      </c>
+      <c r="J82" s="143">
+        <f t="shared" si="12"/>
+        <v>3.5094600000000002</v>
+      </c>
+      <c r="K82" s="105">
+        <f t="shared" si="13"/>
+        <v>10.876293333333335</v>
+      </c>
+      <c r="L82" s="150">
+        <f t="shared" ref="L82:M82" si="17">(J82+J83+J84+J85+J86)/5</f>
+        <v>4.6149006666666663</v>
+      </c>
+      <c r="M82" s="147">
+        <f t="shared" si="17"/>
+        <v>18.240378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A83" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" s="140">
+        <v>7</v>
+      </c>
+      <c r="C83" s="154">
+        <v>8</v>
+      </c>
+      <c r="D83" s="143">
+        <v>5.3577599999999999</v>
+      </c>
+      <c r="E83" s="154">
+        <v>5.3085899999999997</v>
+      </c>
+      <c r="F83" s="143">
+        <v>4.8615300000000001</v>
+      </c>
+      <c r="G83" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H83" s="143">
+        <v>4.77339</v>
+      </c>
+      <c r="I83" s="154">
+        <v>22.109400000000001</v>
+      </c>
+      <c r="J83" s="143">
+        <f t="shared" si="12"/>
+        <v>4.99756</v>
+      </c>
+      <c r="K83" s="105">
+        <f t="shared" si="13"/>
+        <v>16.196629999999999</v>
+      </c>
+      <c r="L83" s="159"/>
+      <c r="M83" s="158"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A84" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" s="140">
+        <v>12</v>
+      </c>
+      <c r="C84" s="154">
+        <v>10</v>
+      </c>
+      <c r="D84" s="143">
+        <v>6.5757099999999999</v>
+      </c>
+      <c r="E84" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="F84" s="143">
+        <v>6.5575999999999999</v>
+      </c>
+      <c r="G84" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="H84" s="143">
+        <v>6.3547599999999997</v>
+      </c>
+      <c r="I84" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="J84" s="143">
+        <f t="shared" si="12"/>
+        <v>6.4960233333333335</v>
+      </c>
+      <c r="K84" s="105">
+        <f t="shared" si="13"/>
+        <v>21.166699999999999</v>
+      </c>
+      <c r="L84" s="159"/>
+      <c r="M84" s="158"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A85" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" s="140">
+        <v>7</v>
+      </c>
+      <c r="C85" s="154">
+        <v>3</v>
+      </c>
+      <c r="D85" s="143">
+        <v>4.5412699999999999</v>
+      </c>
+      <c r="E85" s="154">
+        <v>21.1875</v>
+      </c>
+      <c r="F85" s="143">
+        <v>4.6897799999999998</v>
+      </c>
+      <c r="G85" s="154">
+        <v>22.1172</v>
+      </c>
+      <c r="H85" s="143">
+        <v>4.4842199999999997</v>
+      </c>
+      <c r="I85" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="J85" s="143">
+        <f t="shared" si="12"/>
+        <v>4.5717566666666665</v>
+      </c>
+      <c r="K85" s="105">
+        <f t="shared" si="13"/>
+        <v>21.488299999999999</v>
+      </c>
+      <c r="L85" s="159"/>
+      <c r="M85" s="158"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A86" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B86" s="155">
+        <v>12</v>
+      </c>
+      <c r="C86" s="152">
+        <v>2</v>
+      </c>
+      <c r="D86" s="153">
+        <v>3.3197000000000001</v>
+      </c>
+      <c r="E86" s="152">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="F86" s="153">
+        <v>3.1325599999999998</v>
+      </c>
+      <c r="G86" s="152">
+        <v>22.105499999999999</v>
+      </c>
+      <c r="H86" s="153">
+        <v>4.0468500000000001</v>
+      </c>
+      <c r="I86" s="152">
+        <v>21.148399999999999</v>
+      </c>
+      <c r="J86" s="153">
+        <f t="shared" si="12"/>
+        <v>3.4997033333333332</v>
+      </c>
+      <c r="K86" s="106">
+        <f t="shared" si="13"/>
+        <v>21.473966666666666</v>
+      </c>
+      <c r="L86" s="156"/>
+      <c r="M86" s="145"/>
+    </row>
+    <row r="105" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I105" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="107" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I107" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="108" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I108" s="107"/>
+      <c r="J108" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K108" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="L108" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="109" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I109" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="J109">
+        <v>191.45400000000001</v>
+      </c>
+      <c r="K109">
+        <v>28.622333333333302</v>
+      </c>
+      <c r="L109" s="105">
+        <v>4.7415200000000004</v>
+      </c>
+    </row>
+    <row r="110" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I110" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="J110">
+        <v>204.54560000000001</v>
+      </c>
+      <c r="K110">
+        <v>69.5553666666667</v>
+      </c>
+      <c r="L110" s="105">
+        <v>8.165165</v>
+      </c>
+    </row>
+    <row r="111" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I111" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="J111">
+        <v>700.51499999999999</v>
+      </c>
+      <c r="K111">
+        <v>240.39</v>
+      </c>
+      <c r="L111" s="105">
+        <v>28.75</v>
+      </c>
+    </row>
+    <row r="112" spans="9:18" x14ac:dyDescent="0.15">
+      <c r="I112" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="J112">
+        <v>1574.1210000000001</v>
+      </c>
+      <c r="K112">
+        <v>420.417333333334</v>
+      </c>
+      <c r="L112" s="105">
+        <v>57.72</v>
+      </c>
+      <c r="O112" s="143"/>
+      <c r="R112" s="105"/>
+    </row>
+    <row r="113" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I113" s="153"/>
+      <c r="J113" s="109"/>
+      <c r="K113" s="109"/>
+      <c r="L113" s="106"/>
+    </row>
+    <row r="114" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I114" s="85"/>
+    </row>
+    <row r="115" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I115" s="140" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I116" s="107"/>
+      <c r="J116" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K116" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="L116" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I117" s="143" t="s">
+        <v>90</v>
+      </c>
+      <c r="J117" s="85">
+        <v>5.0916680000000003</v>
+      </c>
+      <c r="K117" s="85">
+        <v>10.845320000000001</v>
+      </c>
+      <c r="L117" s="105">
+        <v>21.22448</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I118" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="J118" s="85">
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="K118" s="85">
+        <v>11.715633333333333</v>
+      </c>
+      <c r="L118" s="105">
+        <v>21.355226666666667</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I119" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="J119" s="85">
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="K119" s="85">
+        <v>10.909379333333334</v>
+      </c>
+      <c r="L119" s="105">
+        <v>19.048439333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I120" s="143" t="s">
+        <v>93</v>
+      </c>
+      <c r="J120" s="85">
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="K120" s="85">
+        <v>16.016151999999998</v>
+      </c>
+      <c r="L120" s="105">
+        <v>20.233345333333336</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12" x14ac:dyDescent="0.15">
+      <c r="I121" s="153"/>
+      <c r="J121" s="109"/>
+      <c r="K121" s="109"/>
+      <c r="L121" s="106"/>
+    </row>
+  </sheetData>
+  <mergeCells count="33">
+    <mergeCell ref="M72:M76"/>
+    <mergeCell ref="M77:M81"/>
+    <mergeCell ref="M82:M86"/>
+    <mergeCell ref="M38:M42"/>
+    <mergeCell ref="M43:M47"/>
+    <mergeCell ref="M48:M52"/>
+    <mergeCell ref="M53:M57"/>
+    <mergeCell ref="M62:M66"/>
+    <mergeCell ref="M67:M71"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="L77:L81"/>
+    <mergeCell ref="L82:L86"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L14:L18"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <cols>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A2" s="107"/>
+      <c r="B2" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A3" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="85">
+        <v>6.9176433333333334</v>
+      </c>
+      <c r="C3" s="85">
+        <v>3.5021360000000001</v>
+      </c>
+      <c r="D3" s="105">
+        <v>1.1300508666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="85">
+        <v>20.139433333333333</v>
+      </c>
+      <c r="C4" s="85">
+        <v>7.7157520000000002</v>
+      </c>
+      <c r="D4" s="105">
+        <v>1.8303726666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="85">
+        <v>67.460940000000008</v>
+      </c>
+      <c r="C5" s="85">
+        <v>15.964618000000002</v>
+      </c>
+      <c r="D5" s="105">
+        <v>3.2919506666666662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="85">
+        <v>346.6375666666666</v>
+      </c>
+      <c r="C6" s="85">
+        <v>23.522805999999999</v>
+      </c>
+      <c r="D6" s="105">
+        <v>4.428239333333333</v>
+      </c>
+      <c r="I6" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="K6" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="110" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="111" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="142" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="146" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="109">
+        <v>106.03247333333334</v>
+      </c>
+      <c r="C7" s="109">
+        <v>26.129814666666668</v>
+      </c>
+      <c r="D7" s="106">
+        <v>4.6149006666666663</v>
+      </c>
+      <c r="I7" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="140">
+        <v>6</v>
+      </c>
+      <c r="K7" s="140">
+        <v>1</v>
+      </c>
+      <c r="L7" s="140">
+        <v>1.0305</v>
+      </c>
+      <c r="M7" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="N7" s="163">
+        <v>0</v>
+      </c>
+      <c r="O7" s="160">
+        <f>(N7+N8+N9+N10+N11)/5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="85"/>
+      <c r="I8" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="140">
+        <v>3</v>
+      </c>
+      <c r="K8" s="140">
+        <v>1</v>
+      </c>
+      <c r="L8" s="140">
+        <v>1.02477</v>
+      </c>
+      <c r="M8" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="N8" s="163">
+        <v>0</v>
+      </c>
+      <c r="O8" s="148"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="140">
+        <v>5</v>
+      </c>
+      <c r="K9" s="140">
+        <v>2</v>
+      </c>
+      <c r="L9" s="140">
+        <v>0.80532499999999996</v>
+      </c>
+      <c r="M9" s="154">
+        <v>21.136700000000001</v>
+      </c>
+      <c r="N9" s="163">
+        <v>0</v>
+      </c>
+      <c r="O9" s="148"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="107"/>
+      <c r="B10" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="140">
+        <v>1</v>
+      </c>
+      <c r="K10" s="140">
+        <v>5</v>
+      </c>
+      <c r="L10" s="140">
+        <v>1.64446</v>
+      </c>
+      <c r="M10" s="154">
+        <v>21.144500000000001</v>
+      </c>
+      <c r="N10" s="163">
+        <v>0</v>
+      </c>
+      <c r="O10" s="148"/>
+      <c r="V10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="85">
+        <v>5.0916680000000003</v>
+      </c>
+      <c r="C11" s="85">
+        <v>10.845320000000001</v>
+      </c>
+      <c r="D11" s="105">
+        <v>21.22448</v>
+      </c>
+      <c r="I11" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="140">
+        <v>5</v>
+      </c>
+      <c r="K11" s="140">
+        <v>1</v>
+      </c>
+      <c r="L11" s="140">
+        <v>0.99639299999999997</v>
+      </c>
+      <c r="M11" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="N11" s="163">
+        <v>0</v>
+      </c>
+      <c r="O11" s="148"/>
+      <c r="R11" t="s">
+        <v>83</v>
+      </c>
+      <c r="S11" t="s">
+        <v>98</v>
+      </c>
+      <c r="T11" t="s">
+        <v>97</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="85">
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="C12" s="85">
+        <v>11.715633333333333</v>
+      </c>
+      <c r="D12" s="105">
+        <v>21.355226666666667</v>
+      </c>
+      <c r="I12" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="140">
+        <v>5</v>
+      </c>
+      <c r="K12" s="140">
+        <v>6</v>
+      </c>
+      <c r="L12" s="140">
+        <v>1.78149</v>
+      </c>
+      <c r="M12" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="N12" s="163">
+        <v>0</v>
+      </c>
+      <c r="O12" s="148">
+        <f t="shared" ref="O12" si="0">(N12+N13+N14+N15+N16)/5</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.63244999999999996</v>
+      </c>
+      <c r="T12">
+        <f>R12/S12</f>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>2.6729035550263649E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="85">
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="C13" s="85">
+        <v>10.909379333333334</v>
+      </c>
+      <c r="D13" s="105">
+        <v>19.048439333333334</v>
+      </c>
+      <c r="I13" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="140">
+        <v>3</v>
+      </c>
+      <c r="K13" s="140">
+        <v>2</v>
+      </c>
+      <c r="L13" s="140">
+        <v>1.38517</v>
+      </c>
+      <c r="M13" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="N13" s="163">
+        <v>0</v>
+      </c>
+      <c r="O13" s="148"/>
+      <c r="Q13" s="89" t="s">
+        <v>94</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.45175300000000002</v>
+      </c>
+      <c r="T13">
+        <f t="shared" ref="T13:T16" si="1">R13/S13</f>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>4.8155308949333897E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="85">
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="C14" s="85">
+        <v>16.016151999999998</v>
+      </c>
+      <c r="D14" s="105">
+        <v>20.233345333333336</v>
+      </c>
+      <c r="I14" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="140">
+        <v>8</v>
+      </c>
+      <c r="K14" s="140">
+        <v>3</v>
+      </c>
+      <c r="L14" s="140">
+        <v>2.3489599999999999</v>
+      </c>
+      <c r="M14" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="N14" s="163">
+        <v>0</v>
+      </c>
+      <c r="O14" s="148"/>
+      <c r="Q14" s="89" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14">
+        <v>1.5713999999999999E-2</v>
+      </c>
+      <c r="S14">
+        <v>0.58789999999999998</v>
+      </c>
+      <c r="T14">
+        <f>R14/S14</f>
+        <v>2.6729035550263649E-2</v>
+      </c>
+      <c r="V14">
+        <v>7.2228630094323537E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A15" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="109">
+        <v>5.0960926666666664</v>
+      </c>
+      <c r="C15" s="109">
+        <v>14.952871999999999</v>
+      </c>
+      <c r="D15" s="106">
+        <v>18.240378</v>
+      </c>
+      <c r="I15" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="140">
+        <v>4</v>
+      </c>
+      <c r="K15" s="140">
+        <v>8</v>
+      </c>
+      <c r="L15" s="140">
+        <v>1.39483</v>
+      </c>
+      <c r="M15" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="N15" s="163">
+        <v>0</v>
+      </c>
+      <c r="O15" s="148"/>
+      <c r="Q15" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="R15">
+        <v>1.8182E-2</v>
+      </c>
+      <c r="S15">
+        <v>0.37757000000000002</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="1"/>
+        <v>4.8155308949333897E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="I16" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="140">
+        <v>6</v>
+      </c>
+      <c r="K16" s="140">
+        <v>2</v>
+      </c>
+      <c r="L16" s="140">
+        <v>2.1938200000000001</v>
+      </c>
+      <c r="M16" s="154">
+        <v>21.164100000000001</v>
+      </c>
+      <c r="N16" s="163">
+        <v>0</v>
+      </c>
+      <c r="O16" s="148"/>
+      <c r="Q16" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="R16">
+        <v>2.3076000000000003E-2</v>
+      </c>
+      <c r="S16">
+        <v>0.31948549999999998</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="1"/>
+        <v>7.2228630094323537E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I17" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J17" s="140">
+        <v>3</v>
+      </c>
+      <c r="K17" s="140">
+        <v>4</v>
+      </c>
+      <c r="L17" s="140">
+        <v>2.21102</v>
+      </c>
+      <c r="M17" s="154">
+        <v>21.1523</v>
+      </c>
+      <c r="N17" s="163">
+        <v>0</v>
+      </c>
+      <c r="O17" s="148">
+        <f t="shared" ref="O17" si="2">(N17+N18+N19+N20+N21)/5</f>
+        <v>1.5713999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I18" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="140">
+        <v>1</v>
+      </c>
+      <c r="K18" s="140">
+        <v>4</v>
+      </c>
+      <c r="L18" s="140">
+        <v>3.5125799999999998</v>
+      </c>
+      <c r="M18" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="N18" s="163">
+        <v>0</v>
+      </c>
+      <c r="O18" s="148"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I19" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J19" s="140">
+        <v>1</v>
+      </c>
+      <c r="K19" s="140">
+        <v>3</v>
+      </c>
+      <c r="L19" s="140">
+        <v>5.1660899999999996</v>
+      </c>
+      <c r="M19" s="154">
+        <v>21.144500000000001</v>
+      </c>
+      <c r="N19" s="163">
+        <v>7.8570000000000001E-2</v>
+      </c>
+      <c r="O19" s="148"/>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I20" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="140">
+        <v>2</v>
+      </c>
+      <c r="K20" s="140">
+        <v>8</v>
+      </c>
+      <c r="L20" s="140">
+        <v>3.63</v>
+      </c>
+      <c r="M20" s="154">
+        <v>21.164100000000001</v>
+      </c>
+      <c r="N20" s="163">
+        <v>0</v>
+      </c>
+      <c r="O20" s="148"/>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I21" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="140">
+        <v>8</v>
+      </c>
+      <c r="K21" s="140">
+        <v>1</v>
+      </c>
+      <c r="L21" s="140">
+        <v>2.2427100000000002</v>
+      </c>
+      <c r="M21" s="154">
+        <v>5.3125</v>
+      </c>
+      <c r="N21" s="163">
+        <v>0</v>
+      </c>
+      <c r="O21" s="148"/>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I22" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="140">
+        <v>6</v>
+      </c>
+      <c r="K22" s="140">
+        <v>5</v>
+      </c>
+      <c r="L22" s="140">
+        <v>2.74831</v>
+      </c>
+      <c r="M22" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="N22" s="163">
+        <v>0</v>
+      </c>
+      <c r="O22" s="148">
+        <f t="shared" ref="O22" si="3">(N22+N23+N24+N25+N26)/5</f>
+        <v>1.8182E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I23" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="140">
+        <v>7</v>
+      </c>
+      <c r="K23" s="140">
+        <v>12</v>
+      </c>
+      <c r="L23" s="140">
+        <v>4.8579100000000004</v>
+      </c>
+      <c r="M23" s="154">
+        <v>21.183599999999998</v>
+      </c>
+      <c r="N23" s="163">
+        <v>0</v>
+      </c>
+      <c r="O23" s="148"/>
+    </row>
+    <row r="24" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I24" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J24" s="140">
+        <v>10</v>
+      </c>
+      <c r="K24" s="140">
+        <v>8</v>
+      </c>
+      <c r="L24" s="140">
+        <v>4.9608400000000001</v>
+      </c>
+      <c r="M24" s="154">
+        <v>21.171900000000001</v>
+      </c>
+      <c r="N24" s="163">
+        <v>0</v>
+      </c>
+      <c r="O24" s="148"/>
+    </row>
+    <row r="25" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I25" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J25" s="140">
+        <v>12</v>
+      </c>
+      <c r="K25" s="140">
+        <v>6</v>
+      </c>
+      <c r="L25" s="140">
+        <v>6.9614700000000003</v>
+      </c>
+      <c r="M25" s="154">
+        <v>21.140599999999999</v>
+      </c>
+      <c r="N25" s="163">
+        <v>9.0910000000000005E-2</v>
+      </c>
+      <c r="O25" s="148"/>
+    </row>
+    <row r="26" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I26" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="140">
+        <v>7</v>
+      </c>
+      <c r="K26" s="140">
+        <v>6</v>
+      </c>
+      <c r="L26" s="140">
+        <v>3.0012500000000002</v>
+      </c>
+      <c r="M26" s="154">
+        <v>21.1797</v>
+      </c>
+      <c r="N26" s="163">
+        <v>0</v>
+      </c>
+      <c r="O26" s="148"/>
+    </row>
+    <row r="27" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I27" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="140">
+        <v>12</v>
+      </c>
+      <c r="K27" s="140">
+        <v>8</v>
+      </c>
+      <c r="L27" s="140">
+        <v>3.4990000000000001</v>
+      </c>
+      <c r="M27" s="154">
+        <v>22.074200000000001</v>
+      </c>
+      <c r="N27" s="163">
+        <v>0</v>
+      </c>
+      <c r="O27" s="148">
+        <f t="shared" ref="O27" si="4">(N27+N28+N29+N30+N31)/5</f>
+        <v>2.3076000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I28" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="140">
+        <v>7</v>
+      </c>
+      <c r="K28" s="140">
+        <v>8</v>
+      </c>
+      <c r="L28" s="140">
+        <v>4.77339</v>
+      </c>
+      <c r="M28" s="154">
+        <v>22.109400000000001</v>
+      </c>
+      <c r="N28" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+      <c r="O28" s="148"/>
+    </row>
+    <row r="29" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I29" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="140">
+        <v>12</v>
+      </c>
+      <c r="K29" s="140">
+        <v>10</v>
+      </c>
+      <c r="L29" s="140">
+        <v>6.3547599999999997</v>
+      </c>
+      <c r="M29" s="154">
+        <v>21.167999999999999</v>
+      </c>
+      <c r="N29" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+      <c r="O29" s="148"/>
+    </row>
+    <row r="30" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I30" s="143" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="140">
+        <v>7</v>
+      </c>
+      <c r="K30" s="140">
+        <v>3</v>
+      </c>
+      <c r="L30" s="140">
+        <v>4.4842199999999997</v>
+      </c>
+      <c r="M30" s="154">
+        <v>21.1602</v>
+      </c>
+      <c r="N30" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+      <c r="O30" s="148"/>
+    </row>
+    <row r="31" spans="9:15" x14ac:dyDescent="0.15">
+      <c r="I31" s="153" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="155">
+        <v>12</v>
+      </c>
+      <c r="K31" s="155">
+        <v>2</v>
+      </c>
+      <c r="L31" s="155">
+        <v>4.0468500000000001</v>
+      </c>
+      <c r="M31" s="152">
+        <v>21.148399999999999</v>
+      </c>
+      <c r="N31" s="164">
+        <v>0</v>
+      </c>
+      <c r="O31" s="162"/>
+    </row>
+    <row r="35" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="J35" s="143" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" s="143" t="s">
+        <v>16</v>
+      </c>
+      <c r="L35" s="143" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35" s="143" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I36" t="s">
+        <v>84</v>
+      </c>
+      <c r="J36" s="163">
+        <v>0</v>
+      </c>
+      <c r="K36" s="163">
+        <v>0</v>
+      </c>
+      <c r="L36" s="163">
+        <v>0</v>
+      </c>
+      <c r="M36" s="163">
+        <v>0</v>
+      </c>
+      <c r="N36" s="163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I37" t="s">
+        <v>85</v>
+      </c>
+      <c r="J37" s="163">
+        <v>0</v>
+      </c>
+      <c r="K37" s="163">
+        <v>0</v>
+      </c>
+      <c r="L37" s="163">
+        <v>0</v>
+      </c>
+      <c r="M37" s="163">
+        <v>0</v>
+      </c>
+      <c r="N37" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="163">
+        <v>0</v>
+      </c>
+      <c r="K38" s="163">
+        <v>0</v>
+      </c>
+      <c r="L38" s="163">
+        <v>7.8570000000000001E-2</v>
+      </c>
+      <c r="M38" s="163">
+        <v>0</v>
+      </c>
+      <c r="N38" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I39" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="163">
+        <v>0</v>
+      </c>
+      <c r="K39" s="163">
+        <v>0</v>
+      </c>
+      <c r="L39" s="163">
+        <v>0</v>
+      </c>
+      <c r="M39" s="163">
+        <v>9.0910000000000005E-2</v>
+      </c>
+      <c r="N39" s="163">
+        <v>3.8460000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:14" x14ac:dyDescent="0.15">
+      <c r="I40" t="s">
+        <v>88</v>
+      </c>
+      <c r="J40" s="163">
+        <v>0</v>
+      </c>
+      <c r="K40" s="163">
+        <v>0</v>
+      </c>
+      <c r="L40" s="163">
+        <v>0</v>
+      </c>
+      <c r="M40" s="163">
+        <v>0</v>
+      </c>
+      <c r="N40" s="164">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O16"/>
+    <mergeCell ref="O17:O21"/>
+    <mergeCell ref="O22:O26"/>
+    <mergeCell ref="O27:O31"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8955,7 +16922,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" tabRatio="750" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
@@ -13,14 +13,14 @@
     <sheet name="校庆论文" sheetId="4" r:id="rId4"/>
     <sheet name="BASE_FDP,ICA_FDP,ICA_FDP_APA" sheetId="5" r:id="rId5"/>
     <sheet name="近似算法的相似性度量" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId7"/>
+    <sheet name="BASW_FDP，ICA_FDP,ICA_FEA" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="103">
   <si>
     <t>V6E10</t>
   </si>
@@ -370,6 +370,22 @@
   </si>
   <si>
     <t>下界</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FEA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图抽密度</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>图规模</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICA_FEA</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1469,6 +1485,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="57" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="57" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,72 +1540,41 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="57" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="57" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="57" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="57" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="57" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="57" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="71">
@@ -1908,11 +1924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="114783232"/>
-        <c:axId val="114697920"/>
+        <c:axId val="174623360"/>
+        <c:axId val="174633728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114783232"/>
+        <c:axId val="174623360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,13 +1950,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114697920"/>
+        <c:crossAx val="174633728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1948,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114697920"/>
+        <c:axId val="174633728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,14 +1990,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114783232"/>
+        <c:crossAx val="174623360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2289,11 +2303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52564480"/>
-        <c:axId val="148465920"/>
+        <c:axId val="174969600"/>
+        <c:axId val="174971520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52564480"/>
+        <c:axId val="174969600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2321,7 +2335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148465920"/>
+        <c:crossAx val="174971520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2329,7 +2343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="148465920"/>
+        <c:axId val="174971520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2366,7 +2380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52564480"/>
+        <c:crossAx val="174969600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2582,11 +2596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52567552"/>
-        <c:axId val="164376512"/>
+        <c:axId val="167263616"/>
+        <c:axId val="167294464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52567552"/>
+        <c:axId val="167263616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2614,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164376512"/>
+        <c:crossAx val="167294464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2622,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164376512"/>
+        <c:axId val="167294464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2659,7 +2673,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52567552"/>
+        <c:crossAx val="167263616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2895,11 +2909,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56867328"/>
-        <c:axId val="164379968"/>
+        <c:axId val="167319808"/>
+        <c:axId val="167321984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56867328"/>
+        <c:axId val="167319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2927,7 +2941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164379968"/>
+        <c:crossAx val="167321984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2935,7 +2949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="164379968"/>
+        <c:axId val="167321984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2972,7 +2986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56867328"/>
+        <c:crossAx val="167319808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3188,11 +3202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52564992"/>
-        <c:axId val="100631104"/>
+        <c:axId val="167347712"/>
+        <c:axId val="167349632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52564992"/>
+        <c:axId val="167347712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100631104"/>
+        <c:crossAx val="167349632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3229,7 +3243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100631104"/>
+        <c:axId val="167349632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52564992"/>
+        <c:crossAx val="167347712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3556,11 +3570,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112332288"/>
-        <c:axId val="100635712"/>
+        <c:axId val="176649344"/>
+        <c:axId val="176651264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112332288"/>
+        <c:axId val="176649344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3603,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100635712"/>
+        <c:crossAx val="176651264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3597,7 +3611,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100635712"/>
+        <c:axId val="176651264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +3645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112332288"/>
+        <c:crossAx val="176649344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3920,11 +3934,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="77006336"/>
-        <c:axId val="151300928"/>
+        <c:axId val="176681728"/>
+        <c:axId val="176683648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="77006336"/>
+        <c:axId val="176681728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3966,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151300928"/>
+        <c:crossAx val="176683648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3960,7 +3974,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151300928"/>
+        <c:axId val="176683648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3997,7 +4011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77006336"/>
+        <c:crossAx val="176681728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4116,11 +4130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98913792"/>
-        <c:axId val="163897920"/>
+        <c:axId val="176708608"/>
+        <c:axId val="176735360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98913792"/>
+        <c:axId val="176708608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4147,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163897920"/>
+        <c:crossAx val="176735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4141,7 +4155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163897920"/>
+        <c:axId val="176735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4156,7 +4170,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98913792"/>
+        <c:crossAx val="176708608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4378,11 +4392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="158898176"/>
-        <c:axId val="163904256"/>
+        <c:axId val="176379776"/>
+        <c:axId val="176382336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="158898176"/>
+        <c:axId val="176379776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4410,7 +4424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163904256"/>
+        <c:crossAx val="176382336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4418,7 +4432,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163904256"/>
+        <c:axId val="176382336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,13 +4462,750 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158898176"/>
+        <c:crossAx val="176379776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9176433333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.139433333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.460940000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.6375666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.03247333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5021360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7157520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.964618000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522805999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.129814666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8017088000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1726016000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.771694400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.818244799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.903851733333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="172763008"/>
+        <c:axId val="172764544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="172763008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172764544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="172764544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法执行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172763008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18611111111111112"/>
+          <c:y val="0.11053514144065327"/>
+          <c:w val="0.16272134733158355"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0916680000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0893246666666672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0906253333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0960926666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.952871999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$14:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.9059308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.941603666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.982161406666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.059220879999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.79391768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="124546048"/>
+        <c:axId val="168076032"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="124546048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="168076032"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="168076032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124546048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
@@ -4734,11 +5485,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116944896"/>
-        <c:axId val="114700224"/>
+        <c:axId val="174541056"/>
+        <c:axId val="174547328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116944896"/>
+        <c:axId val="174541056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4760,13 +5511,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114700224"/>
+        <c:crossAx val="174547328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4774,7 +5524,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114700224"/>
+        <c:axId val="174547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4804,6 +5554,349 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="174541056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$6:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>191.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.54560000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574.1210000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.622333333333302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5553666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420.417333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.897866666666641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.644293333333358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.31199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.33386666666718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="172935808"/>
+        <c:axId val="182314880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="172935808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图稠密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182314880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="182314880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法执行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -4811,7 +5904,361 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116944896"/>
+        <c:crossAx val="172935808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21666666666666667"/>
+          <c:y val="0.12905365995917178"/>
+          <c:w val="0.16272134733158355"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$14:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$14:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.0916680000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0893246666666672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0906253333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$14:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="openDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$14:$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>12.9059308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.941603666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.982161406666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.059220879999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="183652352"/>
+        <c:axId val="183653888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="183652352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图抽密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="183653888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="183653888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="183652352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5080,11 +6527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116946432"/>
-        <c:axId val="114702528"/>
+        <c:axId val="174462848"/>
+        <c:axId val="174465024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116946432"/>
+        <c:axId val="174462848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5106,13 +6553,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114702528"/>
+        <c:crossAx val="174465024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +6566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114702528"/>
+        <c:axId val="174465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5150,14 +6596,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116946432"/>
+        <c:crossAx val="174462848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5439,11 +6884,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="116946944"/>
-        <c:axId val="116908608"/>
+        <c:axId val="174503808"/>
+        <c:axId val="174510080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="116946944"/>
+        <c:axId val="174503808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,13 +6910,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116908608"/>
+        <c:crossAx val="174510080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5479,7 +6923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116908608"/>
+        <c:axId val="174510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5509,21 +6953,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116946944"/>
+        <c:crossAx val="174503808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5694,11 +7136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112365568"/>
-        <c:axId val="116910912"/>
+        <c:axId val="175025152"/>
+        <c:axId val="175043712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112365568"/>
+        <c:axId val="175025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5726,7 +7168,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116910912"/>
+        <c:crossAx val="175043712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5734,7 +7176,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116910912"/>
+        <c:axId val="175043712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5770,7 +7212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112365568"/>
+        <c:crossAx val="175025152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5957,11 +7399,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115578368"/>
-        <c:axId val="116913216"/>
+        <c:axId val="174749568"/>
+        <c:axId val="174759936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115578368"/>
+        <c:axId val="174749568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,7 +7430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116913216"/>
+        <c:crossAx val="174759936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5996,7 +7438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116913216"/>
+        <c:axId val="174759936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6032,7 +7474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115578368"/>
+        <c:crossAx val="174749568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6197,11 +7639,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="115578880"/>
-        <c:axId val="116915520"/>
+        <c:axId val="174859008"/>
+        <c:axId val="174860928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="115578880"/>
+        <c:axId val="174859008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6223,13 +7665,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116915520"/>
+        <c:crossAx val="174860928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6237,7 +7678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116915520"/>
+        <c:axId val="174860928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6267,14 +7708,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115578880"/>
+        <c:crossAx val="174859008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6449,11 +7889,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="112335872"/>
-        <c:axId val="117032640"/>
+        <c:axId val="174881792"/>
+        <c:axId val="174896256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="112335872"/>
+        <c:axId val="174881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6475,13 +7915,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="117032640"/>
+        <c:crossAx val="174896256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6489,7 +7928,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117032640"/>
+        <c:axId val="174896256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,21 +7958,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112335872"/>
+        <c:crossAx val="174881792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6824,11 +8261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="69860864"/>
-        <c:axId val="270029312"/>
+        <c:axId val="174921216"/>
+        <c:axId val="174923136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69860864"/>
+        <c:axId val="174921216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6856,7 +8293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="270029312"/>
+        <c:crossAx val="174923136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6864,7 +8301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="270029312"/>
+        <c:axId val="174923136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6893,7 +8330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69860864"/>
+        <c:crossAx val="174921216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7454,6 +8891,131 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -7761,18 +9323,18 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="134" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="135"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -8037,18 +9599,18 @@
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134" t="s">
+      <c r="F10" s="146"/>
+      <c r="G10" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="134" t="s">
+      <c r="H10" s="148"/>
+      <c r="I10" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="136"/>
+      <c r="J10" s="149"/>
       <c r="K10" s="89" t="s">
         <v>0</v>
       </c>
@@ -8401,18 +9963,18 @@
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134" t="s">
+      <c r="F19" s="146"/>
+      <c r="G19" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="134" t="s">
+      <c r="H19" s="148"/>
+      <c r="I19" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="135"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="53" t="s">
@@ -8645,18 +10207,18 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="132" t="s">
+      <c r="E28" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134" t="s">
+      <c r="F28" s="146"/>
+      <c r="G28" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="134" t="s">
+      <c r="H28" s="148"/>
+      <c r="I28" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="135"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="75" t="s">
@@ -8889,18 +10451,18 @@
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="83"/>
-      <c r="E37" s="132" t="s">
+      <c r="E37" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134" t="s">
+      <c r="F37" s="146"/>
+      <c r="G37" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="135"/>
-      <c r="I37" s="134" t="s">
+      <c r="H37" s="148"/>
+      <c r="I37" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="135"/>
+      <c r="J37" s="148"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -9254,12 +10816,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -9269,6 +10825,12 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9296,11 +10858,11 @@
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="152"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -9411,11 +10973,11 @@
       <c r="A10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="137" t="s">
+      <c r="B10" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="152"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="99" t="s">
@@ -9529,11 +11091,11 @@
       <c r="A19" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="137" t="s">
+      <c r="B19" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="138"/>
-      <c r="D19" s="139"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="152"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="99" t="s">
@@ -9644,11 +11206,11 @@
       <c r="A28" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="137" t="s">
+      <c r="B28" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="138"/>
-      <c r="D28" s="139"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="99" t="s">
@@ -9759,11 +11321,11 @@
       <c r="A37" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="137" t="s">
+      <c r="B37" s="150" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="138"/>
-      <c r="D37" s="139"/>
+      <c r="C37" s="151"/>
+      <c r="D37" s="152"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -9905,13 +11467,13 @@
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="137" t="s">
+      <c r="B1" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -10088,13 +11650,13 @@
       <c r="A11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="139"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="152"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="99" t="s">
@@ -10271,13 +11833,13 @@
       <c r="A21" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="139"/>
+      <c r="C21" s="151"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="99" t="s">
@@ -10454,13 +12016,13 @@
       <c r="A31" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
+      <c r="C31" s="151"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="99" t="s">
@@ -10637,13 +12199,13 @@
       <c r="A41" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="137" t="s">
+      <c r="B41" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="139"/>
+      <c r="C41" s="151"/>
+      <c r="D41" s="151"/>
+      <c r="E41" s="151"/>
+      <c r="F41" s="152"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="99" t="s">
@@ -10852,18 +12414,18 @@
       <c r="B1" s="81"/>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
-      <c r="E1" s="132" t="s">
+      <c r="E1" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134" t="s">
+      <c r="F1" s="146"/>
+      <c r="G1" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="134" t="s">
+      <c r="H1" s="148"/>
+      <c r="I1" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="135"/>
+      <c r="J1" s="148"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -11122,18 +12684,18 @@
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
-      <c r="E10" s="132" t="s">
+      <c r="E10" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134" t="s">
+      <c r="F10" s="146"/>
+      <c r="G10" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="135"/>
-      <c r="I10" s="134" t="s">
+      <c r="H10" s="148"/>
+      <c r="I10" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="136"/>
+      <c r="J10" s="149"/>
       <c r="K10" s="89" t="s">
         <v>0</v>
       </c>
@@ -11456,18 +13018,18 @@
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134" t="s">
+      <c r="F19" s="146"/>
+      <c r="G19" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="134" t="s">
+      <c r="H19" s="148"/>
+      <c r="I19" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="135"/>
+      <c r="J19" s="148"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="99" t="s">
@@ -11700,18 +13262,18 @@
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
       <c r="D28" s="83"/>
-      <c r="E28" s="132" t="s">
+      <c r="E28" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="133"/>
-      <c r="G28" s="134" t="s">
+      <c r="F28" s="146"/>
+      <c r="G28" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="135"/>
-      <c r="I28" s="134" t="s">
+      <c r="H28" s="148"/>
+      <c r="I28" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="135"/>
+      <c r="J28" s="148"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="99" t="s">
@@ -11944,18 +13506,18 @@
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="83"/>
-      <c r="E37" s="132" t="s">
+      <c r="E37" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="133"/>
-      <c r="G37" s="134" t="s">
+      <c r="F37" s="146"/>
+      <c r="G37" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="135"/>
-      <c r="I37" s="134" t="s">
+      <c r="H37" s="148"/>
+      <c r="I37" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="135"/>
+      <c r="J37" s="148"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -12279,6 +13841,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="I37:J37"/>
@@ -12288,12 +13856,6 @@
     <mergeCell ref="E28:F28"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:J28"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12306,8 +13868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE121"/>
   <sheetViews>
-    <sheetView topLeftCell="E40" workbookViewId="0">
-      <selection activeCell="L127" sqref="L127"/>
+    <sheetView topLeftCell="E106" workbookViewId="0">
+      <selection activeCell="L133" sqref="L133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12320,18 +13882,18 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="161" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144" t="s">
+      <c r="E2" s="161"/>
+      <c r="F2" s="161" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="144"/>
-      <c r="H2" s="144" t="s">
+      <c r="G2" s="161"/>
+      <c r="H2" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="144"/>
+      <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
@@ -12361,130 +13923,130 @@
       <c r="I3" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="K3" s="149" t="s">
+      <c r="K3" s="137" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="140">
+      <c r="B4" s="132">
         <v>6</v>
       </c>
-      <c r="C4" s="154">
+      <c r="C4" s="141">
         <v>1</v>
       </c>
-      <c r="D4" s="143">
+      <c r="D4" s="135">
         <v>5.6617199999999999</v>
       </c>
-      <c r="E4" s="154">
+      <c r="E4" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="F4" s="143">
+      <c r="F4" s="135">
         <v>5.6716800000000003</v>
       </c>
-      <c r="G4" s="154">
+      <c r="G4" s="141">
         <v>5.0039100000000003</v>
       </c>
-      <c r="H4" s="143">
+      <c r="H4" s="135">
         <v>5.36259</v>
       </c>
-      <c r="I4" s="154">
+      <c r="I4" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="J4" s="143">
+      <c r="J4" s="135">
         <f>(D4+F4+H4)/3</f>
         <v>5.5653300000000003</v>
       </c>
-      <c r="K4" s="154">
+      <c r="K4" s="141">
         <f>(E4+G4+I4)/3</f>
         <v>5.0742200000000004</v>
       </c>
-      <c r="L4" s="161">
+      <c r="L4" s="156">
         <f>(J4+J5+J6+J7+J8)/5</f>
         <v>6.9176433333333334</v>
       </c>
-      <c r="M4" s="161">
+      <c r="M4" s="156">
         <f>(K4+K5+K6+K7+K8)/5</f>
         <v>5.0916680000000003</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="140">
+      <c r="B5" s="132">
         <v>3</v>
       </c>
-      <c r="C5" s="154">
+      <c r="C5" s="141">
         <v>1</v>
       </c>
-      <c r="D5" s="143">
+      <c r="D5" s="135">
         <v>8.5422399999999996</v>
       </c>
-      <c r="E5" s="154">
+      <c r="E5" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="F5" s="143">
+      <c r="F5" s="135">
         <v>7.9946900000000003</v>
       </c>
-      <c r="G5" s="154">
+      <c r="G5" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="H5" s="143">
+      <c r="H5" s="135">
         <v>8.7176100000000005</v>
       </c>
-      <c r="I5" s="154">
+      <c r="I5" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="J5" s="143">
+      <c r="J5" s="135">
         <f t="shared" ref="J5:J28" si="0">(D5+F5+H5)/3</f>
         <v>8.4181799999999996</v>
       </c>
-      <c r="K5" s="154">
-        <f t="shared" ref="K5:K28" si="1">(E5+G5+I5)/3</f>
+      <c r="K5" s="141">
+        <f t="shared" ref="K5:K27" si="1">(E5+G5+I5)/3</f>
         <v>5.1106799999999994</v>
       </c>
       <c r="L5" s="157"/>
       <c r="M5" s="157"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="140">
+      <c r="B6" s="132">
         <v>5</v>
       </c>
-      <c r="C6" s="154">
+      <c r="C6" s="141">
         <v>2</v>
       </c>
-      <c r="D6" s="143">
+      <c r="D6" s="135">
         <v>4.5738700000000003</v>
       </c>
-      <c r="E6" s="154">
+      <c r="E6" s="141">
         <v>4.9960899999999997</v>
       </c>
-      <c r="F6" s="143">
+      <c r="F6" s="135">
         <v>4.8727</v>
       </c>
-      <c r="G6" s="154">
+      <c r="G6" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="H6" s="143">
+      <c r="H6" s="135">
         <v>4.5216500000000002</v>
       </c>
-      <c r="I6" s="154">
+      <c r="I6" s="141">
         <v>5.0859399999999999</v>
       </c>
-      <c r="J6" s="143">
+      <c r="J6" s="135">
         <f t="shared" si="0"/>
         <v>4.6560733333333344</v>
       </c>
-      <c r="K6" s="154">
+      <c r="K6" s="141">
         <f t="shared" si="1"/>
         <v>5.0611966666666666</v>
       </c>
@@ -12492,38 +14054,38 @@
       <c r="M6" s="157"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="140">
+      <c r="B7" s="132">
         <v>1</v>
       </c>
-      <c r="C7" s="154">
+      <c r="C7" s="141">
         <v>5</v>
       </c>
-      <c r="D7" s="143">
+      <c r="D7" s="135">
         <v>9.3484700000000007</v>
       </c>
-      <c r="E7" s="154">
+      <c r="E7" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="F7" s="143">
+      <c r="F7" s="135">
         <v>9.3874099999999991</v>
       </c>
-      <c r="G7" s="154">
+      <c r="G7" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="H7" s="143">
+      <c r="H7" s="135">
         <v>9.3831799999999994</v>
       </c>
-      <c r="I7" s="154">
+      <c r="I7" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="J7" s="143">
+      <c r="J7" s="135">
         <f t="shared" si="0"/>
         <v>9.3730200000000004</v>
       </c>
-      <c r="K7" s="154">
+      <c r="K7" s="141">
         <f t="shared" si="1"/>
         <v>5.1054699999999995</v>
       </c>
@@ -12534,38 +14096,38 @@
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="140">
+      <c r="B8" s="132">
         <v>5</v>
       </c>
-      <c r="C8" s="154">
+      <c r="C8" s="141">
         <v>1</v>
       </c>
-      <c r="D8" s="143">
+      <c r="D8" s="135">
         <v>6.5615300000000003</v>
       </c>
-      <c r="E8" s="154">
+      <c r="E8" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="F8" s="143">
+      <c r="F8" s="135">
         <v>6.5678599999999996</v>
       </c>
-      <c r="G8" s="154">
+      <c r="G8" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="H8" s="143">
+      <c r="H8" s="135">
         <v>6.5974500000000003</v>
       </c>
-      <c r="I8" s="154">
+      <c r="I8" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="J8" s="143">
+      <c r="J8" s="135">
         <f t="shared" si="0"/>
         <v>6.575613333333334</v>
       </c>
-      <c r="K8" s="154">
+      <c r="K8" s="141">
         <f t="shared" si="1"/>
         <v>5.1067733333333338</v>
       </c>
@@ -12583,50 +14145,50 @@
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A9" s="143" t="s">
+      <c r="A9" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="140">
+      <c r="B9" s="132">
         <v>5</v>
       </c>
-      <c r="C9" s="154">
+      <c r="C9" s="141">
         <v>6</v>
       </c>
-      <c r="D9" s="143">
+      <c r="D9" s="135">
         <v>12.233499999999999</v>
       </c>
-      <c r="E9" s="154">
+      <c r="E9" s="141">
         <v>5.0039100000000003</v>
       </c>
-      <c r="F9" s="143">
+      <c r="F9" s="135">
         <v>12.189399999999999</v>
       </c>
-      <c r="G9" s="154">
+      <c r="G9" s="141">
         <v>4.9726600000000003</v>
       </c>
-      <c r="H9" s="143">
+      <c r="H9" s="135">
         <v>12.054500000000001</v>
       </c>
-      <c r="I9" s="154">
+      <c r="I9" s="141">
         <v>5.0781299999999998</v>
       </c>
-      <c r="J9" s="143">
+      <c r="J9" s="135">
         <f t="shared" si="0"/>
         <v>12.159133333333335</v>
       </c>
-      <c r="K9" s="154">
+      <c r="K9" s="141">
         <f t="shared" si="1"/>
         <v>5.0182333333333338</v>
       </c>
-      <c r="L9" s="161">
+      <c r="L9" s="156">
         <f t="shared" ref="L9" si="2">(J9+J10+J11+J12+J13)/5</f>
         <v>20.139433333333333</v>
       </c>
-      <c r="M9" s="161">
+      <c r="M9" s="156">
         <f>(K9+K10+K11+K12+K13)/5</f>
         <v>5.0893246666666672</v>
       </c>
-      <c r="P9" s="143" t="s">
+      <c r="P9" s="135" t="s">
         <v>0</v>
       </c>
       <c r="Q9" s="85">
@@ -12646,44 +14208,44 @@
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A10" s="143" t="s">
+      <c r="A10" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="140">
+      <c r="B10" s="132">
         <v>3</v>
       </c>
-      <c r="C10" s="154">
+      <c r="C10" s="141">
         <v>2</v>
       </c>
-      <c r="D10" s="143">
+      <c r="D10" s="135">
         <v>22.850899999999999</v>
       </c>
-      <c r="E10" s="154">
+      <c r="E10" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="F10" s="143">
+      <c r="F10" s="135">
         <v>22.502300000000002</v>
       </c>
-      <c r="G10" s="154">
+      <c r="G10" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="135">
         <v>23.4254</v>
       </c>
-      <c r="I10" s="154">
+      <c r="I10" s="141">
         <v>5.09375</v>
       </c>
-      <c r="J10" s="143">
+      <c r="J10" s="135">
         <f t="shared" si="0"/>
         <v>22.926199999999998</v>
       </c>
-      <c r="K10" s="154">
+      <c r="K10" s="141">
         <f t="shared" si="1"/>
         <v>5.1067733333333329</v>
       </c>
       <c r="L10" s="157"/>
       <c r="M10" s="157"/>
-      <c r="P10" s="143" t="s">
+      <c r="P10" s="135" t="s">
         <v>16</v>
       </c>
       <c r="Q10" s="85">
@@ -12706,44 +14268,44 @@
       <c r="AE10" s="85"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="140">
+      <c r="B11" s="132">
         <v>8</v>
       </c>
-      <c r="C11" s="154">
+      <c r="C11" s="141">
         <v>3</v>
       </c>
-      <c r="D11" s="143">
+      <c r="D11" s="135">
         <v>18.336200000000002</v>
       </c>
-      <c r="E11" s="154">
+      <c r="E11" s="141">
         <v>5.0703100000000001</v>
       </c>
-      <c r="F11" s="143">
+      <c r="F11" s="135">
         <v>18.488700000000001</v>
       </c>
-      <c r="G11" s="154">
+      <c r="G11" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="H11" s="143">
+      <c r="H11" s="135">
         <v>18.330200000000001</v>
       </c>
-      <c r="I11" s="154">
+      <c r="I11" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="J11" s="143">
+      <c r="J11" s="135">
         <f t="shared" si="0"/>
         <v>18.385033333333336</v>
       </c>
-      <c r="K11" s="154">
+      <c r="K11" s="141">
         <f t="shared" si="1"/>
         <v>5.09375</v>
       </c>
       <c r="L11" s="157"/>
       <c r="M11" s="157"/>
-      <c r="P11" s="143" t="s">
+      <c r="P11" s="135" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="85">
@@ -12772,44 +14334,44 @@
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="140">
+      <c r="B12" s="132">
         <v>4</v>
       </c>
-      <c r="C12" s="154">
+      <c r="C12" s="141">
         <v>8</v>
       </c>
-      <c r="D12" s="143">
+      <c r="D12" s="135">
         <v>32.938600000000001</v>
       </c>
-      <c r="E12" s="154">
+      <c r="E12" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="F12" s="143">
+      <c r="F12" s="135">
         <v>32.050899999999999</v>
       </c>
-      <c r="G12" s="154">
+      <c r="G12" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="H12" s="143">
+      <c r="H12" s="135">
         <v>32.184899999999999</v>
       </c>
-      <c r="I12" s="154">
+      <c r="I12" s="141">
         <v>5.125</v>
       </c>
-      <c r="J12" s="143">
+      <c r="J12" s="135">
         <f t="shared" si="0"/>
         <v>32.391466666666666</v>
       </c>
-      <c r="K12" s="154">
+      <c r="K12" s="141">
         <f t="shared" si="1"/>
         <v>5.119793333333333</v>
       </c>
       <c r="L12" s="157"/>
       <c r="M12" s="157"/>
-      <c r="P12" s="143" t="s">
+      <c r="P12" s="135" t="s">
         <v>28</v>
       </c>
       <c r="Q12" s="85">
@@ -12842,44 +14404,44 @@
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="140">
+      <c r="B13" s="132">
         <v>6</v>
       </c>
-      <c r="C13" s="154">
+      <c r="C13" s="141">
         <v>2</v>
       </c>
-      <c r="D13" s="143">
+      <c r="D13" s="135">
         <v>15.1853</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="F13" s="143">
+      <c r="F13" s="135">
         <v>14.782299999999999</v>
       </c>
-      <c r="G13" s="154">
+      <c r="G13" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="H13" s="143">
+      <c r="H13" s="135">
         <v>14.538399999999999</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="J13" s="143">
+      <c r="J13" s="135">
         <f t="shared" si="0"/>
         <v>14.835333333333333</v>
       </c>
-      <c r="K13" s="154">
+      <c r="K13" s="141">
         <f t="shared" si="1"/>
         <v>5.1080733333333326</v>
       </c>
       <c r="L13" s="157"/>
       <c r="M13" s="157"/>
-      <c r="P13" s="153" t="s">
+      <c r="P13" s="140" t="s">
         <v>34</v>
       </c>
       <c r="Q13" s="109">
@@ -12912,46 +14474,46 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="140">
+      <c r="B14" s="132">
         <v>3</v>
       </c>
-      <c r="C14" s="154">
+      <c r="C14" s="141">
         <v>4</v>
       </c>
-      <c r="D14" s="143">
+      <c r="D14" s="135">
         <v>104.131</v>
       </c>
-      <c r="E14" s="154">
+      <c r="E14" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="F14" s="143">
+      <c r="F14" s="135">
         <v>102.08499999999999</v>
       </c>
-      <c r="G14" s="154">
+      <c r="G14" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="H14" s="143">
+      <c r="H14" s="135">
         <v>101.127</v>
       </c>
-      <c r="I14" s="154">
+      <c r="I14" s="141">
         <v>4.9882799999999996</v>
       </c>
-      <c r="J14" s="143">
+      <c r="J14" s="135">
         <f t="shared" si="0"/>
         <v>102.44766666666668</v>
       </c>
-      <c r="K14" s="154">
+      <c r="K14" s="141">
         <f t="shared" si="1"/>
         <v>5.070313333333333</v>
       </c>
-      <c r="L14" s="161">
+      <c r="L14" s="156">
         <f t="shared" ref="L14:M14" si="3">(J14+J15+J16+J17+J18)/5</f>
         <v>67.460940000000008</v>
       </c>
-      <c r="M14" s="161">
+      <c r="M14" s="156">
         <f t="shared" si="3"/>
         <v>5.0895833333333336</v>
       </c>
@@ -12977,44 +14539,44 @@
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A15" s="143" t="s">
+      <c r="A15" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="140">
+      <c r="B15" s="132">
         <v>1</v>
       </c>
-      <c r="C15" s="154">
+      <c r="C15" s="141">
         <v>4</v>
       </c>
-      <c r="D15" s="143">
+      <c r="D15" s="135">
         <v>90.780799999999999</v>
       </c>
-      <c r="E15" s="154">
+      <c r="E15" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="F15" s="143">
+      <c r="F15" s="135">
         <v>88.368399999999994</v>
       </c>
-      <c r="G15" s="154">
+      <c r="G15" s="141">
         <v>5.1093799999999998</v>
       </c>
-      <c r="H15" s="143">
+      <c r="H15" s="135">
         <v>88.054500000000004</v>
       </c>
-      <c r="I15" s="154">
+      <c r="I15" s="141">
         <v>5.1210899999999997</v>
       </c>
-      <c r="J15" s="143">
+      <c r="J15" s="135">
         <f t="shared" si="0"/>
         <v>89.067900000000009</v>
       </c>
-      <c r="K15" s="154">
+      <c r="K15" s="141">
         <f t="shared" si="1"/>
         <v>5.1132833333333325</v>
       </c>
       <c r="L15" s="157"/>
       <c r="M15" s="157"/>
-      <c r="P15" s="140" t="s">
+      <c r="P15" s="132" t="s">
         <v>80</v>
       </c>
       <c r="W15" s="85"/>
@@ -13038,38 +14600,38 @@
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.15">
-      <c r="A16" s="143" t="s">
+      <c r="A16" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="140">
+      <c r="B16" s="132">
         <v>1</v>
       </c>
-      <c r="C16" s="154">
+      <c r="C16" s="141">
         <v>3</v>
       </c>
-      <c r="D16" s="143">
+      <c r="D16" s="135">
         <v>49.054200000000002</v>
       </c>
-      <c r="E16" s="154">
+      <c r="E16" s="141">
         <v>5.0898399999999997</v>
       </c>
-      <c r="F16" s="143">
+      <c r="F16" s="135">
         <v>50.172499999999999</v>
       </c>
-      <c r="G16" s="154">
+      <c r="G16" s="141">
         <v>5.1289100000000003</v>
       </c>
-      <c r="H16" s="143">
+      <c r="H16" s="135">
         <v>48.567599999999999</v>
       </c>
-      <c r="I16" s="154">
+      <c r="I16" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="J16" s="143">
+      <c r="J16" s="135">
         <f>(D16+F16+H16)/3</f>
         <v>49.264766666666667</v>
       </c>
-      <c r="K16" s="154">
+      <c r="K16" s="141">
         <f t="shared" si="1"/>
         <v>5.1106766666666665</v>
       </c>
@@ -13106,44 +14668,44 @@
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="140">
+      <c r="B17" s="132">
         <v>2</v>
       </c>
-      <c r="C17" s="154">
+      <c r="C17" s="141">
         <v>8</v>
       </c>
-      <c r="D17" s="143">
+      <c r="D17" s="135">
         <v>74.724100000000007</v>
       </c>
-      <c r="E17" s="154">
+      <c r="E17" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="F17" s="143">
+      <c r="F17" s="135">
         <v>67.141400000000004</v>
       </c>
-      <c r="G17" s="154">
+      <c r="G17" s="141">
         <v>5.0078100000000001</v>
       </c>
-      <c r="H17" s="143">
+      <c r="H17" s="135">
         <v>64.990700000000004</v>
       </c>
-      <c r="I17" s="154">
+      <c r="I17" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="J17" s="143">
+      <c r="J17" s="135">
         <f t="shared" si="0"/>
         <v>68.952066666666667</v>
       </c>
-      <c r="K17" s="154">
+      <c r="K17" s="141">
         <f t="shared" si="1"/>
         <v>5.07552</v>
       </c>
       <c r="L17" s="157"/>
       <c r="M17" s="157"/>
-      <c r="P17" s="143" t="s">
+      <c r="P17" s="135" t="s">
         <v>0</v>
       </c>
       <c r="Q17" s="85">
@@ -13157,44 +14719,44 @@
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="140">
+      <c r="B18" s="132">
         <v>8</v>
       </c>
-      <c r="C18" s="154">
+      <c r="C18" s="141">
         <v>1</v>
       </c>
-      <c r="D18" s="143">
+      <c r="D18" s="135">
         <v>27.307099999999998</v>
       </c>
-      <c r="E18" s="154">
+      <c r="E18" s="141">
         <v>5.0078100000000001</v>
       </c>
-      <c r="F18" s="143">
+      <c r="F18" s="135">
         <v>27.625499999999999</v>
       </c>
-      <c r="G18" s="154">
+      <c r="G18" s="141">
         <v>5.1210899999999997</v>
       </c>
-      <c r="H18" s="143">
+      <c r="H18" s="135">
         <v>27.784300000000002</v>
       </c>
-      <c r="I18" s="154">
+      <c r="I18" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="J18" s="143">
+      <c r="J18" s="135">
         <f t="shared" si="0"/>
         <v>27.572299999999998</v>
       </c>
-      <c r="K18" s="154">
+      <c r="K18" s="141">
         <f t="shared" si="1"/>
         <v>5.0781233333333331</v>
       </c>
       <c r="L18" s="157"/>
       <c r="M18" s="157"/>
-      <c r="P18" s="143" t="s">
+      <c r="P18" s="135" t="s">
         <v>16</v>
       </c>
       <c r="Q18" s="85">
@@ -13208,50 +14770,50 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="140">
+      <c r="B19" s="132">
         <v>6</v>
       </c>
-      <c r="C19" s="154">
+      <c r="C19" s="141">
         <v>5</v>
       </c>
-      <c r="D19" s="143">
+      <c r="D19" s="135">
         <v>1211.82</v>
       </c>
-      <c r="E19" s="154">
+      <c r="E19" s="141">
         <v>5.1367200000000004</v>
       </c>
-      <c r="F19" s="143">
+      <c r="F19" s="135">
         <v>1213.4100000000001</v>
       </c>
-      <c r="G19" s="154">
+      <c r="G19" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="H19" s="143">
+      <c r="H19" s="135">
         <v>1203.8399999999999</v>
       </c>
-      <c r="I19" s="154">
+      <c r="I19" s="141">
         <v>5.1210899999999997</v>
       </c>
-      <c r="J19" s="143">
+      <c r="J19" s="135">
         <f t="shared" si="0"/>
         <v>1209.6899999999998</v>
       </c>
-      <c r="K19" s="154">
+      <c r="K19" s="141">
         <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
-      <c r="L19" s="161">
+      <c r="L19" s="156">
         <f t="shared" ref="L19:M19" si="4">(J19+J20+J21+J22+J23)/5</f>
         <v>346.6375666666666</v>
       </c>
-      <c r="M19" s="161">
+      <c r="M19" s="156">
         <f t="shared" si="4"/>
         <v>5.0906253333333336</v>
       </c>
-      <c r="P19" s="143" t="s">
+      <c r="P19" s="135" t="s">
         <v>22</v>
       </c>
       <c r="Q19" s="85">
@@ -13265,44 +14827,44 @@
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A20" s="143" t="s">
+      <c r="A20" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="140">
+      <c r="B20" s="132">
         <v>7</v>
       </c>
-      <c r="C20" s="154">
+      <c r="C20" s="141">
         <v>12</v>
       </c>
-      <c r="D20" s="143">
+      <c r="D20" s="135">
         <v>105.58799999999999</v>
       </c>
-      <c r="E20" s="154">
+      <c r="E20" s="141">
         <v>5.0898399999999997</v>
       </c>
-      <c r="F20" s="143">
+      <c r="F20" s="135">
         <v>105.687</v>
       </c>
-      <c r="G20" s="154">
+      <c r="G20" s="141">
         <v>5.0781299999999998</v>
       </c>
-      <c r="H20" s="143">
+      <c r="H20" s="135">
         <v>103.504</v>
       </c>
-      <c r="I20" s="154">
+      <c r="I20" s="141">
         <v>5.0859399999999999</v>
       </c>
-      <c r="J20" s="143">
+      <c r="J20" s="135">
         <f t="shared" si="0"/>
         <v>104.92633333333333</v>
       </c>
-      <c r="K20" s="154">
+      <c r="K20" s="141">
         <f t="shared" si="1"/>
         <v>5.0846366666666674</v>
       </c>
       <c r="L20" s="157"/>
       <c r="M20" s="157"/>
-      <c r="P20" s="143" t="s">
+      <c r="P20" s="135" t="s">
         <v>28</v>
       </c>
       <c r="Q20" s="85">
@@ -13316,44 +14878,44 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A21" s="143" t="s">
+      <c r="A21" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="140">
+      <c r="B21" s="132">
         <v>10</v>
       </c>
-      <c r="C21" s="154">
+      <c r="C21" s="141">
         <v>8</v>
       </c>
-      <c r="D21" s="143">
+      <c r="D21" s="135">
         <v>54.164999999999999</v>
       </c>
-      <c r="E21" s="154">
+      <c r="E21" s="141">
         <v>5.0820299999999996</v>
       </c>
-      <c r="F21" s="143">
+      <c r="F21" s="135">
         <v>52.7485</v>
       </c>
-      <c r="G21" s="154">
+      <c r="G21" s="141">
         <v>5.0820299999999996</v>
       </c>
-      <c r="H21" s="143">
+      <c r="H21" s="135">
         <v>54.801600000000001</v>
       </c>
-      <c r="I21" s="154">
+      <c r="I21" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="J21" s="143">
+      <c r="J21" s="135">
         <f t="shared" si="0"/>
         <v>53.905033333333336</v>
       </c>
-      <c r="K21" s="154">
+      <c r="K21" s="141">
         <f t="shared" si="1"/>
         <v>5.0898433333333335</v>
       </c>
       <c r="L21" s="157"/>
       <c r="M21" s="157"/>
-      <c r="P21" s="153" t="s">
+      <c r="P21" s="140" t="s">
         <v>34</v>
       </c>
       <c r="Q21" s="109">
@@ -13367,284 +14929,284 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A22" s="143" t="s">
+      <c r="A22" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="140">
+      <c r="B22" s="132">
         <v>12</v>
       </c>
-      <c r="C22" s="154">
+      <c r="C22" s="141">
         <v>6</v>
       </c>
-      <c r="D22" s="143">
+      <c r="D22" s="135">
         <v>268.90499999999997</v>
       </c>
-      <c r="E22" s="154">
+      <c r="E22" s="141">
         <v>5.1289100000000003</v>
       </c>
-      <c r="F22" s="143">
+      <c r="F22" s="135">
         <v>265.88099999999997</v>
       </c>
-      <c r="G22" s="154">
+      <c r="G22" s="141">
         <v>5.0195299999999996</v>
       </c>
-      <c r="H22" s="143">
+      <c r="H22" s="135">
         <v>262.928</v>
       </c>
-      <c r="I22" s="154">
+      <c r="I22" s="141">
         <v>5.1054700000000004</v>
       </c>
-      <c r="J22" s="143">
+      <c r="J22" s="135">
         <f t="shared" si="0"/>
         <v>265.90466666666663</v>
       </c>
-      <c r="K22" s="154">
+      <c r="K22" s="141">
         <f t="shared" si="1"/>
         <v>5.0846366666666674</v>
       </c>
       <c r="L22" s="157"/>
       <c r="M22" s="157"/>
-      <c r="P22" s="140"/>
+      <c r="P22" s="132"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="140">
+      <c r="B23" s="132">
         <v>7</v>
       </c>
-      <c r="C23" s="154">
+      <c r="C23" s="141">
         <v>6</v>
       </c>
-      <c r="D23" s="143">
+      <c r="D23" s="135">
         <v>101.61199999999999</v>
       </c>
-      <c r="E23" s="154">
+      <c r="E23" s="141">
         <v>5.0117200000000004</v>
       </c>
-      <c r="F23" s="143">
+      <c r="F23" s="135">
         <v>97.454300000000003</v>
       </c>
-      <c r="G23" s="154">
+      <c r="G23" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="H23" s="143">
+      <c r="H23" s="135">
         <v>97.219099999999997</v>
       </c>
-      <c r="I23" s="154">
+      <c r="I23" s="141">
         <v>5.0820299999999996</v>
       </c>
-      <c r="J23" s="143">
+      <c r="J23" s="135">
         <f t="shared" si="0"/>
         <v>98.761799999999994</v>
       </c>
-      <c r="K23" s="154">
+      <c r="K23" s="141">
         <f t="shared" si="1"/>
         <v>5.0690099999999996</v>
       </c>
       <c r="L23" s="157"/>
       <c r="M23" s="157"/>
-      <c r="P23" s="140"/>
+      <c r="P23" s="132"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A24" s="143" t="s">
+      <c r="A24" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="140">
+      <c r="B24" s="132">
         <v>12</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="141">
         <v>8</v>
       </c>
-      <c r="D24" s="143">
+      <c r="D24" s="135">
         <v>72.2607</v>
       </c>
-      <c r="E24" s="154">
+      <c r="E24" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="F24" s="143">
+      <c r="F24" s="135">
         <v>73.676699999999997</v>
       </c>
-      <c r="G24" s="154">
+      <c r="G24" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="H24" s="143">
+      <c r="H24" s="135">
         <v>72.776200000000003</v>
       </c>
-      <c r="I24" s="154">
+      <c r="I24" s="141">
         <v>5.125</v>
       </c>
-      <c r="J24" s="143">
+      <c r="J24" s="135">
         <f t="shared" si="0"/>
         <v>72.904533333333333</v>
       </c>
-      <c r="K24" s="154">
+      <c r="K24" s="141">
         <f t="shared" si="1"/>
         <v>5.1184900000000004</v>
       </c>
-      <c r="L24" s="161">
+      <c r="L24" s="156">
         <f t="shared" ref="L24" si="5">(J24+J25+J26+J27+J28)/5</f>
         <v>106.03247333333334</v>
       </c>
-      <c r="M24" s="161">
+      <c r="M24" s="156">
         <f>(K24+K25+K26+K27+K28)/5</f>
         <v>5.0960926666666664</v>
       </c>
-      <c r="P24" s="140"/>
+      <c r="P24" s="132"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="140">
+      <c r="B25" s="132">
         <v>7</v>
       </c>
-      <c r="C25" s="154">
+      <c r="C25" s="141">
         <v>8</v>
       </c>
-      <c r="D25" s="143">
+      <c r="D25" s="135">
         <v>113.292</v>
       </c>
-      <c r="E25" s="154">
+      <c r="E25" s="141">
         <v>5.1171899999999999</v>
       </c>
-      <c r="F25" s="143">
+      <c r="F25" s="135">
         <v>117.337</v>
       </c>
-      <c r="G25" s="154">
+      <c r="G25" s="141">
         <v>5.1132799999999996</v>
       </c>
-      <c r="H25" s="143">
+      <c r="H25" s="135">
         <v>114.194</v>
       </c>
-      <c r="I25" s="154">
+      <c r="I25" s="141">
         <v>5.125</v>
       </c>
-      <c r="J25" s="143">
+      <c r="J25" s="135">
         <f t="shared" si="0"/>
         <v>114.94100000000002</v>
       </c>
-      <c r="K25" s="154">
+      <c r="K25" s="141">
         <f t="shared" si="1"/>
         <v>5.1184900000000004</v>
       </c>
       <c r="L25" s="157"/>
       <c r="M25" s="157"/>
-      <c r="P25" s="140"/>
+      <c r="P25" s="132"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A26" s="143" t="s">
+      <c r="A26" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="140">
+      <c r="B26" s="132">
         <v>12</v>
       </c>
-      <c r="C26" s="154">
+      <c r="C26" s="141">
         <v>10</v>
       </c>
-      <c r="D26" s="143">
+      <c r="D26" s="135">
         <v>80.324200000000005</v>
       </c>
-      <c r="E26" s="154">
+      <c r="E26" s="141">
         <v>5.1210899999999997</v>
       </c>
-      <c r="F26" s="143">
+      <c r="F26" s="135">
         <v>80.541200000000003</v>
       </c>
-      <c r="G26" s="154">
+      <c r="G26" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="H26" s="143">
+      <c r="H26" s="135">
         <v>80.526700000000005</v>
       </c>
-      <c r="I26" s="154">
+      <c r="I26" s="141">
         <v>5.1015600000000001</v>
       </c>
-      <c r="J26" s="143">
+      <c r="J26" s="135">
         <f t="shared" si="0"/>
         <v>80.464033333333347</v>
       </c>
-      <c r="K26" s="154">
+      <c r="K26" s="141">
         <f t="shared" si="1"/>
         <v>5.1080700000000006</v>
       </c>
       <c r="L26" s="157"/>
       <c r="M26" s="157"/>
-      <c r="P26" s="140"/>
+      <c r="P26" s="132"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A27" s="143" t="s">
+      <c r="A27" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="140">
+      <c r="B27" s="132">
         <v>7</v>
       </c>
-      <c r="C27" s="154">
+      <c r="C27" s="141">
         <v>3</v>
       </c>
-      <c r="D27" s="143">
+      <c r="D27" s="135">
         <v>191.62200000000001</v>
       </c>
-      <c r="E27" s="154">
+      <c r="E27" s="141">
         <v>5.0820299999999996</v>
       </c>
-      <c r="F27" s="143">
+      <c r="F27" s="135">
         <v>196.67599999999999</v>
       </c>
-      <c r="G27" s="154">
+      <c r="G27" s="141">
         <v>5.1210899999999997</v>
       </c>
-      <c r="H27" s="143">
+      <c r="H27" s="135">
         <v>192.358</v>
       </c>
-      <c r="I27" s="154">
+      <c r="I27" s="141">
         <v>5.0898399999999997</v>
       </c>
-      <c r="J27" s="143">
+      <c r="J27" s="135">
         <f t="shared" si="0"/>
         <v>193.55199999999999</v>
       </c>
-      <c r="K27" s="154">
+      <c r="K27" s="141">
         <f t="shared" si="1"/>
         <v>5.0976533333333327</v>
       </c>
       <c r="L27" s="157"/>
       <c r="M27" s="157"/>
-      <c r="P27" s="140"/>
+      <c r="P27" s="132"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A28" s="153" t="s">
+      <c r="A28" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="155">
+      <c r="B28" s="142">
         <v>12</v>
       </c>
-      <c r="C28" s="152">
+      <c r="C28" s="139">
         <v>2</v>
       </c>
-      <c r="D28" s="153">
+      <c r="D28" s="140">
         <v>69.770799999999994</v>
       </c>
-      <c r="E28" s="152">
+      <c r="E28" s="139">
         <v>5.0117200000000004</v>
       </c>
-      <c r="F28" s="153">
+      <c r="F28" s="140">
         <v>68.0364</v>
       </c>
-      <c r="G28" s="152">
+      <c r="G28" s="139">
         <v>4.9882799999999996</v>
       </c>
-      <c r="H28" s="153">
+      <c r="H28" s="140">
         <v>67.095200000000006</v>
       </c>
-      <c r="I28" s="152">
+      <c r="I28" s="139">
         <v>5.1132799999999996</v>
       </c>
-      <c r="J28" s="153">
+      <c r="J28" s="140">
         <f t="shared" si="0"/>
         <v>68.300799999999995</v>
       </c>
-      <c r="K28" s="152">
+      <c r="K28" s="139">
         <f>(E28+G28+I28)/3</f>
         <v>5.0377599999999996</v>
       </c>
@@ -13653,16 +15215,16 @@
       <c r="P28" s="85"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="P29" s="140"/>
+      <c r="P29" s="132"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="P30" s="140"/>
+      <c r="P30" s="132"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="P31" s="140"/>
+      <c r="P31" s="132"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="107" t="s">
@@ -13692,43 +15254,43 @@
       <c r="I32" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="151" t="s">
+      <c r="J32" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="K32" s="149" t="s">
+      <c r="K32" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="P32" s="140"/>
+      <c r="P32" s="132"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A33" s="143" t="s">
+      <c r="A33" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="140">
+      <c r="B33" s="132">
         <v>6</v>
       </c>
-      <c r="C33" s="154">
+      <c r="C33" s="141">
         <v>1</v>
       </c>
-      <c r="D33" s="143">
+      <c r="D33" s="135">
         <v>1.03261</v>
       </c>
-      <c r="E33" s="154">
+      <c r="E33" s="141">
         <v>5.3125</v>
       </c>
-      <c r="F33" s="143">
+      <c r="F33" s="135">
         <v>1.03261</v>
       </c>
-      <c r="G33" s="154">
+      <c r="G33" s="141">
         <v>22.101600000000001</v>
       </c>
-      <c r="H33" s="143">
+      <c r="H33" s="135">
         <v>1.08846</v>
       </c>
-      <c r="I33" s="154">
+      <c r="I33" s="141">
         <v>5.2968799999999998</v>
       </c>
-      <c r="J33" s="143">
+      <c r="J33" s="135">
         <f>(D33+F33+I33)/3</f>
         <v>2.4540333333333333</v>
       </c>
@@ -13736,44 +15298,44 @@
         <f>(E33+G33+I33)/3</f>
         <v>10.90366</v>
       </c>
-      <c r="L33" s="150">
+      <c r="L33" s="158">
         <f>(J33+J34+J35+J36+J37)/5</f>
         <v>3.5021360000000001</v>
       </c>
-      <c r="M33" s="147">
+      <c r="M33" s="153">
         <f>(K33+K34+K35+K36+K37)/5</f>
         <v>10.845320000000001</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A34" s="143" t="s">
+      <c r="A34" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="140">
+      <c r="B34" s="132">
         <v>3</v>
       </c>
-      <c r="C34" s="154">
+      <c r="C34" s="141">
         <v>1</v>
       </c>
-      <c r="D34" s="143">
+      <c r="D34" s="135">
         <v>1.0727599999999999</v>
       </c>
-      <c r="E34" s="154">
+      <c r="E34" s="141">
         <v>6.2421899999999999</v>
       </c>
-      <c r="F34" s="143">
+      <c r="F34" s="135">
         <v>1.1775</v>
       </c>
-      <c r="G34" s="154">
+      <c r="G34" s="141">
         <v>22.105499999999999</v>
       </c>
-      <c r="H34" s="143">
+      <c r="H34" s="135">
         <v>1.3039700000000001</v>
       </c>
-      <c r="I34" s="154">
+      <c r="I34" s="141">
         <v>5.3085899999999997</v>
       </c>
-      <c r="J34" s="143">
+      <c r="J34" s="135">
         <f t="shared" ref="J34:J57" si="6">(D34+F34+I34)/3</f>
         <v>2.5196166666666664</v>
       </c>
@@ -13782,37 +15344,37 @@
         <v>11.218760000000001</v>
       </c>
       <c r="L34" s="159"/>
-      <c r="M34" s="158"/>
+      <c r="M34" s="154"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A35" s="143" t="s">
+      <c r="A35" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="140">
+      <c r="B35" s="132">
         <v>5</v>
       </c>
-      <c r="C35" s="154">
+      <c r="C35" s="141">
         <v>2</v>
       </c>
-      <c r="D35" s="143">
+      <c r="D35" s="135">
         <v>1.74105</v>
       </c>
-      <c r="E35" s="154">
+      <c r="E35" s="141">
         <v>5.3125</v>
       </c>
-      <c r="F35" s="143">
+      <c r="F35" s="135">
         <v>1.7706299999999999</v>
       </c>
-      <c r="G35" s="154">
+      <c r="G35" s="141">
         <v>21.191400000000002</v>
       </c>
-      <c r="H35" s="143">
+      <c r="H35" s="135">
         <v>1.79236</v>
       </c>
-      <c r="I35" s="154">
+      <c r="I35" s="141">
         <v>5.2773399999999997</v>
       </c>
-      <c r="J35" s="143">
+      <c r="J35" s="135">
         <f t="shared" si="6"/>
         <v>2.9296733333333336</v>
       </c>
@@ -13821,37 +15383,37 @@
         <v>10.593746666666666</v>
       </c>
       <c r="L35" s="159"/>
-      <c r="M35" s="158"/>
+      <c r="M35" s="154"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A36" s="143" t="s">
+      <c r="A36" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="140">
+      <c r="B36" s="132">
         <v>1</v>
       </c>
-      <c r="C36" s="154">
+      <c r="C36" s="141">
         <v>5</v>
       </c>
-      <c r="D36" s="143">
+      <c r="D36" s="135">
         <v>6.1682199999999998</v>
       </c>
-      <c r="E36" s="154">
+      <c r="E36" s="141">
         <v>6.2382799999999996</v>
       </c>
-      <c r="F36" s="143">
+      <c r="F36" s="135">
         <v>6.0948700000000002</v>
       </c>
-      <c r="G36" s="154">
+      <c r="G36" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H36" s="143">
+      <c r="H36" s="135">
         <v>6.0849099999999998</v>
       </c>
-      <c r="I36" s="154">
+      <c r="I36" s="141">
         <v>5.3242200000000004</v>
       </c>
-      <c r="J36" s="143">
+      <c r="J36" s="135">
         <f t="shared" si="6"/>
         <v>5.8624366666666674</v>
       </c>
@@ -13860,37 +15422,37 @@
         <v>10.911466666666668</v>
       </c>
       <c r="L36" s="159"/>
-      <c r="M36" s="158"/>
+      <c r="M36" s="154"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="140">
+      <c r="B37" s="132">
         <v>5</v>
       </c>
-      <c r="C37" s="154">
+      <c r="C37" s="141">
         <v>1</v>
       </c>
-      <c r="D37" s="143">
+      <c r="D37" s="135">
         <v>2.8433899999999999</v>
       </c>
-      <c r="E37" s="154">
+      <c r="E37" s="141">
         <v>5.3203100000000001</v>
       </c>
-      <c r="F37" s="143">
+      <c r="F37" s="135">
         <v>3.0866799999999999</v>
       </c>
-      <c r="G37" s="154">
+      <c r="G37" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H37" s="143">
+      <c r="H37" s="135">
         <v>2.8925900000000002</v>
       </c>
-      <c r="I37" s="154">
+      <c r="I37" s="141">
         <v>5.3046899999999999</v>
       </c>
-      <c r="J37" s="143">
+      <c r="J37" s="135">
         <f t="shared" si="6"/>
         <v>3.74492</v>
       </c>
@@ -13899,37 +15461,37 @@
         <v>10.598966666666668</v>
       </c>
       <c r="L37" s="159"/>
-      <c r="M37" s="158"/>
+      <c r="M37" s="154"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A38" s="143" t="s">
+      <c r="A38" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="140">
+      <c r="B38" s="132">
         <v>5</v>
       </c>
-      <c r="C38" s="154">
+      <c r="C38" s="141">
         <v>6</v>
       </c>
-      <c r="D38" s="143">
+      <c r="D38" s="135">
         <v>4.6052600000000004</v>
       </c>
-      <c r="E38" s="154">
+      <c r="E38" s="141">
         <v>5.3125</v>
       </c>
-      <c r="F38" s="143">
+      <c r="F38" s="135">
         <v>4.6330299999999998</v>
       </c>
-      <c r="G38" s="154">
+      <c r="G38" s="141">
         <v>21.1602</v>
       </c>
-      <c r="H38" s="143">
+      <c r="H38" s="135">
         <v>4.7984400000000003</v>
       </c>
-      <c r="I38" s="154">
+      <c r="I38" s="141">
         <v>5.3164100000000003</v>
       </c>
-      <c r="J38" s="143">
+      <c r="J38" s="135">
         <f t="shared" si="6"/>
         <v>4.8515666666666668</v>
       </c>
@@ -13937,44 +15499,44 @@
         <f t="shared" si="7"/>
         <v>10.59637</v>
       </c>
-      <c r="L38" s="150">
+      <c r="L38" s="158">
         <f t="shared" ref="L38:M38" si="8">(J38+J39+J40+J41+J42)/5</f>
         <v>7.7157520000000002</v>
       </c>
-      <c r="M38" s="147">
+      <c r="M38" s="153">
         <f t="shared" si="8"/>
         <v>11.715633333333333</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A39" s="143" t="s">
+      <c r="A39" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="140">
+      <c r="B39" s="132">
         <v>3</v>
       </c>
-      <c r="C39" s="154">
+      <c r="C39" s="141">
         <v>2</v>
       </c>
-      <c r="D39" s="143">
+      <c r="D39" s="135">
         <v>1.39815</v>
       </c>
-      <c r="E39" s="154">
+      <c r="E39" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="F39" s="143">
+      <c r="F39" s="135">
         <v>1.4229000000000001</v>
       </c>
-      <c r="G39" s="154">
+      <c r="G39" s="141">
         <v>5.3203100000000001</v>
       </c>
-      <c r="H39" s="143">
+      <c r="H39" s="135">
         <v>1.39211</v>
       </c>
-      <c r="I39" s="154">
+      <c r="I39" s="141">
         <v>5.3007799999999996</v>
       </c>
-      <c r="J39" s="143">
+      <c r="J39" s="135">
         <f t="shared" si="6"/>
         <v>2.7072766666666666</v>
       </c>
@@ -13983,37 +15545,37 @@
         <v>10.597663333333333</v>
       </c>
       <c r="L39" s="159"/>
-      <c r="M39" s="158"/>
+      <c r="M39" s="154"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A40" s="143" t="s">
+      <c r="A40" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="140">
+      <c r="B40" s="132">
         <v>8</v>
       </c>
-      <c r="C40" s="154">
+      <c r="C40" s="141">
         <v>3</v>
       </c>
-      <c r="D40" s="143">
+      <c r="D40" s="135">
         <v>9.0348500000000005</v>
       </c>
-      <c r="E40" s="154">
+      <c r="E40" s="141">
         <v>5.3164100000000003</v>
       </c>
-      <c r="F40" s="143">
+      <c r="F40" s="135">
         <v>8.8111800000000002</v>
       </c>
-      <c r="G40" s="154">
+      <c r="G40" s="141">
         <v>6.2382799999999996</v>
       </c>
-      <c r="H40" s="143">
+      <c r="H40" s="135">
         <v>11.4825</v>
       </c>
-      <c r="I40" s="154">
+      <c r="I40" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="J40" s="143">
+      <c r="J40" s="135">
         <f t="shared" si="6"/>
         <v>13.009876666666665</v>
       </c>
@@ -14022,37 +15584,37 @@
         <v>10.912763333333332</v>
       </c>
       <c r="L40" s="159"/>
-      <c r="M40" s="158"/>
+      <c r="M40" s="154"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A41" s="143" t="s">
+      <c r="A41" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="140">
+      <c r="B41" s="132">
         <v>4</v>
       </c>
-      <c r="C41" s="154">
+      <c r="C41" s="141">
         <v>8</v>
       </c>
-      <c r="D41" s="143">
+      <c r="D41" s="135">
         <v>1.7169000000000001</v>
       </c>
-      <c r="E41" s="154">
+      <c r="E41" s="141">
         <v>5.3085899999999997</v>
       </c>
-      <c r="F41" s="143">
+      <c r="F41" s="135">
         <v>1.31907</v>
       </c>
-      <c r="G41" s="154">
+      <c r="G41" s="141">
         <v>5.3242200000000004</v>
       </c>
-      <c r="H41" s="143">
+      <c r="H41" s="135">
         <v>1.3166500000000001</v>
       </c>
-      <c r="I41" s="154">
+      <c r="I41" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J41" s="143">
+      <c r="J41" s="135">
         <f t="shared" si="6"/>
         <v>8.06799</v>
       </c>
@@ -14061,37 +15623,37 @@
         <v>10.60027</v>
       </c>
       <c r="L41" s="159"/>
-      <c r="M41" s="158"/>
+      <c r="M41" s="154"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B42" s="140">
+      <c r="B42" s="132">
         <v>6</v>
       </c>
-      <c r="C42" s="154">
+      <c r="C42" s="141">
         <v>2</v>
       </c>
-      <c r="D42" s="143">
+      <c r="D42" s="135">
         <v>4.2795699999999997</v>
       </c>
-      <c r="E42" s="154">
+      <c r="E42" s="141">
         <v>5.3125</v>
       </c>
-      <c r="F42" s="143">
+      <c r="F42" s="135">
         <v>4.3785800000000004</v>
       </c>
-      <c r="G42" s="154">
+      <c r="G42" s="141">
         <v>21.1328</v>
       </c>
-      <c r="H42" s="143">
+      <c r="H42" s="135">
         <v>4.4145000000000003</v>
       </c>
-      <c r="I42" s="154">
+      <c r="I42" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J42" s="143">
+      <c r="J42" s="135">
         <f t="shared" si="6"/>
         <v>9.9420500000000001</v>
       </c>
@@ -14100,37 +15662,37 @@
         <v>15.871099999999998</v>
       </c>
       <c r="L42" s="159"/>
-      <c r="M42" s="158"/>
+      <c r="M42" s="154"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A43" s="143" t="s">
+      <c r="A43" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="140">
+      <c r="B43" s="132">
         <v>3</v>
       </c>
-      <c r="C43" s="154">
+      <c r="C43" s="141">
         <v>4</v>
       </c>
-      <c r="D43" s="143">
+      <c r="D43" s="135">
         <v>2.2439200000000001</v>
       </c>
-      <c r="E43" s="154">
+      <c r="E43" s="141">
         <v>5.3007799999999996</v>
       </c>
-      <c r="F43" s="143">
+      <c r="F43" s="135">
         <v>2.4687999999999999</v>
       </c>
-      <c r="G43" s="154">
+      <c r="G43" s="141">
         <v>21.1797</v>
       </c>
-      <c r="H43" s="143">
+      <c r="H43" s="135">
         <v>2.2907099999999998</v>
       </c>
-      <c r="I43" s="154">
+      <c r="I43" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="J43" s="143">
+      <c r="J43" s="135">
         <f t="shared" si="6"/>
         <v>8.632106666666667</v>
       </c>
@@ -14138,44 +15700,44 @@
         <f t="shared" si="7"/>
         <v>15.888026666666667</v>
       </c>
-      <c r="L43" s="150">
+      <c r="L43" s="158">
         <f t="shared" ref="L43:M43" si="9">(J43+J44+J45+J46+J47)/5</f>
         <v>15.964618000000002</v>
       </c>
-      <c r="M43" s="147">
+      <c r="M43" s="153">
         <f t="shared" si="9"/>
         <v>10.909379333333334</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A44" s="143" t="s">
+      <c r="A44" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="140">
+      <c r="B44" s="132">
         <v>1</v>
       </c>
-      <c r="C44" s="154">
+      <c r="C44" s="141">
         <v>4</v>
       </c>
-      <c r="D44" s="143">
+      <c r="D44" s="135">
         <v>44.948500000000003</v>
       </c>
-      <c r="E44" s="154">
+      <c r="E44" s="141">
         <v>5.2968799999999998</v>
       </c>
-      <c r="F44" s="143">
+      <c r="F44" s="135">
         <v>44.888100000000001</v>
       </c>
-      <c r="G44" s="154">
+      <c r="G44" s="141">
         <v>21.1953</v>
       </c>
-      <c r="H44" s="143">
+      <c r="H44" s="135">
         <v>45.103000000000002</v>
       </c>
-      <c r="I44" s="154">
+      <c r="I44" s="141">
         <v>5.3125</v>
       </c>
-      <c r="J44" s="143">
+      <c r="J44" s="135">
         <f t="shared" si="6"/>
         <v>31.716366666666669</v>
       </c>
@@ -14184,37 +15746,37 @@
         <v>10.601559999999999</v>
       </c>
       <c r="L44" s="159"/>
-      <c r="M44" s="158"/>
+      <c r="M44" s="154"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A45" s="143" t="s">
+      <c r="A45" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B45" s="140">
+      <c r="B45" s="132">
         <v>1</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="141">
         <v>3</v>
       </c>
-      <c r="D45" s="143">
+      <c r="D45" s="135">
         <v>28.325800000000001</v>
       </c>
-      <c r="E45" s="154">
+      <c r="E45" s="141">
         <v>6.21875</v>
       </c>
-      <c r="F45" s="143">
+      <c r="F45" s="135">
         <v>28.366</v>
       </c>
-      <c r="G45" s="154">
+      <c r="G45" s="141">
         <v>6.2539100000000003</v>
       </c>
-      <c r="H45" s="143">
+      <c r="H45" s="135">
         <v>28.5839</v>
       </c>
-      <c r="I45" s="154">
+      <c r="I45" s="141">
         <v>5.3281299999999998</v>
       </c>
-      <c r="J45" s="143">
+      <c r="J45" s="135">
         <f t="shared" si="6"/>
         <v>20.673310000000001</v>
       </c>
@@ -14223,37 +15785,37 @@
         <v>5.9335966666666664</v>
       </c>
       <c r="L45" s="159"/>
-      <c r="M45" s="158"/>
+      <c r="M45" s="154"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A46" s="143" t="s">
+      <c r="A46" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B46" s="140">
+      <c r="B46" s="132">
         <v>2</v>
       </c>
-      <c r="C46" s="154">
+      <c r="C46" s="141">
         <v>8</v>
       </c>
-      <c r="D46" s="143">
+      <c r="D46" s="135">
         <v>16.4726</v>
       </c>
-      <c r="E46" s="154">
+      <c r="E46" s="141">
         <v>6.2421899999999999</v>
       </c>
-      <c r="F46" s="143">
+      <c r="F46" s="135">
         <v>16.853300000000001</v>
       </c>
-      <c r="G46" s="154">
+      <c r="G46" s="141">
         <v>21.191400000000002</v>
       </c>
-      <c r="H46" s="143">
+      <c r="H46" s="135">
         <v>19.067299999999999</v>
       </c>
-      <c r="I46" s="154">
+      <c r="I46" s="141">
         <v>6.2382799999999996</v>
       </c>
-      <c r="J46" s="143">
+      <c r="J46" s="135">
         <f t="shared" si="6"/>
         <v>13.188060000000002</v>
       </c>
@@ -14262,37 +15824,37 @@
         <v>11.223956666666666</v>
       </c>
       <c r="L46" s="159"/>
-      <c r="M46" s="158"/>
+      <c r="M46" s="154"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A47" s="143" t="s">
+      <c r="A47" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B47" s="140">
+      <c r="B47" s="132">
         <v>8</v>
       </c>
-      <c r="C47" s="154">
+      <c r="C47" s="141">
         <v>1</v>
       </c>
-      <c r="D47" s="143">
+      <c r="D47" s="135">
         <v>5.29589</v>
       </c>
-      <c r="E47" s="154">
+      <c r="E47" s="141">
         <v>5.3046899999999999</v>
       </c>
-      <c r="F47" s="143">
+      <c r="F47" s="135">
         <v>5.3094700000000001</v>
       </c>
-      <c r="G47" s="154">
+      <c r="G47" s="141">
         <v>21.1602</v>
       </c>
-      <c r="H47" s="143">
+      <c r="H47" s="135">
         <v>5.1953699999999996</v>
       </c>
-      <c r="I47" s="154">
+      <c r="I47" s="141">
         <v>6.2343799999999998</v>
       </c>
-      <c r="J47" s="143">
+      <c r="J47" s="135">
         <f t="shared" si="6"/>
         <v>5.6132466666666661</v>
       </c>
@@ -14301,37 +15863,37 @@
         <v>10.899756666666667</v>
       </c>
       <c r="L47" s="159"/>
-      <c r="M47" s="158"/>
+      <c r="M47" s="154"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A48" s="143" t="s">
+      <c r="A48" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="140">
+      <c r="B48" s="132">
         <v>6</v>
       </c>
-      <c r="C48" s="154">
+      <c r="C48" s="141">
         <v>5</v>
       </c>
-      <c r="D48" s="143">
+      <c r="D48" s="135">
         <v>37.430399999999999</v>
       </c>
-      <c r="E48" s="154">
+      <c r="E48" s="141">
         <v>22.125</v>
       </c>
-      <c r="F48" s="143">
+      <c r="F48" s="135">
         <v>37.324800000000003</v>
       </c>
-      <c r="G48" s="154">
+      <c r="G48" s="141">
         <v>21.191400000000002</v>
       </c>
-      <c r="H48" s="143">
+      <c r="H48" s="135">
         <v>38.857199999999999</v>
       </c>
-      <c r="I48" s="154">
+      <c r="I48" s="141">
         <v>21.1875</v>
       </c>
-      <c r="J48" s="143">
+      <c r="J48" s="135">
         <f t="shared" si="6"/>
         <v>31.980900000000002</v>
       </c>
@@ -14339,44 +15901,44 @@
         <f t="shared" si="7"/>
         <v>21.501300000000001</v>
       </c>
-      <c r="L48" s="150">
+      <c r="L48" s="158">
         <f t="shared" ref="L48:M48" si="10">(J48+J49+J50+J51+J52)/5</f>
         <v>23.522805999999999</v>
       </c>
-      <c r="M48" s="147">
+      <c r="M48" s="153">
         <f t="shared" si="10"/>
         <v>16.016151999999998</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B49" s="140">
+      <c r="B49" s="132">
         <v>7</v>
       </c>
-      <c r="C49" s="154">
+      <c r="C49" s="141">
         <v>12</v>
       </c>
-      <c r="D49" s="143">
+      <c r="D49" s="135">
         <v>10.806100000000001</v>
       </c>
-      <c r="E49" s="154">
+      <c r="E49" s="141">
         <v>5.2890600000000001</v>
       </c>
-      <c r="F49" s="143">
+      <c r="F49" s="135">
         <v>11.227499999999999</v>
       </c>
-      <c r="G49" s="154">
+      <c r="G49" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="H49" s="143">
+      <c r="H49" s="135">
         <v>10.755100000000001</v>
       </c>
-      <c r="I49" s="154">
+      <c r="I49" s="141">
         <v>5.3085899999999997</v>
       </c>
-      <c r="J49" s="143">
+      <c r="J49" s="135">
         <f t="shared" si="6"/>
         <v>9.1140633333333323</v>
       </c>
@@ -14385,37 +15947,37 @@
         <v>10.593749999999998</v>
       </c>
       <c r="L49" s="159"/>
-      <c r="M49" s="158"/>
+      <c r="M49" s="154"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B50" s="140">
+      <c r="B50" s="132">
         <v>10</v>
       </c>
-      <c r="C50" s="154">
+      <c r="C50" s="141">
         <v>8</v>
       </c>
-      <c r="D50" s="143">
+      <c r="D50" s="135">
         <v>11.3316</v>
       </c>
-      <c r="E50" s="154">
+      <c r="E50" s="141">
         <v>21.1602</v>
       </c>
-      <c r="F50" s="143">
+      <c r="F50" s="135">
         <v>11.2072</v>
       </c>
-      <c r="G50" s="154">
+      <c r="G50" s="141">
         <v>5.3046899999999999</v>
       </c>
-      <c r="H50" s="143">
+      <c r="H50" s="135">
         <v>11.369899999999999</v>
       </c>
-      <c r="I50" s="154">
+      <c r="I50" s="141">
         <v>21.1797</v>
       </c>
-      <c r="J50" s="143">
+      <c r="J50" s="135">
         <f t="shared" si="6"/>
         <v>14.572833333333335</v>
       </c>
@@ -14424,37 +15986,37 @@
         <v>15.88153</v>
       </c>
       <c r="L50" s="159"/>
-      <c r="M50" s="158"/>
+      <c r="M50" s="154"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A51" s="143" t="s">
+      <c r="A51" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B51" s="140">
+      <c r="B51" s="132">
         <v>12</v>
       </c>
-      <c r="C51" s="154">
+      <c r="C51" s="141">
         <v>6</v>
       </c>
-      <c r="D51" s="143">
+      <c r="D51" s="135">
         <v>61.4679</v>
       </c>
-      <c r="E51" s="154">
+      <c r="E51" s="141">
         <v>21.1797</v>
       </c>
-      <c r="F51" s="143">
+      <c r="F51" s="135">
         <v>61.223700000000001</v>
       </c>
-      <c r="G51" s="154">
+      <c r="G51" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="H51" s="143">
+      <c r="H51" s="135">
         <v>61.990699999999997</v>
       </c>
-      <c r="I51" s="154">
+      <c r="I51" s="141">
         <v>21.199200000000001</v>
       </c>
-      <c r="J51" s="143">
+      <c r="J51" s="135">
         <f t="shared" si="6"/>
         <v>47.963599999999992</v>
       </c>
@@ -14463,37 +16025,37 @@
         <v>21.184899999999999</v>
       </c>
       <c r="L51" s="159"/>
-      <c r="M51" s="158"/>
+      <c r="M51" s="154"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A52" s="143" t="s">
+      <c r="A52" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B52" s="140">
+      <c r="B52" s="132">
         <v>7</v>
       </c>
-      <c r="C52" s="154">
+      <c r="C52" s="141">
         <v>6</v>
       </c>
-      <c r="D52" s="143">
+      <c r="D52" s="135">
         <v>10.5344</v>
       </c>
-      <c r="E52" s="154">
+      <c r="E52" s="141">
         <v>6.2578100000000001</v>
       </c>
-      <c r="F52" s="143">
+      <c r="F52" s="135">
         <v>10.2416</v>
       </c>
-      <c r="G52" s="154">
+      <c r="G52" s="141">
         <v>5.3281299999999998</v>
       </c>
-      <c r="H52" s="143">
+      <c r="H52" s="135">
         <v>10.035500000000001</v>
       </c>
-      <c r="I52" s="154">
+      <c r="I52" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="J52" s="143">
+      <c r="J52" s="135">
         <f t="shared" si="6"/>
         <v>13.982633333333334</v>
       </c>
@@ -14502,37 +16064,37 @@
         <v>10.919280000000001</v>
       </c>
       <c r="L52" s="159"/>
-      <c r="M52" s="158"/>
+      <c r="M52" s="154"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A53" s="143" t="s">
+      <c r="A53" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="140">
+      <c r="B53" s="132">
         <v>12</v>
       </c>
-      <c r="C53" s="154">
+      <c r="C53" s="141">
         <v>8</v>
       </c>
-      <c r="D53" s="143">
+      <c r="D53" s="135">
         <v>15.5671</v>
       </c>
-      <c r="E53" s="154">
+      <c r="E53" s="141">
         <v>21.156300000000002</v>
       </c>
-      <c r="F53" s="143">
+      <c r="F53" s="135">
         <v>15.583399999999999</v>
       </c>
-      <c r="G53" s="154">
+      <c r="G53" s="141">
         <v>5.3125</v>
       </c>
-      <c r="H53" s="143">
+      <c r="H53" s="135">
         <v>16.0168</v>
       </c>
-      <c r="I53" s="154">
+      <c r="I53" s="141">
         <v>5.3203100000000001</v>
       </c>
-      <c r="J53" s="143">
+      <c r="J53" s="135">
         <f t="shared" si="6"/>
         <v>12.156936666666667</v>
       </c>
@@ -14540,44 +16102,44 @@
         <f t="shared" si="7"/>
         <v>10.59637</v>
       </c>
-      <c r="L53" s="150">
+      <c r="L53" s="158">
         <f t="shared" ref="L53:M53" si="11">(J53+J54+J55+J56+J57)/5</f>
         <v>26.129814666666668</v>
       </c>
-      <c r="M53" s="147">
+      <c r="M53" s="153">
         <f t="shared" si="11"/>
         <v>14.952871999999999</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A54" s="143" t="s">
+      <c r="A54" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="140">
+      <c r="B54" s="132">
         <v>7</v>
       </c>
-      <c r="C54" s="154">
+      <c r="C54" s="141">
         <v>8</v>
       </c>
-      <c r="D54" s="143">
+      <c r="D54" s="135">
         <v>29.7288</v>
       </c>
-      <c r="E54" s="154">
+      <c r="E54" s="141">
         <v>21.1523</v>
       </c>
-      <c r="F54" s="143">
+      <c r="F54" s="135">
         <v>26.9636</v>
       </c>
-      <c r="G54" s="154">
+      <c r="G54" s="141">
         <v>5.3242200000000004</v>
       </c>
-      <c r="H54" s="143">
+      <c r="H54" s="135">
         <v>26.8993</v>
       </c>
-      <c r="I54" s="154">
+      <c r="I54" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="J54" s="143">
+      <c r="J54" s="135">
         <f t="shared" si="6"/>
         <v>25.956066666666668</v>
       </c>
@@ -14586,37 +16148,37 @@
         <v>15.884106666666668</v>
       </c>
       <c r="L54" s="159"/>
-      <c r="M54" s="158"/>
+      <c r="M54" s="154"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A55" s="143" t="s">
+      <c r="A55" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="140">
+      <c r="B55" s="132">
         <v>12</v>
       </c>
-      <c r="C55" s="154">
+      <c r="C55" s="141">
         <v>10</v>
       </c>
-      <c r="D55" s="143">
+      <c r="D55" s="135">
         <v>33.510599999999997</v>
       </c>
-      <c r="E55" s="154">
+      <c r="E55" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="F55" s="143">
+      <c r="F55" s="135">
         <v>33.552599999999998</v>
       </c>
-      <c r="G55" s="154">
+      <c r="G55" s="141">
         <v>6.21875</v>
       </c>
-      <c r="H55" s="143">
+      <c r="H55" s="135">
         <v>33.787700000000001</v>
       </c>
-      <c r="I55" s="154">
+      <c r="I55" s="141">
         <v>21.1797</v>
       </c>
-      <c r="J55" s="143">
+      <c r="J55" s="135">
         <f t="shared" si="6"/>
         <v>29.414299999999997</v>
       </c>
@@ -14625,37 +16187,37 @@
         <v>16.191416666666665</v>
       </c>
       <c r="L55" s="159"/>
-      <c r="M55" s="158"/>
+      <c r="M55" s="154"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A56" s="143" t="s">
+      <c r="A56" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B56" s="140">
+      <c r="B56" s="132">
         <v>7</v>
       </c>
-      <c r="C56" s="154">
+      <c r="C56" s="141">
         <v>3</v>
       </c>
-      <c r="D56" s="143">
+      <c r="D56" s="135">
         <v>64.137699999999995</v>
       </c>
-      <c r="E56" s="154">
+      <c r="E56" s="141">
         <v>21.191400000000002</v>
       </c>
-      <c r="F56" s="143">
+      <c r="F56" s="135">
         <v>65.110299999999995</v>
       </c>
-      <c r="G56" s="154">
+      <c r="G56" s="141">
         <v>21.1797</v>
       </c>
-      <c r="H56" s="143">
+      <c r="H56" s="135">
         <v>62.754100000000001</v>
       </c>
-      <c r="I56" s="154">
+      <c r="I56" s="141">
         <v>6.2578100000000001</v>
       </c>
-      <c r="J56" s="143">
+      <c r="J56" s="135">
         <f t="shared" si="6"/>
         <v>45.16860333333333</v>
       </c>
@@ -14664,37 +16226,37 @@
         <v>16.209636666666665</v>
       </c>
       <c r="L56" s="159"/>
-      <c r="M56" s="158"/>
+      <c r="M56" s="154"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A57" s="153" t="s">
+      <c r="A57" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B57" s="155">
+      <c r="B57" s="142">
         <v>12</v>
       </c>
-      <c r="C57" s="152">
+      <c r="C57" s="139">
         <v>2</v>
       </c>
-      <c r="D57" s="153">
+      <c r="D57" s="140">
         <v>16.216699999999999</v>
       </c>
-      <c r="E57" s="152">
+      <c r="E57" s="139">
         <v>5.3085899999999997</v>
       </c>
-      <c r="F57" s="153">
+      <c r="F57" s="140">
         <v>16.4787</v>
       </c>
-      <c r="G57" s="152">
+      <c r="G57" s="139">
         <v>21.175799999999999</v>
       </c>
-      <c r="H57" s="153">
+      <c r="H57" s="140">
         <v>16.3706</v>
       </c>
-      <c r="I57" s="152">
+      <c r="I57" s="139">
         <v>21.164100000000001</v>
       </c>
-      <c r="J57" s="153">
+      <c r="J57" s="140">
         <f t="shared" si="6"/>
         <v>17.953166666666664</v>
       </c>
@@ -14702,11 +16264,11 @@
         <f t="shared" si="7"/>
         <v>15.882829999999998</v>
       </c>
-      <c r="L57" s="156"/>
-      <c r="M57" s="145"/>
+      <c r="L57" s="160"/>
+      <c r="M57" s="155"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A60" s="141" t="s">
+      <c r="A60" s="133" t="s">
         <v>79</v>
       </c>
     </row>
@@ -14738,42 +16300,42 @@
       <c r="I61" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="J61" s="151" t="s">
+      <c r="J61" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="K61" s="149" t="s">
+      <c r="K61" s="137" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="140">
+      <c r="B62" s="132">
         <v>6</v>
       </c>
-      <c r="C62" s="154">
+      <c r="C62" s="141">
         <v>1</v>
       </c>
-      <c r="D62" s="143">
+      <c r="D62" s="135">
         <v>1.03261</v>
       </c>
-      <c r="E62" s="154">
+      <c r="E62" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="F62" s="143">
+      <c r="F62" s="135">
         <v>1.0513300000000001</v>
       </c>
-      <c r="G62" s="154">
+      <c r="G62" s="141">
         <v>21.1797</v>
       </c>
-      <c r="H62" s="143">
+      <c r="H62" s="135">
         <v>1.0305</v>
       </c>
-      <c r="I62" s="154">
+      <c r="I62" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J62" s="143">
+      <c r="J62" s="135">
         <f>(D62+F62+H62)/3</f>
         <v>1.0381466666666668</v>
       </c>
@@ -14781,44 +16343,44 @@
         <f>(E62+G62+I62)/3</f>
         <v>21.171900000000001</v>
       </c>
-      <c r="L62" s="150">
+      <c r="L62" s="158">
         <f>(J62+J63+J64+J65+J66)/5</f>
         <v>1.1300508666666667</v>
       </c>
-      <c r="M62" s="147">
+      <c r="M62" s="153">
         <f>(K62+K63+K64+K65+K66)/5</f>
         <v>21.22448</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A63" s="143" t="s">
+      <c r="A63" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B63" s="140">
+      <c r="B63" s="132">
         <v>3</v>
       </c>
-      <c r="C63" s="154">
+      <c r="C63" s="141">
         <v>1</v>
       </c>
-      <c r="D63" s="143">
+      <c r="D63" s="135">
         <v>1.03352</v>
       </c>
-      <c r="E63" s="154">
+      <c r="E63" s="141">
         <v>21.144500000000001</v>
       </c>
-      <c r="F63" s="143">
+      <c r="F63" s="135">
         <v>1.0386500000000001</v>
       </c>
-      <c r="G63" s="154">
+      <c r="G63" s="141">
         <v>21.1797</v>
       </c>
-      <c r="H63" s="143">
+      <c r="H63" s="135">
         <v>1.02477</v>
       </c>
-      <c r="I63" s="154">
+      <c r="I63" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J63" s="143">
+      <c r="J63" s="135">
         <f t="shared" ref="J63:J86" si="12">(D63+F63+H63)/3</f>
         <v>1.0323133333333334</v>
       </c>
@@ -14827,37 +16389,37 @@
         <v>21.164066666666667</v>
       </c>
       <c r="L63" s="159"/>
-      <c r="M63" s="158"/>
+      <c r="M63" s="154"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A64" s="143" t="s">
+      <c r="A64" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B64" s="140">
+      <c r="B64" s="132">
         <v>5</v>
       </c>
-      <c r="C64" s="154">
+      <c r="C64" s="141">
         <v>2</v>
       </c>
-      <c r="D64" s="143">
+      <c r="D64" s="135">
         <v>0.88833200000000001</v>
       </c>
-      <c r="E64" s="154">
+      <c r="E64" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="F64" s="143">
+      <c r="F64" s="135">
         <v>0.81981300000000001</v>
       </c>
-      <c r="G64" s="154">
+      <c r="G64" s="141">
         <v>22.0898</v>
       </c>
-      <c r="H64" s="143">
+      <c r="H64" s="135">
         <v>0.80532499999999996</v>
       </c>
-      <c r="I64" s="154">
+      <c r="I64" s="141">
         <v>21.136700000000001</v>
       </c>
-      <c r="J64" s="143">
+      <c r="J64" s="135">
         <f t="shared" si="12"/>
         <v>0.83782333333333325</v>
       </c>
@@ -14866,37 +16428,37 @@
         <v>21.466133333333335</v>
       </c>
       <c r="L64" s="159"/>
-      <c r="M64" s="158"/>
+      <c r="M64" s="154"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A65" s="143" t="s">
+      <c r="A65" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B65" s="140">
+      <c r="B65" s="132">
         <v>1</v>
       </c>
-      <c r="C65" s="154">
+      <c r="C65" s="141">
         <v>5</v>
       </c>
-      <c r="D65" s="143">
+      <c r="D65" s="135">
         <v>1.6879200000000001</v>
       </c>
-      <c r="E65" s="154">
+      <c r="E65" s="141">
         <v>21.1523</v>
       </c>
-      <c r="F65" s="143">
+      <c r="F65" s="135">
         <v>1.86511</v>
       </c>
-      <c r="G65" s="154">
+      <c r="G65" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="H65" s="143">
+      <c r="H65" s="135">
         <v>1.64446</v>
       </c>
-      <c r="I65" s="154">
+      <c r="I65" s="141">
         <v>21.144500000000001</v>
       </c>
-      <c r="J65" s="143">
+      <c r="J65" s="135">
         <f t="shared" si="12"/>
         <v>1.7324966666666668</v>
       </c>
@@ -14905,37 +16467,37 @@
         <v>21.154933333333336</v>
       </c>
       <c r="L65" s="159"/>
-      <c r="M65" s="158"/>
+      <c r="M65" s="154"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A66" s="143" t="s">
+      <c r="A66" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="140">
+      <c r="B66" s="132">
         <v>5</v>
       </c>
-      <c r="C66" s="154">
+      <c r="C66" s="141">
         <v>1</v>
       </c>
-      <c r="D66" s="143">
+      <c r="D66" s="135">
         <v>1.0283899999999999</v>
       </c>
-      <c r="E66" s="154">
+      <c r="E66" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="F66" s="143">
+      <c r="F66" s="135">
         <v>1.0036400000000001</v>
       </c>
-      <c r="G66" s="154">
+      <c r="G66" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="H66" s="143">
+      <c r="H66" s="135">
         <v>0.99639299999999997</v>
       </c>
-      <c r="I66" s="154">
+      <c r="I66" s="141">
         <v>21.1797</v>
       </c>
-      <c r="J66" s="143">
+      <c r="J66" s="135">
         <f t="shared" si="12"/>
         <v>1.0094743333333331</v>
       </c>
@@ -14944,37 +16506,37 @@
         <v>21.165366666666667</v>
       </c>
       <c r="L66" s="159"/>
-      <c r="M66" s="158"/>
+      <c r="M66" s="154"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A67" s="143" t="s">
+      <c r="A67" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B67" s="140">
+      <c r="B67" s="132">
         <v>5</v>
       </c>
-      <c r="C67" s="154">
+      <c r="C67" s="141">
         <v>6</v>
       </c>
-      <c r="D67" s="143">
+      <c r="D67" s="135">
         <v>1.82134</v>
       </c>
-      <c r="E67" s="154">
+      <c r="E67" s="141">
         <v>22.078099999999999</v>
       </c>
-      <c r="F67" s="143">
+      <c r="F67" s="135">
         <v>1.74437</v>
       </c>
-      <c r="G67" s="154">
+      <c r="G67" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H67" s="143">
+      <c r="H67" s="135">
         <v>1.78149</v>
       </c>
-      <c r="I67" s="154">
+      <c r="I67" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="J67" s="143">
+      <c r="J67" s="135">
         <f t="shared" si="12"/>
         <v>1.7824</v>
       </c>
@@ -14982,44 +16544,44 @@
         <f t="shared" si="13"/>
         <v>21.473966666666666</v>
       </c>
-      <c r="L67" s="150">
+      <c r="L67" s="158">
         <f t="shared" ref="L67:M67" si="14">(J67+J68+J69+J70+J71)/5</f>
         <v>1.8303726666666666</v>
       </c>
-      <c r="M67" s="147">
+      <c r="M67" s="153">
         <f t="shared" si="14"/>
         <v>21.355226666666667</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A68" s="143" t="s">
+      <c r="A68" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B68" s="140">
+      <c r="B68" s="132">
         <v>3</v>
       </c>
-      <c r="C68" s="154">
+      <c r="C68" s="141">
         <v>2</v>
       </c>
-      <c r="D68" s="143">
+      <c r="D68" s="135">
         <v>1.39724</v>
       </c>
-      <c r="E68" s="154">
+      <c r="E68" s="141">
         <v>22.109400000000001</v>
       </c>
-      <c r="F68" s="143">
+      <c r="F68" s="135">
         <v>1.45309</v>
       </c>
-      <c r="G68" s="154">
+      <c r="G68" s="141">
         <v>22.105499999999999</v>
       </c>
-      <c r="H68" s="143">
+      <c r="H68" s="135">
         <v>1.38517</v>
       </c>
-      <c r="I68" s="154">
+      <c r="I68" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="J68" s="143">
+      <c r="J68" s="135">
         <f t="shared" si="12"/>
         <v>1.4118333333333333</v>
       </c>
@@ -15028,37 +16590,37 @@
         <v>21.795599999999997</v>
       </c>
       <c r="L68" s="159"/>
-      <c r="M68" s="158"/>
+      <c r="M68" s="154"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A69" s="143" t="s">
+      <c r="A69" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B69" s="140">
+      <c r="B69" s="132">
         <v>8</v>
       </c>
-      <c r="C69" s="154">
+      <c r="C69" s="141">
         <v>3</v>
       </c>
-      <c r="D69" s="143">
+      <c r="D69" s="135">
         <v>2.3528899999999999</v>
       </c>
-      <c r="E69" s="154">
+      <c r="E69" s="141">
         <v>21.1797</v>
       </c>
-      <c r="F69" s="143">
+      <c r="F69" s="135">
         <v>2.4582299999999999</v>
       </c>
-      <c r="G69" s="154">
+      <c r="G69" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H69" s="143">
+      <c r="H69" s="135">
         <v>2.3489599999999999</v>
       </c>
-      <c r="I69" s="154">
+      <c r="I69" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="J69" s="143">
+      <c r="J69" s="135">
         <f t="shared" si="12"/>
         <v>2.3866933333333331</v>
       </c>
@@ -15067,37 +16629,37 @@
         <v>21.164066666666667</v>
       </c>
       <c r="L69" s="159"/>
-      <c r="M69" s="158"/>
+      <c r="M69" s="154"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A70" s="143" t="s">
+      <c r="A70" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="140">
+      <c r="B70" s="132">
         <v>4</v>
       </c>
-      <c r="C70" s="154">
+      <c r="C70" s="141">
         <v>8</v>
       </c>
-      <c r="D70" s="143">
+      <c r="D70" s="135">
         <v>1.37249</v>
       </c>
-      <c r="E70" s="154">
+      <c r="E70" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="F70" s="143">
+      <c r="F70" s="135">
         <v>1.28345</v>
       </c>
-      <c r="G70" s="154">
+      <c r="G70" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H70" s="143">
+      <c r="H70" s="135">
         <v>1.39483</v>
       </c>
-      <c r="I70" s="154">
+      <c r="I70" s="141">
         <v>21.1797</v>
       </c>
-      <c r="J70" s="143">
+      <c r="J70" s="135">
         <f t="shared" si="12"/>
         <v>1.3502566666666667</v>
       </c>
@@ -15106,37 +16668,37 @@
         <v>21.174499999999998</v>
       </c>
       <c r="L70" s="159"/>
-      <c r="M70" s="158"/>
+      <c r="M70" s="154"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A71" s="143" t="s">
+      <c r="A71" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="140">
+      <c r="B71" s="132">
         <v>6</v>
       </c>
-      <c r="C71" s="154">
+      <c r="C71" s="141">
         <v>2</v>
       </c>
-      <c r="D71" s="143">
+      <c r="D71" s="135">
         <v>2.2354699999999998</v>
       </c>
-      <c r="E71" s="154">
+      <c r="E71" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="F71" s="143">
+      <c r="F71" s="135">
         <v>2.2327499999999998</v>
       </c>
-      <c r="G71" s="154">
+      <c r="G71" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H71" s="143">
+      <c r="H71" s="135">
         <v>2.1938200000000001</v>
       </c>
-      <c r="I71" s="154">
+      <c r="I71" s="141">
         <v>21.164100000000001</v>
       </c>
-      <c r="J71" s="143">
+      <c r="J71" s="135">
         <f t="shared" si="12"/>
         <v>2.2206799999999998</v>
       </c>
@@ -15145,37 +16707,37 @@
         <v>21.168000000000003</v>
       </c>
       <c r="L71" s="159"/>
-      <c r="M71" s="158"/>
+      <c r="M71" s="154"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A72" s="143" t="s">
+      <c r="A72" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B72" s="140">
+      <c r="B72" s="132">
         <v>3</v>
       </c>
-      <c r="C72" s="154">
+      <c r="C72" s="141">
         <v>4</v>
       </c>
-      <c r="D72" s="143">
+      <c r="D72" s="135">
         <v>2.2092100000000001</v>
       </c>
-      <c r="E72" s="154">
+      <c r="E72" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="F72" s="143">
+      <c r="F72" s="135">
         <v>2.20106</v>
       </c>
-      <c r="G72" s="154">
+      <c r="G72" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H72" s="143">
+      <c r="H72" s="135">
         <v>2.21102</v>
       </c>
-      <c r="I72" s="154">
+      <c r="I72" s="141">
         <v>21.1523</v>
       </c>
-      <c r="J72" s="143">
+      <c r="J72" s="135">
         <f t="shared" si="12"/>
         <v>2.2070966666666667</v>
       </c>
@@ -15183,44 +16745,44 @@
         <f t="shared" si="13"/>
         <v>21.166666666666668</v>
       </c>
-      <c r="L72" s="150">
+      <c r="L72" s="158">
         <f t="shared" ref="L72:M72" si="15">(J72+J73+J74+J75+J76)/5</f>
         <v>3.2919506666666662</v>
       </c>
-      <c r="M72" s="147">
+      <c r="M72" s="153">
         <f t="shared" si="15"/>
         <v>19.048439333333334</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A73" s="143" t="s">
+      <c r="A73" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="140">
+      <c r="B73" s="132">
         <v>1</v>
       </c>
-      <c r="C73" s="154">
+      <c r="C73" s="141">
         <v>4</v>
       </c>
-      <c r="D73" s="143">
+      <c r="D73" s="135">
         <v>3.4051200000000001</v>
       </c>
-      <c r="E73" s="154">
+      <c r="E73" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="F73" s="143">
+      <c r="F73" s="135">
         <v>3.5077500000000001</v>
       </c>
-      <c r="G73" s="154">
+      <c r="G73" s="141">
         <v>21.175799999999999</v>
       </c>
-      <c r="H73" s="143">
+      <c r="H73" s="135">
         <v>3.5125799999999998</v>
       </c>
-      <c r="I73" s="154">
+      <c r="I73" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="J73" s="143">
+      <c r="J73" s="135">
         <f t="shared" si="12"/>
         <v>3.4751499999999997</v>
       </c>
@@ -15229,37 +16791,37 @@
         <v>21.177099999999999</v>
       </c>
       <c r="L73" s="159"/>
-      <c r="M73" s="158"/>
+      <c r="M73" s="154"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A74" s="143" t="s">
+      <c r="A74" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B74" s="140">
+      <c r="B74" s="132">
         <v>1</v>
       </c>
-      <c r="C74" s="154">
+      <c r="C74" s="141">
         <v>3</v>
       </c>
-      <c r="D74" s="143">
+      <c r="D74" s="135">
         <v>4.7902899999999997</v>
       </c>
-      <c r="E74" s="154">
+      <c r="E74" s="141">
         <v>21.136700000000001</v>
       </c>
-      <c r="F74" s="143">
+      <c r="F74" s="135">
         <v>4.7936100000000001</v>
       </c>
-      <c r="G74" s="154">
+      <c r="G74" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="H74" s="143">
+      <c r="H74" s="135">
         <v>5.1660899999999996</v>
       </c>
-      <c r="I74" s="154">
+      <c r="I74" s="141">
         <v>21.144500000000001</v>
       </c>
-      <c r="J74" s="143">
+      <c r="J74" s="135">
         <f t="shared" si="12"/>
         <v>4.9166633333333332</v>
       </c>
@@ -15268,37 +16830,37 @@
         <v>21.140599999999999</v>
       </c>
       <c r="L74" s="159"/>
-      <c r="M74" s="158"/>
+      <c r="M74" s="154"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A75" s="143" t="s">
+      <c r="A75" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="140">
+      <c r="B75" s="132">
         <v>2</v>
       </c>
-      <c r="C75" s="154">
+      <c r="C75" s="141">
         <v>8</v>
       </c>
-      <c r="D75" s="143">
+      <c r="D75" s="135">
         <v>3.5952899999999999</v>
       </c>
-      <c r="E75" s="154">
+      <c r="E75" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="F75" s="143">
+      <c r="F75" s="135">
         <v>3.6625999999999999</v>
       </c>
-      <c r="G75" s="154">
+      <c r="G75" s="141">
         <v>21.1523</v>
       </c>
-      <c r="H75" s="143">
+      <c r="H75" s="135">
         <v>3.63</v>
       </c>
-      <c r="I75" s="154">
+      <c r="I75" s="141">
         <v>21.164100000000001</v>
       </c>
-      <c r="J75" s="143">
+      <c r="J75" s="135">
         <f t="shared" si="12"/>
         <v>3.6292966666666664</v>
       </c>
@@ -15307,37 +16869,37 @@
         <v>21.161466666666669</v>
       </c>
       <c r="L75" s="159"/>
-      <c r="M75" s="158"/>
+      <c r="M75" s="154"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A76" s="143" t="s">
+      <c r="A76" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="B76" s="140">
+      <c r="B76" s="132">
         <v>8</v>
       </c>
-      <c r="C76" s="154">
+      <c r="C76" s="141">
         <v>1</v>
       </c>
-      <c r="D76" s="143">
+      <c r="D76" s="135">
         <v>2.2267199999999998</v>
       </c>
-      <c r="E76" s="154">
+      <c r="E76" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="F76" s="143">
+      <c r="F76" s="135">
         <v>2.2252100000000001</v>
       </c>
-      <c r="G76" s="154">
+      <c r="G76" s="141">
         <v>5.3046899999999999</v>
       </c>
-      <c r="H76" s="143">
+      <c r="H76" s="135">
         <v>2.2427100000000002</v>
       </c>
-      <c r="I76" s="154">
+      <c r="I76" s="141">
         <v>5.3125</v>
       </c>
-      <c r="J76" s="143">
+      <c r="J76" s="135">
         <f t="shared" si="12"/>
         <v>2.2315466666666666</v>
       </c>
@@ -15346,37 +16908,37 @@
         <v>10.596363333333334</v>
       </c>
       <c r="L76" s="159"/>
-      <c r="M76" s="158"/>
+      <c r="M76" s="154"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A77" s="143" t="s">
+      <c r="A77" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B77" s="140">
+      <c r="B77" s="132">
         <v>6</v>
       </c>
-      <c r="C77" s="154">
+      <c r="C77" s="141">
         <v>5</v>
       </c>
-      <c r="D77" s="143">
+      <c r="D77" s="135">
         <v>2.81833</v>
       </c>
-      <c r="E77" s="154">
+      <c r="E77" s="141">
         <v>22.093800000000002</v>
       </c>
-      <c r="F77" s="143">
+      <c r="F77" s="135">
         <v>2.71963</v>
       </c>
-      <c r="G77" s="154">
+      <c r="G77" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="H77" s="143">
+      <c r="H77" s="135">
         <v>2.74831</v>
       </c>
-      <c r="I77" s="154">
+      <c r="I77" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J77" s="143">
+      <c r="J77" s="135">
         <f t="shared" si="12"/>
         <v>2.7620900000000002</v>
       </c>
@@ -15384,44 +16946,44 @@
         <f t="shared" si="13"/>
         <v>21.481800000000003</v>
       </c>
-      <c r="L77" s="150">
+      <c r="L77" s="158">
         <f t="shared" ref="L77:M77" si="16">(J77+J78+J79+J80+J81)/5</f>
         <v>4.428239333333333</v>
       </c>
-      <c r="M77" s="147">
+      <c r="M77" s="153">
         <f t="shared" si="16"/>
         <v>20.233345333333336</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A78" s="143" t="s">
+      <c r="A78" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B78" s="140">
+      <c r="B78" s="132">
         <v>7</v>
       </c>
-      <c r="C78" s="154">
+      <c r="C78" s="141">
         <v>12</v>
       </c>
-      <c r="D78" s="143">
+      <c r="D78" s="135">
         <v>4.6897799999999998</v>
       </c>
-      <c r="E78" s="154">
+      <c r="E78" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="F78" s="143">
+      <c r="F78" s="135">
         <v>4.8567</v>
       </c>
-      <c r="G78" s="154">
+      <c r="G78" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="H78" s="143">
+      <c r="H78" s="135">
         <v>4.8579100000000004</v>
       </c>
-      <c r="I78" s="154">
+      <c r="I78" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="J78" s="143">
+      <c r="J78" s="135">
         <f t="shared" si="12"/>
         <v>4.8014633333333334</v>
       </c>
@@ -15430,37 +16992,37 @@
         <v>21.165366666666667</v>
       </c>
       <c r="L78" s="159"/>
-      <c r="M78" s="158"/>
+      <c r="M78" s="154"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A79" s="143" t="s">
+      <c r="A79" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B79" s="140">
+      <c r="B79" s="132">
         <v>10</v>
       </c>
-      <c r="C79" s="154">
+      <c r="C79" s="141">
         <v>8</v>
       </c>
-      <c r="D79" s="143">
+      <c r="D79" s="135">
         <v>4.79331</v>
       </c>
-      <c r="E79" s="154">
+      <c r="E79" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="F79" s="143">
+      <c r="F79" s="135">
         <v>4.7915000000000001</v>
       </c>
-      <c r="G79" s="154">
+      <c r="G79" s="141">
         <v>22.0977</v>
       </c>
-      <c r="H79" s="143">
+      <c r="H79" s="135">
         <v>4.9608400000000001</v>
       </c>
-      <c r="I79" s="154">
+      <c r="I79" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="J79" s="143">
+      <c r="J79" s="135">
         <f t="shared" si="12"/>
         <v>4.8485500000000004</v>
       </c>
@@ -15469,37 +17031,37 @@
         <v>21.479200000000002</v>
       </c>
       <c r="L79" s="159"/>
-      <c r="M79" s="158"/>
+      <c r="M79" s="154"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A80" s="143" t="s">
+      <c r="A80" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B80" s="140">
+      <c r="B80" s="132">
         <v>12</v>
       </c>
-      <c r="C80" s="154">
+      <c r="C80" s="141">
         <v>6</v>
       </c>
-      <c r="D80" s="143">
+      <c r="D80" s="135">
         <v>6.4755000000000003</v>
       </c>
-      <c r="E80" s="154">
+      <c r="E80" s="141">
         <v>5.2968799999999998</v>
       </c>
-      <c r="F80" s="143">
+      <c r="F80" s="135">
         <v>6.5886899999999997</v>
       </c>
-      <c r="G80" s="154">
+      <c r="G80" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H80" s="143">
+      <c r="H80" s="135">
         <v>6.9614700000000003</v>
       </c>
-      <c r="I80" s="154">
+      <c r="I80" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="J80" s="143">
+      <c r="J80" s="135">
         <f t="shared" si="12"/>
         <v>6.6752200000000004</v>
       </c>
@@ -15508,37 +17070,37 @@
         <v>15.869793333333334</v>
       </c>
       <c r="L80" s="159"/>
-      <c r="M80" s="158"/>
+      <c r="M80" s="154"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="143" t="s">
+      <c r="A81" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="B81" s="140">
+      <c r="B81" s="132">
         <v>7</v>
       </c>
-      <c r="C81" s="154">
+      <c r="C81" s="141">
         <v>6</v>
       </c>
-      <c r="D81" s="143">
+      <c r="D81" s="135">
         <v>3.0887899999999999</v>
       </c>
-      <c r="E81" s="154">
+      <c r="E81" s="141">
         <v>21.1523</v>
       </c>
-      <c r="F81" s="143">
+      <c r="F81" s="135">
         <v>3.07158</v>
       </c>
-      <c r="G81" s="154">
+      <c r="G81" s="141">
         <v>21.1797</v>
       </c>
-      <c r="H81" s="143">
+      <c r="H81" s="135">
         <v>3.0012500000000002</v>
       </c>
-      <c r="I81" s="154">
+      <c r="I81" s="141">
         <v>21.1797</v>
       </c>
-      <c r="J81" s="143">
+      <c r="J81" s="135">
         <f t="shared" si="12"/>
         <v>3.0538733333333337</v>
       </c>
@@ -15547,37 +17109,37 @@
         <v>21.170566666666669</v>
       </c>
       <c r="L81" s="159"/>
-      <c r="M81" s="158"/>
+      <c r="M81" s="154"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="143" t="s">
+      <c r="A82" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B82" s="140">
+      <c r="B82" s="132">
         <v>12</v>
       </c>
-      <c r="C82" s="154">
+      <c r="C82" s="141">
         <v>8</v>
       </c>
-      <c r="D82" s="143">
+      <c r="D82" s="135">
         <v>3.45885</v>
       </c>
-      <c r="E82" s="154">
+      <c r="E82" s="141">
         <v>5.2773399999999997</v>
       </c>
-      <c r="F82" s="143">
+      <c r="F82" s="135">
         <v>3.5705300000000002</v>
       </c>
-      <c r="G82" s="154">
+      <c r="G82" s="141">
         <v>5.2773399999999997</v>
       </c>
-      <c r="H82" s="143">
+      <c r="H82" s="135">
         <v>3.4990000000000001</v>
       </c>
-      <c r="I82" s="154">
+      <c r="I82" s="141">
         <v>22.074200000000001</v>
       </c>
-      <c r="J82" s="143">
+      <c r="J82" s="135">
         <f t="shared" si="12"/>
         <v>3.5094600000000002</v>
       </c>
@@ -15585,44 +17147,44 @@
         <f t="shared" si="13"/>
         <v>10.876293333333335</v>
       </c>
-      <c r="L82" s="150">
+      <c r="L82" s="158">
         <f t="shared" ref="L82:M82" si="17">(J82+J83+J84+J85+J86)/5</f>
         <v>4.6149006666666663</v>
       </c>
-      <c r="M82" s="147">
+      <c r="M82" s="153">
         <f t="shared" si="17"/>
         <v>18.240378</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A83" s="143" t="s">
+      <c r="A83" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B83" s="140">
+      <c r="B83" s="132">
         <v>7</v>
       </c>
-      <c r="C83" s="154">
+      <c r="C83" s="141">
         <v>8</v>
       </c>
-      <c r="D83" s="143">
+      <c r="D83" s="135">
         <v>5.3577599999999999</v>
       </c>
-      <c r="E83" s="154">
+      <c r="E83" s="141">
         <v>5.3085899999999997</v>
       </c>
-      <c r="F83" s="143">
+      <c r="F83" s="135">
         <v>4.8615300000000001</v>
       </c>
-      <c r="G83" s="154">
+      <c r="G83" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H83" s="143">
+      <c r="H83" s="135">
         <v>4.77339</v>
       </c>
-      <c r="I83" s="154">
+      <c r="I83" s="141">
         <v>22.109400000000001</v>
       </c>
-      <c r="J83" s="143">
+      <c r="J83" s="135">
         <f t="shared" si="12"/>
         <v>4.99756</v>
       </c>
@@ -15631,37 +17193,37 @@
         <v>16.196629999999999</v>
       </c>
       <c r="L83" s="159"/>
-      <c r="M83" s="158"/>
+      <c r="M83" s="154"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A84" s="143" t="s">
+      <c r="A84" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B84" s="140">
+      <c r="B84" s="132">
         <v>12</v>
       </c>
-      <c r="C84" s="154">
+      <c r="C84" s="141">
         <v>10</v>
       </c>
-      <c r="D84" s="143">
+      <c r="D84" s="135">
         <v>6.5757099999999999</v>
       </c>
-      <c r="E84" s="154">
+      <c r="E84" s="141">
         <v>21.1602</v>
       </c>
-      <c r="F84" s="143">
+      <c r="F84" s="135">
         <v>6.5575999999999999</v>
       </c>
-      <c r="G84" s="154">
+      <c r="G84" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="H84" s="143">
+      <c r="H84" s="135">
         <v>6.3547599999999997</v>
       </c>
-      <c r="I84" s="154">
+      <c r="I84" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="J84" s="143">
+      <c r="J84" s="135">
         <f t="shared" si="12"/>
         <v>6.4960233333333335</v>
       </c>
@@ -15670,37 +17232,37 @@
         <v>21.166699999999999</v>
       </c>
       <c r="L84" s="159"/>
-      <c r="M84" s="158"/>
+      <c r="M84" s="154"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A85" s="143" t="s">
+      <c r="A85" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="B85" s="140">
+      <c r="B85" s="132">
         <v>7</v>
       </c>
-      <c r="C85" s="154">
+      <c r="C85" s="141">
         <v>3</v>
       </c>
-      <c r="D85" s="143">
+      <c r="D85" s="135">
         <v>4.5412699999999999</v>
       </c>
-      <c r="E85" s="154">
+      <c r="E85" s="141">
         <v>21.1875</v>
       </c>
-      <c r="F85" s="143">
+      <c r="F85" s="135">
         <v>4.6897799999999998</v>
       </c>
-      <c r="G85" s="154">
+      <c r="G85" s="141">
         <v>22.1172</v>
       </c>
-      <c r="H85" s="143">
+      <c r="H85" s="135">
         <v>4.4842199999999997</v>
       </c>
-      <c r="I85" s="154">
+      <c r="I85" s="141">
         <v>21.1602</v>
       </c>
-      <c r="J85" s="143">
+      <c r="J85" s="135">
         <f t="shared" si="12"/>
         <v>4.5717566666666665</v>
       </c>
@@ -15709,37 +17271,37 @@
         <v>21.488299999999999</v>
       </c>
       <c r="L85" s="159"/>
-      <c r="M85" s="158"/>
+      <c r="M85" s="154"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A86" s="153" t="s">
+      <c r="A86" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="B86" s="155">
+      <c r="B86" s="142">
         <v>12</v>
       </c>
-      <c r="C86" s="152">
+      <c r="C86" s="139">
         <v>2</v>
       </c>
-      <c r="D86" s="153">
+      <c r="D86" s="140">
         <v>3.3197000000000001</v>
       </c>
-      <c r="E86" s="152">
+      <c r="E86" s="139">
         <v>21.167999999999999</v>
       </c>
-      <c r="F86" s="153">
+      <c r="F86" s="140">
         <v>3.1325599999999998</v>
       </c>
-      <c r="G86" s="152">
+      <c r="G86" s="139">
         <v>22.105499999999999</v>
       </c>
-      <c r="H86" s="153">
+      <c r="H86" s="140">
         <v>4.0468500000000001</v>
       </c>
-      <c r="I86" s="152">
+      <c r="I86" s="139">
         <v>21.148399999999999</v>
       </c>
-      <c r="J86" s="153">
+      <c r="J86" s="140">
         <f t="shared" si="12"/>
         <v>3.4997033333333332</v>
       </c>
@@ -15747,8 +17309,8 @@
         <f t="shared" si="13"/>
         <v>21.473966666666666</v>
       </c>
-      <c r="L86" s="156"/>
-      <c r="M86" s="145"/>
+      <c r="L86" s="160"/>
+      <c r="M86" s="155"/>
     </row>
     <row r="105" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I105" t="s">
@@ -15773,7 +17335,7 @@
       </c>
     </row>
     <row r="109" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I109" s="143" t="s">
+      <c r="I109" s="135" t="s">
         <v>90</v>
       </c>
       <c r="J109">
@@ -15787,7 +17349,7 @@
       </c>
     </row>
     <row r="110" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I110" s="143" t="s">
+      <c r="I110" s="135" t="s">
         <v>91</v>
       </c>
       <c r="J110">
@@ -15801,7 +17363,7 @@
       </c>
     </row>
     <row r="111" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I111" s="143" t="s">
+      <c r="I111" s="135" t="s">
         <v>92</v>
       </c>
       <c r="J111">
@@ -15815,7 +17377,7 @@
       </c>
     </row>
     <row r="112" spans="9:18" x14ac:dyDescent="0.15">
-      <c r="I112" s="143" t="s">
+      <c r="I112" s="135" t="s">
         <v>93</v>
       </c>
       <c r="J112">
@@ -15827,11 +17389,11 @@
       <c r="L112" s="105">
         <v>57.72</v>
       </c>
-      <c r="O112" s="143"/>
+      <c r="O112" s="135"/>
       <c r="R112" s="105"/>
     </row>
     <row r="113" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I113" s="153"/>
+      <c r="I113" s="140"/>
       <c r="J113" s="109"/>
       <c r="K113" s="109"/>
       <c r="L113" s="106"/>
@@ -15840,7 +17402,7 @@
       <c r="I114" s="85"/>
     </row>
     <row r="115" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I115" s="140" t="s">
+      <c r="I115" s="132" t="s">
         <v>80</v>
       </c>
     </row>
@@ -15857,7 +17419,7 @@
       </c>
     </row>
     <row r="117" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I117" s="143" t="s">
+      <c r="I117" s="135" t="s">
         <v>90</v>
       </c>
       <c r="J117" s="85">
@@ -15871,7 +17433,7 @@
       </c>
     </row>
     <row r="118" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I118" s="143" t="s">
+      <c r="I118" s="135" t="s">
         <v>91</v>
       </c>
       <c r="J118" s="85">
@@ -15885,7 +17447,7 @@
       </c>
     </row>
     <row r="119" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I119" s="143" t="s">
+      <c r="I119" s="135" t="s">
         <v>92</v>
       </c>
       <c r="J119" s="85">
@@ -15899,7 +17461,7 @@
       </c>
     </row>
     <row r="120" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I120" s="143" t="s">
+      <c r="I120" s="135" t="s">
         <v>93</v>
       </c>
       <c r="J120" s="85">
@@ -15913,13 +17475,37 @@
       </c>
     </row>
     <row r="121" spans="9:12" x14ac:dyDescent="0.15">
-      <c r="I121" s="153"/>
+      <c r="I121" s="140"/>
       <c r="J121" s="109"/>
       <c r="K121" s="109"/>
       <c r="L121" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="L14:L18"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L4:L8"/>
+    <mergeCell ref="L9:L13"/>
+    <mergeCell ref="L77:L81"/>
+    <mergeCell ref="L82:L86"/>
+    <mergeCell ref="L19:L23"/>
+    <mergeCell ref="L24:L28"/>
+    <mergeCell ref="L33:L37"/>
+    <mergeCell ref="L38:L42"/>
+    <mergeCell ref="L43:L47"/>
+    <mergeCell ref="L48:L52"/>
+    <mergeCell ref="M33:M37"/>
+    <mergeCell ref="L53:L57"/>
+    <mergeCell ref="L62:L66"/>
+    <mergeCell ref="L67:L71"/>
+    <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M4:M8"/>
+    <mergeCell ref="M9:M13"/>
+    <mergeCell ref="M14:M18"/>
+    <mergeCell ref="M19:M23"/>
+    <mergeCell ref="M24:M28"/>
     <mergeCell ref="M72:M76"/>
     <mergeCell ref="M77:M81"/>
     <mergeCell ref="M82:M86"/>
@@ -15929,34 +17515,10 @@
     <mergeCell ref="M53:M57"/>
     <mergeCell ref="M62:M66"/>
     <mergeCell ref="M67:M71"/>
-    <mergeCell ref="M4:M8"/>
-    <mergeCell ref="M9:M13"/>
-    <mergeCell ref="M14:M18"/>
-    <mergeCell ref="M19:M23"/>
-    <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M33:M37"/>
-    <mergeCell ref="L53:L57"/>
-    <mergeCell ref="L62:L66"/>
-    <mergeCell ref="L67:L71"/>
-    <mergeCell ref="L72:L76"/>
-    <mergeCell ref="L77:L81"/>
-    <mergeCell ref="L82:L86"/>
-    <mergeCell ref="L19:L23"/>
-    <mergeCell ref="L24:L28"/>
-    <mergeCell ref="L33:L37"/>
-    <mergeCell ref="L38:L42"/>
-    <mergeCell ref="L43:L47"/>
-    <mergeCell ref="L48:L52"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L4:L8"/>
-    <mergeCell ref="L9:L13"/>
-    <mergeCell ref="L14:L18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -15965,7 +17527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M7" workbookViewId="0">
+    <sheetView topLeftCell="M7" workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -15992,7 +17554,7 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="135" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="85">
@@ -16006,7 +17568,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="135" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="85">
@@ -16020,7 +17582,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="143" t="s">
+      <c r="A5" s="135" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="85">
@@ -16034,7 +17596,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="143" t="s">
+      <c r="A6" s="135" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="85">
@@ -16061,15 +17623,15 @@
       <c r="M6" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="142" t="s">
+      <c r="N6" s="134" t="s">
         <v>82</v>
       </c>
-      <c r="O6" s="146" t="s">
+      <c r="O6" s="136" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="153" t="s">
+      <c r="A7" s="140" t="s">
         <v>34</v>
       </c>
       <c r="B7" s="109">
@@ -16081,74 +17643,74 @@
       <c r="D7" s="106">
         <v>4.6149006666666663</v>
       </c>
-      <c r="I7" s="143" t="s">
+      <c r="I7" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="140">
+      <c r="J7" s="132">
         <v>6</v>
       </c>
-      <c r="K7" s="140">
+      <c r="K7" s="132">
         <v>1</v>
       </c>
-      <c r="L7" s="140">
+      <c r="L7" s="132">
         <v>1.0305</v>
       </c>
-      <c r="M7" s="154">
+      <c r="M7" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="N7" s="163">
+      <c r="N7" s="143">
         <v>0</v>
       </c>
-      <c r="O7" s="160">
+      <c r="O7" s="162">
         <f>(N7+N8+N9+N10+N11)/5</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
-      <c r="I8" s="143" t="s">
+      <c r="I8" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="140">
+      <c r="J8" s="132">
         <v>3</v>
       </c>
-      <c r="K8" s="140">
+      <c r="K8" s="132">
         <v>1</v>
       </c>
-      <c r="L8" s="140">
+      <c r="L8" s="132">
         <v>1.02477</v>
       </c>
-      <c r="M8" s="154">
+      <c r="M8" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="N8" s="163">
+      <c r="N8" s="143">
         <v>0</v>
       </c>
-      <c r="O8" s="148"/>
+      <c r="O8" s="163"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="132" t="s">
         <v>80</v>
       </c>
-      <c r="I9" s="143" t="s">
+      <c r="I9" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="140">
+      <c r="J9" s="132">
         <v>5</v>
       </c>
-      <c r="K9" s="140">
+      <c r="K9" s="132">
         <v>2</v>
       </c>
-      <c r="L9" s="140">
+      <c r="L9" s="132">
         <v>0.80532499999999996</v>
       </c>
-      <c r="M9" s="154">
+      <c r="M9" s="141">
         <v>21.136700000000001</v>
       </c>
-      <c r="N9" s="163">
+      <c r="N9" s="143">
         <v>0</v>
       </c>
-      <c r="O9" s="148"/>
+      <c r="O9" s="163"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="107"/>
@@ -16161,31 +17723,31 @@
       <c r="D10" s="111" t="s">
         <v>79</v>
       </c>
-      <c r="I10" s="143" t="s">
+      <c r="I10" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="140">
+      <c r="J10" s="132">
         <v>1</v>
       </c>
-      <c r="K10" s="140">
+      <c r="K10" s="132">
         <v>5</v>
       </c>
-      <c r="L10" s="140">
+      <c r="L10" s="132">
         <v>1.64446</v>
       </c>
-      <c r="M10" s="154">
+      <c r="M10" s="141">
         <v>21.144500000000001</v>
       </c>
-      <c r="N10" s="163">
+      <c r="N10" s="143">
         <v>0</v>
       </c>
-      <c r="O10" s="148"/>
+      <c r="O10" s="163"/>
       <c r="V10">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="143" t="s">
+      <c r="A11" s="135" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="85">
@@ -16197,25 +17759,25 @@
       <c r="D11" s="105">
         <v>21.22448</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="140">
+      <c r="J11" s="132">
         <v>5</v>
       </c>
-      <c r="K11" s="140">
+      <c r="K11" s="132">
         <v>1</v>
       </c>
-      <c r="L11" s="140">
+      <c r="L11" s="132">
         <v>0.99639299999999997</v>
       </c>
-      <c r="M11" s="154">
+      <c r="M11" s="141">
         <v>21.1797</v>
       </c>
-      <c r="N11" s="163">
+      <c r="N11" s="143">
         <v>0</v>
       </c>
-      <c r="O11" s="148"/>
+      <c r="O11" s="163"/>
       <c r="R11" t="s">
         <v>83</v>
       </c>
@@ -16230,7 +17792,7 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="143" t="s">
+      <c r="A12" s="135" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="85">
@@ -16242,25 +17804,25 @@
       <c r="D12" s="105">
         <v>21.355226666666667</v>
       </c>
-      <c r="I12" s="143" t="s">
+      <c r="I12" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="140">
+      <c r="J12" s="132">
         <v>5</v>
       </c>
-      <c r="K12" s="140">
+      <c r="K12" s="132">
         <v>6</v>
       </c>
-      <c r="L12" s="140">
+      <c r="L12" s="132">
         <v>1.78149</v>
       </c>
-      <c r="M12" s="154">
+      <c r="M12" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="N12" s="163">
+      <c r="N12" s="143">
         <v>0</v>
       </c>
-      <c r="O12" s="148">
+      <c r="O12" s="163">
         <f t="shared" ref="O12" si="0">(N12+N13+N14+N15+N16)/5</f>
         <v>0</v>
       </c>
@@ -16282,7 +17844,7 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="135" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="85">
@@ -16294,25 +17856,25 @@
       <c r="D13" s="105">
         <v>19.048439333333334</v>
       </c>
-      <c r="I13" s="143" t="s">
+      <c r="I13" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J13" s="140">
+      <c r="J13" s="132">
         <v>3</v>
       </c>
-      <c r="K13" s="140">
+      <c r="K13" s="132">
         <v>2</v>
       </c>
-      <c r="L13" s="140">
+      <c r="L13" s="132">
         <v>1.38517</v>
       </c>
-      <c r="M13" s="154">
+      <c r="M13" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="N13" s="163">
+      <c r="N13" s="143">
         <v>0</v>
       </c>
-      <c r="O13" s="148"/>
+      <c r="O13" s="163"/>
       <c r="Q13" s="89" t="s">
         <v>94</v>
       </c>
@@ -16331,7 +17893,7 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="135" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="85">
@@ -16343,25 +17905,25 @@
       <c r="D14" s="105">
         <v>20.233345333333336</v>
       </c>
-      <c r="I14" s="143" t="s">
+      <c r="I14" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="140">
+      <c r="J14" s="132">
         <v>8</v>
       </c>
-      <c r="K14" s="140">
+      <c r="K14" s="132">
         <v>3</v>
       </c>
-      <c r="L14" s="140">
+      <c r="L14" s="132">
         <v>2.3489599999999999</v>
       </c>
-      <c r="M14" s="154">
+      <c r="M14" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="N14" s="163">
+      <c r="N14" s="143">
         <v>0</v>
       </c>
-      <c r="O14" s="148"/>
+      <c r="O14" s="163"/>
       <c r="Q14" s="89" t="s">
         <v>22</v>
       </c>
@@ -16380,7 +17942,7 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A15" s="153" t="s">
+      <c r="A15" s="140" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="109">
@@ -16392,25 +17954,25 @@
       <c r="D15" s="106">
         <v>18.240378</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J15" s="140">
+      <c r="J15" s="132">
         <v>4</v>
       </c>
-      <c r="K15" s="140">
+      <c r="K15" s="132">
         <v>8</v>
       </c>
-      <c r="L15" s="140">
+      <c r="L15" s="132">
         <v>1.39483</v>
       </c>
-      <c r="M15" s="154">
+      <c r="M15" s="141">
         <v>21.1797</v>
       </c>
-      <c r="N15" s="163">
+      <c r="N15" s="143">
         <v>0</v>
       </c>
-      <c r="O15" s="148"/>
+      <c r="O15" s="163"/>
       <c r="Q15" s="89" t="s">
         <v>95</v>
       </c>
@@ -16426,25 +17988,25 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="I16" s="143" t="s">
+      <c r="I16" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="J16" s="140">
+      <c r="J16" s="132">
         <v>6</v>
       </c>
-      <c r="K16" s="140">
+      <c r="K16" s="132">
         <v>2</v>
       </c>
-      <c r="L16" s="140">
+      <c r="L16" s="132">
         <v>2.1938200000000001</v>
       </c>
-      <c r="M16" s="154">
+      <c r="M16" s="141">
         <v>21.164100000000001</v>
       </c>
-      <c r="N16" s="163">
+      <c r="N16" s="143">
         <v>0</v>
       </c>
-      <c r="O16" s="148"/>
+      <c r="O16" s="163"/>
       <c r="Q16" s="90" t="s">
         <v>96</v>
       </c>
@@ -16460,343 +18022,343 @@
       </c>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I17" s="143" t="s">
+      <c r="I17" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="140">
+      <c r="J17" s="132">
         <v>3</v>
       </c>
-      <c r="K17" s="140">
+      <c r="K17" s="132">
         <v>4</v>
       </c>
-      <c r="L17" s="140">
+      <c r="L17" s="132">
         <v>2.21102</v>
       </c>
-      <c r="M17" s="154">
+      <c r="M17" s="141">
         <v>21.1523</v>
       </c>
-      <c r="N17" s="163">
+      <c r="N17" s="143">
         <v>0</v>
       </c>
-      <c r="O17" s="148">
+      <c r="O17" s="163">
         <f t="shared" ref="O17" si="2">(N17+N18+N19+N20+N21)/5</f>
         <v>1.5713999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I18" s="143" t="s">
+      <c r="I18" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J18" s="140">
+      <c r="J18" s="132">
         <v>1</v>
       </c>
-      <c r="K18" s="140">
+      <c r="K18" s="132">
         <v>4</v>
       </c>
-      <c r="L18" s="140">
+      <c r="L18" s="132">
         <v>3.5125799999999998</v>
       </c>
-      <c r="M18" s="154">
+      <c r="M18" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="N18" s="163">
+      <c r="N18" s="143">
         <v>0</v>
       </c>
-      <c r="O18" s="148"/>
+      <c r="O18" s="163"/>
     </row>
     <row r="19" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I19" s="143" t="s">
+      <c r="I19" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J19" s="140">
+      <c r="J19" s="132">
         <v>1</v>
       </c>
-      <c r="K19" s="140">
+      <c r="K19" s="132">
         <v>3</v>
       </c>
-      <c r="L19" s="140">
+      <c r="L19" s="132">
         <v>5.1660899999999996</v>
       </c>
-      <c r="M19" s="154">
+      <c r="M19" s="141">
         <v>21.144500000000001</v>
       </c>
-      <c r="N19" s="163">
+      <c r="N19" s="143">
         <v>7.8570000000000001E-2</v>
       </c>
-      <c r="O19" s="148"/>
+      <c r="O19" s="163"/>
     </row>
     <row r="20" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I20" s="143" t="s">
+      <c r="I20" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="140">
+      <c r="J20" s="132">
         <v>2</v>
       </c>
-      <c r="K20" s="140">
+      <c r="K20" s="132">
         <v>8</v>
       </c>
-      <c r="L20" s="140">
+      <c r="L20" s="132">
         <v>3.63</v>
       </c>
-      <c r="M20" s="154">
+      <c r="M20" s="141">
         <v>21.164100000000001</v>
       </c>
-      <c r="N20" s="163">
+      <c r="N20" s="143">
         <v>0</v>
       </c>
-      <c r="O20" s="148"/>
+      <c r="O20" s="163"/>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I21" s="143" t="s">
+      <c r="I21" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="J21" s="140">
+      <c r="J21" s="132">
         <v>8</v>
       </c>
-      <c r="K21" s="140">
+      <c r="K21" s="132">
         <v>1</v>
       </c>
-      <c r="L21" s="140">
+      <c r="L21" s="132">
         <v>2.2427100000000002</v>
       </c>
-      <c r="M21" s="154">
+      <c r="M21" s="141">
         <v>5.3125</v>
       </c>
-      <c r="N21" s="163">
+      <c r="N21" s="143">
         <v>0</v>
       </c>
-      <c r="O21" s="148"/>
+      <c r="O21" s="163"/>
     </row>
     <row r="22" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I22" s="143" t="s">
+      <c r="I22" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="140">
+      <c r="J22" s="132">
         <v>6</v>
       </c>
-      <c r="K22" s="140">
+      <c r="K22" s="132">
         <v>5</v>
       </c>
-      <c r="L22" s="140">
+      <c r="L22" s="132">
         <v>2.74831</v>
       </c>
-      <c r="M22" s="154">
+      <c r="M22" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="N22" s="163">
+      <c r="N22" s="143">
         <v>0</v>
       </c>
-      <c r="O22" s="148">
+      <c r="O22" s="163">
         <f t="shared" ref="O22" si="3">(N22+N23+N24+N25+N26)/5</f>
         <v>1.8182E-2</v>
       </c>
     </row>
     <row r="23" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I23" s="143" t="s">
+      <c r="I23" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="140">
+      <c r="J23" s="132">
         <v>7</v>
       </c>
-      <c r="K23" s="140">
+      <c r="K23" s="132">
         <v>12</v>
       </c>
-      <c r="L23" s="140">
+      <c r="L23" s="132">
         <v>4.8579100000000004</v>
       </c>
-      <c r="M23" s="154">
+      <c r="M23" s="141">
         <v>21.183599999999998</v>
       </c>
-      <c r="N23" s="163">
+      <c r="N23" s="143">
         <v>0</v>
       </c>
-      <c r="O23" s="148"/>
+      <c r="O23" s="163"/>
     </row>
     <row r="24" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I24" s="143" t="s">
+      <c r="I24" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="140">
+      <c r="J24" s="132">
         <v>10</v>
       </c>
-      <c r="K24" s="140">
+      <c r="K24" s="132">
         <v>8</v>
       </c>
-      <c r="L24" s="140">
+      <c r="L24" s="132">
         <v>4.9608400000000001</v>
       </c>
-      <c r="M24" s="154">
+      <c r="M24" s="141">
         <v>21.171900000000001</v>
       </c>
-      <c r="N24" s="163">
+      <c r="N24" s="143">
         <v>0</v>
       </c>
-      <c r="O24" s="148"/>
+      <c r="O24" s="163"/>
     </row>
     <row r="25" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I25" s="143" t="s">
+      <c r="I25" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J25" s="140">
+      <c r="J25" s="132">
         <v>12</v>
       </c>
-      <c r="K25" s="140">
+      <c r="K25" s="132">
         <v>6</v>
       </c>
-      <c r="L25" s="140">
+      <c r="L25" s="132">
         <v>6.9614700000000003</v>
       </c>
-      <c r="M25" s="154">
+      <c r="M25" s="141">
         <v>21.140599999999999</v>
       </c>
-      <c r="N25" s="163">
+      <c r="N25" s="143">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="O25" s="148"/>
+      <c r="O25" s="163"/>
     </row>
     <row r="26" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I26" s="143" t="s">
+      <c r="I26" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="J26" s="140">
+      <c r="J26" s="132">
         <v>7</v>
       </c>
-      <c r="K26" s="140">
+      <c r="K26" s="132">
         <v>6</v>
       </c>
-      <c r="L26" s="140">
+      <c r="L26" s="132">
         <v>3.0012500000000002</v>
       </c>
-      <c r="M26" s="154">
+      <c r="M26" s="141">
         <v>21.1797</v>
       </c>
-      <c r="N26" s="163">
+      <c r="N26" s="143">
         <v>0</v>
       </c>
-      <c r="O26" s="148"/>
+      <c r="O26" s="163"/>
     </row>
     <row r="27" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I27" s="143" t="s">
+      <c r="I27" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J27" s="140">
+      <c r="J27" s="132">
         <v>12</v>
       </c>
-      <c r="K27" s="140">
+      <c r="K27" s="132">
         <v>8</v>
       </c>
-      <c r="L27" s="140">
+      <c r="L27" s="132">
         <v>3.4990000000000001</v>
       </c>
-      <c r="M27" s="154">
+      <c r="M27" s="141">
         <v>22.074200000000001</v>
       </c>
-      <c r="N27" s="163">
+      <c r="N27" s="143">
         <v>0</v>
       </c>
-      <c r="O27" s="148">
+      <c r="O27" s="163">
         <f t="shared" ref="O27" si="4">(N27+N28+N29+N30+N31)/5</f>
         <v>2.3076000000000003E-2</v>
       </c>
     </row>
     <row r="28" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I28" s="143" t="s">
+      <c r="I28" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J28" s="140">
+      <c r="J28" s="132">
         <v>7</v>
       </c>
-      <c r="K28" s="140">
+      <c r="K28" s="132">
         <v>8</v>
       </c>
-      <c r="L28" s="140">
+      <c r="L28" s="132">
         <v>4.77339</v>
       </c>
-      <c r="M28" s="154">
+      <c r="M28" s="141">
         <v>22.109400000000001</v>
       </c>
-      <c r="N28" s="163">
+      <c r="N28" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O28" s="148"/>
+      <c r="O28" s="163"/>
     </row>
     <row r="29" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I29" s="143" t="s">
+      <c r="I29" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J29" s="140">
+      <c r="J29" s="132">
         <v>12</v>
       </c>
-      <c r="K29" s="140">
+      <c r="K29" s="132">
         <v>10</v>
       </c>
-      <c r="L29" s="140">
+      <c r="L29" s="132">
         <v>6.3547599999999997</v>
       </c>
-      <c r="M29" s="154">
+      <c r="M29" s="141">
         <v>21.167999999999999</v>
       </c>
-      <c r="N29" s="163">
+      <c r="N29" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O29" s="148"/>
+      <c r="O29" s="163"/>
     </row>
     <row r="30" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I30" s="143" t="s">
+      <c r="I30" s="135" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="140">
+      <c r="J30" s="132">
         <v>7</v>
       </c>
-      <c r="K30" s="140">
+      <c r="K30" s="132">
         <v>3</v>
       </c>
-      <c r="L30" s="140">
+      <c r="L30" s="132">
         <v>4.4842199999999997</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="141">
         <v>21.1602</v>
       </c>
-      <c r="N30" s="163">
+      <c r="N30" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O30" s="148"/>
+      <c r="O30" s="163"/>
     </row>
     <row r="31" spans="9:15" x14ac:dyDescent="0.15">
-      <c r="I31" s="153" t="s">
+      <c r="I31" s="140" t="s">
         <v>34</v>
       </c>
-      <c r="J31" s="155">
+      <c r="J31" s="142">
         <v>12</v>
       </c>
-      <c r="K31" s="155">
+      <c r="K31" s="142">
         <v>2</v>
       </c>
-      <c r="L31" s="155">
+      <c r="L31" s="142">
         <v>4.0468500000000001</v>
       </c>
-      <c r="M31" s="152">
+      <c r="M31" s="139">
         <v>21.148399999999999</v>
       </c>
-      <c r="N31" s="164">
+      <c r="N31" s="144">
         <v>0</v>
       </c>
-      <c r="O31" s="162"/>
+      <c r="O31" s="164"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
-      <c r="J35" s="143" t="s">
+      <c r="J35" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="K35" s="143" t="s">
+      <c r="K35" s="135" t="s">
         <v>16</v>
       </c>
-      <c r="L35" s="143" t="s">
+      <c r="L35" s="135" t="s">
         <v>22</v>
       </c>
-      <c r="M35" s="143" t="s">
+      <c r="M35" s="135" t="s">
         <v>28</v>
       </c>
-      <c r="N35" s="143" t="s">
+      <c r="N35" s="135" t="s">
         <v>34</v>
       </c>
     </row>
@@ -16804,19 +18366,19 @@
       <c r="I36" t="s">
         <v>84</v>
       </c>
-      <c r="J36" s="163">
+      <c r="J36" s="143">
         <v>0</v>
       </c>
-      <c r="K36" s="163">
+      <c r="K36" s="143">
         <v>0</v>
       </c>
-      <c r="L36" s="163">
+      <c r="L36" s="143">
         <v>0</v>
       </c>
-      <c r="M36" s="163">
+      <c r="M36" s="143">
         <v>0</v>
       </c>
-      <c r="N36" s="163">
+      <c r="N36" s="143">
         <v>0</v>
       </c>
     </row>
@@ -16824,19 +18386,19 @@
       <c r="I37" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="163">
+      <c r="J37" s="143">
         <v>0</v>
       </c>
-      <c r="K37" s="163">
+      <c r="K37" s="143">
         <v>0</v>
       </c>
-      <c r="L37" s="163">
+      <c r="L37" s="143">
         <v>0</v>
       </c>
-      <c r="M37" s="163">
+      <c r="M37" s="143">
         <v>0</v>
       </c>
-      <c r="N37" s="163">
+      <c r="N37" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
@@ -16844,19 +18406,19 @@
       <c r="I38" t="s">
         <v>86</v>
       </c>
-      <c r="J38" s="163">
+      <c r="J38" s="143">
         <v>0</v>
       </c>
-      <c r="K38" s="163">
+      <c r="K38" s="143">
         <v>0</v>
       </c>
-      <c r="L38" s="163">
+      <c r="L38" s="143">
         <v>7.8570000000000001E-2</v>
       </c>
-      <c r="M38" s="163">
+      <c r="M38" s="143">
         <v>0</v>
       </c>
-      <c r="N38" s="163">
+      <c r="N38" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
@@ -16864,19 +18426,19 @@
       <c r="I39" t="s">
         <v>87</v>
       </c>
-      <c r="J39" s="163">
+      <c r="J39" s="143">
         <v>0</v>
       </c>
-      <c r="K39" s="163">
+      <c r="K39" s="143">
         <v>0</v>
       </c>
-      <c r="L39" s="163">
+      <c r="L39" s="143">
         <v>0</v>
       </c>
-      <c r="M39" s="163">
+      <c r="M39" s="143">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="N39" s="163">
+      <c r="N39" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
     </row>
@@ -16884,19 +18446,19 @@
       <c r="I40" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="163">
+      <c r="J40" s="143">
         <v>0</v>
       </c>
-      <c r="K40" s="163">
+      <c r="K40" s="143">
         <v>0</v>
       </c>
-      <c r="L40" s="163">
+      <c r="L40" s="143">
         <v>0</v>
       </c>
-      <c r="M40" s="163">
+      <c r="M40" s="143">
         <v>0</v>
       </c>
-      <c r="N40" s="164">
+      <c r="N40" s="144">
         <v>0</v>
       </c>
     </row>
@@ -16916,13 +18478,367 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="107"/>
+      <c r="B5" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A6" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="85">
+        <v>6.9176433333333334</v>
+      </c>
+      <c r="C6" s="85">
+        <v>3.5021360000000001</v>
+      </c>
+      <c r="D6" s="85">
+        <f>C6-0.2*C6</f>
+        <v>2.8017088000000001</v>
+      </c>
+      <c r="E6" s="105"/>
+      <c r="I6" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="J6">
+        <v>191.45400000000001</v>
+      </c>
+      <c r="K6">
+        <v>28.622333333333302</v>
+      </c>
+      <c r="L6" s="105">
+        <f>K6-K6*0.2</f>
+        <v>22.897866666666641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="85">
+        <v>20.139433333333333</v>
+      </c>
+      <c r="C7" s="85">
+        <v>7.7157520000000002</v>
+      </c>
+      <c r="D7" s="85">
+        <f t="shared" ref="D7:D10" si="0">C7-0.2*C7</f>
+        <v>6.1726016000000001</v>
+      </c>
+      <c r="E7" s="105"/>
+      <c r="I7" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>204.54560000000001</v>
+      </c>
+      <c r="K7">
+        <v>69.5553666666667</v>
+      </c>
+      <c r="L7" s="105">
+        <f t="shared" ref="L7:L9" si="1">K7-K7*0.2</f>
+        <v>55.644293333333358</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="85">
+        <v>67.460940000000008</v>
+      </c>
+      <c r="C8" s="85">
+        <v>15.964618000000002</v>
+      </c>
+      <c r="D8" s="85">
+        <f t="shared" si="0"/>
+        <v>12.771694400000001</v>
+      </c>
+      <c r="E8" s="105"/>
+      <c r="I8" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8">
+        <v>700.51499999999999</v>
+      </c>
+      <c r="K8">
+        <v>240.39</v>
+      </c>
+      <c r="L8" s="105">
+        <f t="shared" si="1"/>
+        <v>192.31199999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="85">
+        <v>346.6375666666666</v>
+      </c>
+      <c r="C9" s="85">
+        <v>23.522805999999999</v>
+      </c>
+      <c r="D9" s="85">
+        <f t="shared" si="0"/>
+        <v>18.818244799999999</v>
+      </c>
+      <c r="E9" s="105"/>
+      <c r="I9" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9">
+        <v>1574.1210000000001</v>
+      </c>
+      <c r="K9">
+        <v>420.417333333334</v>
+      </c>
+      <c r="L9" s="105">
+        <f t="shared" si="1"/>
+        <v>336.33386666666718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="109">
+        <v>106.03247333333334</v>
+      </c>
+      <c r="C10" s="109">
+        <v>26.129814666666668</v>
+      </c>
+      <c r="D10" s="85">
+        <f t="shared" si="0"/>
+        <v>20.903851733333333</v>
+      </c>
+      <c r="E10" s="106"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="106"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="85"/>
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A12" s="132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="132" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="107"/>
+      <c r="B13" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="110" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13" s="110" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13" s="111" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="85">
+        <v>5.0916680000000003</v>
+      </c>
+      <c r="C14" s="85">
+        <v>10.845320000000001</v>
+      </c>
+      <c r="D14" s="85">
+        <f>C14+0.19*C14</f>
+        <v>12.9059308</v>
+      </c>
+      <c r="E14" s="105"/>
+      <c r="I14" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="85">
+        <v>5.0916680000000003</v>
+      </c>
+      <c r="K14" s="85">
+        <v>10.845320000000001</v>
+      </c>
+      <c r="L14" s="105">
+        <f>K14+0.19*K14</f>
+        <v>12.9059308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="85">
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="C15" s="85">
+        <v>11.715633333333333</v>
+      </c>
+      <c r="D15" s="85">
+        <f t="shared" ref="D15:D18" si="2">C15+0.19*C15</f>
+        <v>13.941603666666666</v>
+      </c>
+      <c r="E15" s="105"/>
+      <c r="I15" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="85">
+        <v>5.0893246666666672</v>
+      </c>
+      <c r="K15" s="85">
+        <v>11.715633333333333</v>
+      </c>
+      <c r="L15" s="105">
+        <f t="shared" ref="L15:L17" si="3">K15+0.19*K15</f>
+        <v>13.941603666666666</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="135" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="85">
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="C16" s="85">
+        <v>10.909379333333334</v>
+      </c>
+      <c r="D16" s="85">
+        <f t="shared" si="2"/>
+        <v>12.982161406666666</v>
+      </c>
+      <c r="E16" s="105"/>
+      <c r="I16" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="85">
+        <v>5.0895833333333336</v>
+      </c>
+      <c r="K16" s="85">
+        <v>10.909379333333334</v>
+      </c>
+      <c r="L16" s="105">
+        <f t="shared" si="3"/>
+        <v>12.982161406666666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="85">
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="C17" s="85">
+        <v>16.016151999999998</v>
+      </c>
+      <c r="D17" s="85">
+        <f t="shared" si="2"/>
+        <v>19.059220879999998</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="I17" s="135" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="85">
+        <v>5.0906253333333336</v>
+      </c>
+      <c r="K17" s="85">
+        <v>16.016151999999998</v>
+      </c>
+      <c r="L17" s="105">
+        <f t="shared" si="3"/>
+        <v>19.059220879999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="109">
+        <v>5.0960926666666664</v>
+      </c>
+      <c r="C18" s="109">
+        <v>14.952871999999999</v>
+      </c>
+      <c r="D18" s="85">
+        <f t="shared" si="2"/>
+        <v>17.79391768</v>
+      </c>
+      <c r="E18" s="106"/>
+      <c r="I18" s="140"/>
+      <c r="J18" s="109"/>
+      <c r="K18" s="109"/>
+      <c r="L18" s="106"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" tabRatio="750" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" tabRatio="750" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="近似算法的相似性度量" sheetId="6" r:id="rId6"/>
     <sheet name="BASW_FDP，ICA_FDP,ICA_FEA" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1924,11 +1924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174623360"/>
-        <c:axId val="174633728"/>
+        <c:axId val="44933120"/>
+        <c:axId val="43856384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174623360"/>
+        <c:axId val="44933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174633728"/>
+        <c:crossAx val="43856384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +1963,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174633728"/>
+        <c:axId val="43856384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +1996,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174623360"/>
+        <c:crossAx val="44933120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2303,11 +2303,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174969600"/>
-        <c:axId val="174971520"/>
+        <c:axId val="46230016"/>
+        <c:axId val="52285376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174969600"/>
+        <c:axId val="46230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,7 +2335,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174971520"/>
+        <c:crossAx val="52285376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2343,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174971520"/>
+        <c:axId val="52285376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2380,7 +2380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174969600"/>
+        <c:crossAx val="46230016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2596,11 +2596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167263616"/>
-        <c:axId val="167294464"/>
+        <c:axId val="48454144"/>
+        <c:axId val="67772416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167263616"/>
+        <c:axId val="48454144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,13 +2622,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167294464"/>
+        <c:crossAx val="67772416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2635,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167294464"/>
+        <c:axId val="67772416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,14 +2665,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167263616"/>
+        <c:crossAx val="48454144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2909,11 +2907,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167319808"/>
-        <c:axId val="167321984"/>
+        <c:axId val="48454656"/>
+        <c:axId val="67777600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167319808"/>
+        <c:axId val="48454656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2941,7 +2939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167321984"/>
+        <c:crossAx val="67777600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2949,7 +2947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167321984"/>
+        <c:axId val="67777600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2986,7 +2984,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167319808"/>
+        <c:crossAx val="48454656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,11 +3200,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="167347712"/>
-        <c:axId val="167349632"/>
+        <c:axId val="48536064"/>
+        <c:axId val="67779904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="167347712"/>
+        <c:axId val="48536064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3235,7 +3233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167349632"/>
+        <c:crossAx val="67779904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3243,7 +3241,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="167349632"/>
+        <c:axId val="67779904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3281,7 +3279,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="167347712"/>
+        <c:crossAx val="48536064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3570,11 +3568,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176649344"/>
-        <c:axId val="176651264"/>
+        <c:axId val="48537088"/>
+        <c:axId val="100004352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176649344"/>
+        <c:axId val="48537088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3603,7 +3601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176651264"/>
+        <c:crossAx val="100004352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3611,7 +3609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176651264"/>
+        <c:axId val="100004352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3645,7 +3643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176649344"/>
+        <c:crossAx val="48537088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,11 +3932,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="176681728"/>
-        <c:axId val="176683648"/>
+        <c:axId val="51544064"/>
+        <c:axId val="100007232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176681728"/>
+        <c:axId val="51544064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +3964,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176683648"/>
+        <c:crossAx val="100007232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3974,7 +3972,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176683648"/>
+        <c:axId val="100007232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4011,7 +4009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176681728"/>
+        <c:crossAx val="51544064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4040,40 +4038,53 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="101"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="1"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>近似算法的相似性度量!$R$11</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>平均度量</c:v>
+                  <c:v>ICA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct50">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$17:$P$21</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -4096,29 +4107,106 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>近似算法的相似性度量!$R$12:$R$16</c:f>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$R$17:$R$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>10.845320000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>11.715633333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5713999999999999E-2</c:v>
+                  <c:v>10.909379333333334</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8182E-2</c:v>
+                  <c:v>16.016151999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3076000000000003E-2</c:v>
+                  <c:v>14.952871999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct5">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$P$17:$P$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$S$17:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>21.22448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.355226666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.048439333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.233345333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.240378</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4128,275 +4216,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="176708608"/>
-        <c:axId val="176735360"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="51546112"/>
+        <c:axId val="46285952"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="176708608"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176735360"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="176735360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176708608"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>近似算法的相似性度量!$S$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>下界</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:pattFill prst="ltDnDiag">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>近似算法的相似性度量!$S$12:$S$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.63244999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45175300000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58789999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.37757000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.31948549999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>近似算法的相似性度量!$T$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>标准度量</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:pattFill prst="horzBrick">
-                <a:fgClr>
-                  <a:schemeClr val="tx1"/>
-                </a:fgClr>
-                <a:bgClr>
-                  <a:schemeClr val="bg1"/>
-                </a:bgClr>
-              </a:pattFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:headEnd type="oval"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>近似算法的相似性度量!$T$12:$T$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6729035550263649E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8155308949333897E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2228630094323537E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="176379776"/>
-        <c:axId val="176382336"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="176379776"/>
+        <c:axId val="51546112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4415,363 +4240,7 @@
                   <a:rPr lang="zh-CN" altLang="en-US"/>
                   <a:t>图规模</a:t>
                 </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176382336"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="176382336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>相似性度量</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176379776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$6:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.9176433333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.139433333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.460940000000008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>346.6375666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106.03247333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="dashHorz">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$6:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3.5021360000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.7157520000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.964618000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.522805999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>26.129814666666668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="horzBrick">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$6:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.8017088000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.1726016000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.771694400000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.818244799999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.903851733333333</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="172763008"/>
-        <c:axId val="172764544"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="172763008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>图规模</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+                <a:endParaRPr lang="en-US" altLang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4781,7 +4250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172764544"/>
+        <c:crossAx val="46285952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4789,380 +4258,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="172764544"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>算法执行时间（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>MS</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>）</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172763008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18611111111111112"/>
-          <c:y val="0.11053514144065327"/>
-          <c:w val="0.16272134733158355"/>
-          <c:h val="0.25115157480314959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct60">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0916680000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0893246666666672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0895833333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0906253333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0960926666666664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$14:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>10.845320000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.715633333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.909379333333334</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16.016151999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14.952871999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltHorz">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$14:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>12.9059308</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.941603666666666</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.982161406666666</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19.059220879999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.79391768</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="124546048"/>
-        <c:axId val="168076032"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="124546048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>图规模</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168076032"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="168076032"/>
+        <c:axId val="46285952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5199,7 +4295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124546048"/>
+        <c:crossAx val="51546112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5207,6 +4303,730 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$109:$I$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$109:$K$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.622333333333302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5553666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420.417333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$108</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$109:$I$112</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$109:$L$112</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.7415200000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.165165</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52318208"/>
+        <c:axId val="46288256"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="52318208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>不同稠密度的图</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46288256"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46288256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>时间消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52318208"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22500000000000001"/>
+          <c:y val="0.11516477107028288"/>
+          <c:w val="0.20340201224846893"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$117:$I$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$K$117:$K$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$116</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP_APA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dotDmnd">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:tint val="78000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$I$117:$I$120</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASE_FDP,ICA_FDP,ICA_FDP_APA'!$L$117:$L$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.22448</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.355226666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.048439333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.233345333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="46228992"/>
+        <c:axId val="46290560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="46228992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>不同稠密度的图</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46290560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="46290560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46228992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$R$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>平均度量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>近似算法的相似性度量!$R$12:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5713999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8182E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3076000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="52319232"/>
+        <c:axId val="50626560"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="52319232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50626560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50626560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52319232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5485,11 +5305,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174541056"/>
-        <c:axId val="174547328"/>
+        <c:axId val="44431872"/>
+        <c:axId val="43859264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174541056"/>
+        <c:axId val="44431872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5516,7 +5336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174547328"/>
+        <c:crossAx val="43859264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5524,7 +5344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174547328"/>
+        <c:axId val="43859264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5560,7 +5380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174541056"/>
+        <c:crossAx val="44431872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5595,228 +5415,181 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$5</c:f>
+              <c:f>近似算法的相似性度量!$S$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
+                  <c:v>下界</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:spPr>
+              <a:pattFill prst="ltDnDiag">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>V15E21</c:v>
+                  <c:v>V6E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>V15E32</c:v>
+                  <c:v>V8E14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>V15E42</c:v>
+                  <c:v>V10E18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>V15E53</c:v>
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$6:$J$9</c:f>
+              <c:f>近似算法的相似性度量!$S$12:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>191.45400000000001</c:v>
+                  <c:v>0.63244999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>204.54560000000001</c:v>
+                  <c:v>0.45175300000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>700.51499999999999</c:v>
+                  <c:v>0.58789999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1574.1210000000001</c:v>
+                  <c:v>0.37757000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.31948549999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$5</c:f>
+              <c:f>近似算法的相似性度量!$T$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>标准度量</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="narVert">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
+            <a:ln w="19050">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:spPr>
+              <a:pattFill prst="horzBrick">
+                <a:fgClr>
+                  <a:schemeClr val="tx1"/>
+                </a:fgClr>
+                <a:bgClr>
+                  <a:schemeClr val="bg1"/>
+                </a:bgClr>
+              </a:pattFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:headEnd type="oval"/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:f>近似算法的相似性度量!$Q$12:$Q$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>V15E21</c:v>
+                  <c:v>V6E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>V15E32</c:v>
+                  <c:v>V8E14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>V15E42</c:v>
+                  <c:v>V10E18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>V15E53</c:v>
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$6:$K$9</c:f>
+              <c:f>近似算法的相似性度量!$T$12:$T$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>28.622333333333302</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69.5553666666667</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240.39</c:v>
+                  <c:v>2.6729035550263649E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>420.417333333334</c:v>
+                  <c:v>4.8155308949333897E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2228630094323537E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="horzBrick">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>V15E21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V15E32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V15E42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V15E53</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$6:$L$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>22.897866666666641</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>55.644293333333358</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>192.31199999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>336.33386666666718</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5826,12 +5599,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="172935808"/>
-        <c:axId val="182314880"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="56641024"/>
+        <c:axId val="50628288"/>
+      </c:lineChart>
       <c:catAx>
-        <c:axId val="172935808"/>
+        <c:axId val="56641024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5848,18 +5622,17 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>图稠密度</a:t>
+                  <a:t>图规模</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182314880"/>
+        <c:crossAx val="50628288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5867,16 +5640,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182314880"/>
+        <c:axId val="50628288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -5884,44 +5658,25 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>算法执行时间（</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>MS</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>）</a:t>
+                  <a:t>相似性度量</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172935808"/>
+        <c:crossAx val="56641024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21666666666666667"/>
-          <c:y val="0.12905365995917178"/>
-          <c:w val="0.16272134733158355"/>
-          <c:h val="0.25115157480314959"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="1"/>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5961,6 +5716,1090 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$6:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9176433333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.139433333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.460940000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>346.6375666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.03247333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="dashHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$6:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.5021360000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.7157520000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.964618000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.522805999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.129814666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$6:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.8017088000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1726016000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.771694400000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.818244799999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.903851733333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="45656576"/>
+        <c:axId val="50630592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="45656576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50630592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50630592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法执行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45656576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18611111111111112"/>
+          <c:y val="0.11053514144065327"/>
+          <c:w val="0.16272134733158355"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="pct60">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$14:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0916680000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0893246666666672</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0895833333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0906253333333336</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0960926666666664</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$14:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.845320000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715633333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.909379333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.016151999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.952871999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltHorz">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>V6E10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V8E14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V10E18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V12E22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>V14E26</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$14:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.9059308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.941603666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.982161406666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.059220879999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.79391768</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="56643072"/>
+        <c:axId val="50632896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="56643072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图规模</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50632896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="50632896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>内存消耗（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MB</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56643072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASE_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="ltUpDiag">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$6:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>191.45400000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>204.54560000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700.51499999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1574.1210000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FDP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="narVert">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$6:$K$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.622333333333302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.5553666666667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240.39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>420.417333333334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ICA_FEA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:pattFill prst="horzBrick">
+              <a:fgClr>
+                <a:schemeClr val="tx1"/>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>V15E21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>V15E32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>V15E42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>V15E53</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$6:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.897866666666641</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55.644293333333358</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>192.31199999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>336.33386666666718</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="67985408"/>
+        <c:axId val="67813952"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67985408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>图稠密度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67813952"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67813952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>算法执行时间（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>MS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67985408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21666666666666667"/>
+          <c:y val="0.12905365995917178"/>
+          <c:w val="0.16272134733158355"/>
+          <c:h val="0.25115157480314959"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -6181,11 +7020,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="183652352"/>
-        <c:axId val="183653888"/>
+        <c:axId val="67985920"/>
+        <c:axId val="67816256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183652352"/>
+        <c:axId val="67985920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6207,13 +7046,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183653888"/>
+        <c:crossAx val="67816256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6221,7 +7059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183653888"/>
+        <c:axId val="67816256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6251,21 +7089,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183652352"/>
+        <c:crossAx val="67985920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6527,11 +7363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174462848"/>
-        <c:axId val="174465024"/>
+        <c:axId val="44936704"/>
+        <c:axId val="44984576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174462848"/>
+        <c:axId val="44936704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6558,7 +7394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174465024"/>
+        <c:crossAx val="44984576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6566,7 +7402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174465024"/>
+        <c:axId val="44984576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6602,7 +7438,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174462848"/>
+        <c:crossAx val="44936704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6884,11 +7720,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174503808"/>
-        <c:axId val="174510080"/>
+        <c:axId val="45449728"/>
+        <c:axId val="44987456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174503808"/>
+        <c:axId val="45449728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6915,7 +7751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174510080"/>
+        <c:crossAx val="44987456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6923,7 +7759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174510080"/>
+        <c:axId val="44987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6959,7 +7795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174503808"/>
+        <c:crossAx val="45449728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7136,11 +7972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="175025152"/>
-        <c:axId val="175043712"/>
+        <c:axId val="45452800"/>
+        <c:axId val="47056576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="175025152"/>
+        <c:axId val="45452800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7168,7 +8004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175043712"/>
+        <c:crossAx val="47056576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7176,7 +8012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175043712"/>
+        <c:axId val="47056576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7212,7 +8048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175025152"/>
+        <c:crossAx val="45452800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7399,11 +8235,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174749568"/>
-        <c:axId val="174759936"/>
+        <c:axId val="45655040"/>
+        <c:axId val="47060032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174749568"/>
+        <c:axId val="45655040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7430,7 +8266,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174759936"/>
+        <c:crossAx val="47060032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7438,7 +8274,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174759936"/>
+        <c:axId val="47060032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7474,7 +8310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174749568"/>
+        <c:crossAx val="45655040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7639,11 +8475,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174859008"/>
-        <c:axId val="174860928"/>
+        <c:axId val="45655552"/>
+        <c:axId val="47062336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174859008"/>
+        <c:axId val="45655552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7670,7 +8506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174860928"/>
+        <c:crossAx val="47062336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7678,7 +8514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174860928"/>
+        <c:axId val="47062336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7714,7 +8550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174859008"/>
+        <c:crossAx val="45655552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7889,11 +8725,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174881792"/>
-        <c:axId val="174896256"/>
+        <c:axId val="45656064"/>
+        <c:axId val="48243840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174881792"/>
+        <c:axId val="45656064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7920,7 +8756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174896256"/>
+        <c:crossAx val="48243840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7928,7 +8764,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174896256"/>
+        <c:axId val="48243840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7964,7 +8800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174881792"/>
+        <c:crossAx val="45656064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8261,11 +9097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="174921216"/>
-        <c:axId val="174923136"/>
+        <c:axId val="44431360"/>
+        <c:axId val="48246720"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="174921216"/>
+        <c:axId val="44431360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8287,13 +9123,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174923136"/>
+        <c:crossAx val="48246720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8301,7 +9136,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174923136"/>
+        <c:axId val="48246720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8323,14 +9158,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174921216"/>
+        <c:crossAx val="44431360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8818,6 +9652,100 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="图表 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="图表 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13868,8 +14796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE121"/>
   <sheetViews>
-    <sheetView topLeftCell="E106" workbookViewId="0">
-      <selection activeCell="L133" sqref="L133"/>
+    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
+      <selection activeCell="Y76" sqref="Y76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17501,12 +18429,12 @@
     <mergeCell ref="L62:L66"/>
     <mergeCell ref="L67:L71"/>
     <mergeCell ref="L72:L76"/>
+    <mergeCell ref="M72:M76"/>
     <mergeCell ref="M4:M8"/>
     <mergeCell ref="M9:M13"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="M19:M23"/>
     <mergeCell ref="M24:M28"/>
-    <mergeCell ref="M72:M76"/>
     <mergeCell ref="M77:M81"/>
     <mergeCell ref="M82:M86"/>
     <mergeCell ref="M38:M42"/>
@@ -18480,8 +19408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/paper/大论文/实验结果新.xlsx
+++ b/paper/大论文/实验结果新.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="5490" windowHeight="4260" tabRatio="750" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="7500" windowHeight="4950" tabRatio="750" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="base_all,base,ica" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="BASE_FDP,ICA_FDP,ICA_FDP_APA" sheetId="5" r:id="rId5"/>
     <sheet name="近似算法的相似性度量" sheetId="6" r:id="rId6"/>
     <sheet name="BASW_FDP，ICA_FDP,ICA_FEA" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="120">
   <si>
     <t>V6E10</t>
   </si>
@@ -365,18 +366,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>标准度量</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>下界</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ICA_FEA</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>图抽密度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -385,7 +374,83 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>ICA_FEA</t>
+    <t>SCA_FEA</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCA_FDP</t>
+  </si>
+  <si>
+    <t>SCA_FDP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCA_FDP_APA</t>
+  </si>
+  <si>
+    <t>SCA_FCP</t>
+  </si>
+  <si>
+    <t>内存消耗</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6E10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8E14</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V10E18</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v12E22</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v14E26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BSAE_FCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCA_FCP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BASE_ALL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>最差情况</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>精确解</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEAA_FDP</t>
+  </si>
+  <si>
+    <t>KEAA_FDP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>KEAA_FDP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>相似度</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +458,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +698,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1324,7 +1397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1516,6 +1589,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="57" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1924,11 +2006,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44933120"/>
-        <c:axId val="43856384"/>
+        <c:axId val="131155840"/>
+        <c:axId val="131170304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44933120"/>
+        <c:axId val="131155840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1955,7 +2037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43856384"/>
+        <c:crossAx val="131170304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1963,7 +2045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43856384"/>
+        <c:axId val="131170304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1996,7 +2078,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44933120"/>
+        <c:crossAx val="131155840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2139,7 +2221,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2221,7 +2303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2303,11 +2385,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46230016"/>
-        <c:axId val="52285376"/>
+        <c:axId val="129667072"/>
+        <c:axId val="129668992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46230016"/>
+        <c:axId val="129667072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,13 +2411,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52285376"/>
+        <c:crossAx val="129668992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2343,7 +2424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="52285376"/>
+        <c:axId val="129668992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2373,21 +2454,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46230016"/>
+        <c:crossAx val="129667072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2432,7 +2511,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FCP</c:v>
+                  <c:v>SCA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2514,7 +2593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2596,11 +2675,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48454144"/>
-        <c:axId val="67772416"/>
+        <c:axId val="129690240"/>
+        <c:axId val="129839872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48454144"/>
+        <c:axId val="129690240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2627,7 +2706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67772416"/>
+        <c:crossAx val="129839872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2635,7 +2714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67772416"/>
+        <c:axId val="129839872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2671,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48454144"/>
+        <c:crossAx val="129690240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2743,7 +2822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FCP</c:v>
+                  <c:v>SCA_FCP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2825,7 +2904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2907,11 +2986,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48454656"/>
-        <c:axId val="67777600"/>
+        <c:axId val="129885696"/>
+        <c:axId val="129887616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48454656"/>
+        <c:axId val="129885696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,13 +3012,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67777600"/>
+        <c:crossAx val="129887616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67777600"/>
+        <c:axId val="129887616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2977,21 +3055,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48454656"/>
+        <c:crossAx val="129885696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3036,7 +3112,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3118,7 +3194,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3200,11 +3276,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48536064"/>
-        <c:axId val="67779904"/>
+        <c:axId val="129782528"/>
+        <c:axId val="129784448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48536064"/>
+        <c:axId val="129782528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,13 +3303,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67779904"/>
+        <c:crossAx val="129784448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3241,7 +3316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67779904"/>
+        <c:axId val="129784448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,14 +3347,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48536064"/>
+        <c:crossAx val="129782528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3416,7 +3490,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3492,7 +3566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3568,11 +3642,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="48537088"/>
-        <c:axId val="100004352"/>
+        <c:axId val="132465024"/>
+        <c:axId val="132466944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="48537088"/>
+        <c:axId val="132465024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3595,13 +3669,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100004352"/>
+        <c:crossAx val="132466944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3609,7 +3682,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100004352"/>
+        <c:axId val="132466944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3636,14 +3709,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48537088"/>
+        <c:crossAx val="132465024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3780,7 +3852,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3856,7 +3928,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3932,11 +4004,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51544064"/>
-        <c:axId val="100007232"/>
+        <c:axId val="132493312"/>
+        <c:axId val="132495232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51544064"/>
+        <c:axId val="132493312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3958,13 +4030,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100007232"/>
+        <c:crossAx val="132495232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3972,7 +4043,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100007232"/>
+        <c:axId val="132495232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4002,21 +4073,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51544064"/>
+        <c:crossAx val="132493312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4061,7 +4130,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4139,7 +4208,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4217,11 +4286,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51546112"/>
-        <c:axId val="46285952"/>
+        <c:axId val="132536960"/>
+        <c:axId val="132547328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51546112"/>
+        <c:axId val="132536960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,13 +4313,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46285952"/>
+        <c:crossAx val="132547328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4258,7 +4326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46285952"/>
+        <c:axId val="132547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4288,21 +4356,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51546112"/>
+        <c:crossAx val="132536960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4347,7 +4413,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4423,7 +4489,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4499,11 +4565,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="52318208"/>
-        <c:axId val="46288256"/>
+        <c:axId val="132568576"/>
+        <c:axId val="132570496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="52318208"/>
+        <c:axId val="132568576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4526,13 +4592,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46288256"/>
+        <c:crossAx val="132570496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4540,7 +4605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46288256"/>
+        <c:axId val="132570496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,14 +4632,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52318208"/>
+        <c:crossAx val="132568576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4635,7 +4699,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4711,7 +4775,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4787,11 +4851,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="46228992"/>
-        <c:axId val="46290560"/>
+        <c:axId val="132153728"/>
+        <c:axId val="132155648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="46228992"/>
+        <c:axId val="132153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4813,13 +4877,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46290560"/>
+        <c:crossAx val="132155648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4827,7 +4890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="46290560"/>
+        <c:axId val="132155648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4857,21 +4920,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46228992"/>
+        <c:crossAx val="132153728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4901,6 +4962,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4982,23 +5044,24 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="52319232"/>
-        <c:axId val="50626560"/>
+        <c:axId val="132233856"/>
+        <c:axId val="132244224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="52319232"/>
+        <c:axId val="132233856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50626560"/>
+        <c:crossAx val="132244224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5006,7 +5069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50626560"/>
+        <c:axId val="132244224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,19 +5077,21 @@
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:title>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52319232"/>
+        <c:crossAx val="132233856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5305,11 +5370,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44431872"/>
-        <c:axId val="43859264"/>
+        <c:axId val="131085824"/>
+        <c:axId val="131087744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44431872"/>
+        <c:axId val="131085824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,7 +5401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43859264"/>
+        <c:crossAx val="131087744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5344,7 +5409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="43859264"/>
+        <c:axId val="131087744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5380,7 +5445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44431872"/>
+        <c:crossAx val="131085824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5430,7 +5495,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>下界</c:v>
+                  <c:v>最差情况</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5512,7 +5577,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>标准度量</c:v>
+                  <c:v>相似度</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5572,22 +5637,51 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6729035550263649E-2</c:v>
+                  <c:v>0.97327096444973638</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8155308949333897E-2</c:v>
+                  <c:v>0.95184469105066616</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2228630094323537E-2</c:v>
+                  <c:v>0.92777136990567644</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>精确解</c:v>
+          </c:tx>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="5"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
@@ -5601,11 +5695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="56641024"/>
-        <c:axId val="50628288"/>
+        <c:axId val="129702528"/>
+        <c:axId val="129708800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="56641024"/>
+        <c:axId val="129702528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5627,12 +5721,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50628288"/>
+        <c:crossAx val="129708800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5640,7 +5735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50628288"/>
+        <c:axId val="129708800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5663,19 +5758,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56641024"/>
+        <c:crossAx val="129702528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5712,93 +5809,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$6:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$6:$B$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.9176433333333334</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.139433333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>67.460940000000008</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>346.6375666666666</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>106.03247333333334</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5869,14 +5888,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
+                  <c:v>SCA_FEA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5954,11 +5973,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45656576"/>
-        <c:axId val="50630592"/>
+        <c:axId val="132183936"/>
+        <c:axId val="132259840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45656576"/>
+        <c:axId val="132183936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5981,12 +6000,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50630592"/>
+        <c:crossAx val="132259840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5994,7 +6014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50630592"/>
+        <c:axId val="132259840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6024,13 +6044,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45656576"/>
+        <c:crossAx val="132183936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6083,93 +6104,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct60">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$A$14:$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>V6E10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V8E14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V10E18</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V12E22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>V14E26</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$B$14:$B$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.0916680000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0893246666666672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0895833333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0906253333333336</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0960926666666664</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$C$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6240,14 +6183,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$D$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
+                  <c:v>SCA_FEA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6325,11 +6268,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="56643072"/>
-        <c:axId val="50632896"/>
+        <c:axId val="132305664"/>
+        <c:axId val="132307584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="56643072"/>
+        <c:axId val="132305664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6352,12 +6295,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50632896"/>
+        <c:crossAx val="132307584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6365,7 +6309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="50632896"/>
+        <c:axId val="132307584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6395,19 +6339,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56643072"/>
+        <c:crossAx val="132305664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6444,87 +6390,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$6:$I$9</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>V15E21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V15E32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V15E42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V15E53</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$6:$J$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>191.45400000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>204.54560000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>700.51499999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1574.1210000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6589,14 +6463,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
+                  <c:v>SCA_FEA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6668,11 +6542,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67985408"/>
-        <c:axId val="67813952"/>
+        <c:axId val="133385600"/>
+        <c:axId val="133387776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67985408"/>
+        <c:axId val="133385600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6694,12 +6568,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67813952"/>
+        <c:crossAx val="133387776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6707,7 +6582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67813952"/>
+        <c:axId val="133387776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6737,13 +6612,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67985408"/>
+        <c:crossAx val="133385600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6796,87 +6672,15 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BASE_FDP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="ltUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$I$14:$I$17</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>V15E21</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V15E32</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V15E42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>V15E53</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$J$14:$J$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.0916680000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.0893246666666672</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0895833333333336</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5.0906253333333336</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$K$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6941,14 +6745,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'BASW_FDP，ICA_FDP,ICA_FEA'!$L$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FEA</c:v>
+                  <c:v>SCA_FEA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7020,11 +6824,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="67985920"/>
-        <c:axId val="67816256"/>
+        <c:axId val="133409024"/>
+        <c:axId val="133427584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67985920"/>
+        <c:axId val="133409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7046,12 +6850,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67816256"/>
+        <c:crossAx val="133427584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7059,7 +6864,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67816256"/>
+        <c:axId val="133427584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7089,19 +6894,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67985920"/>
+        <c:crossAx val="133409024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7363,11 +7170,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44936704"/>
-        <c:axId val="44984576"/>
+        <c:axId val="131126400"/>
+        <c:axId val="131128320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44936704"/>
+        <c:axId val="131126400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7394,7 +7201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44984576"/>
+        <c:crossAx val="131128320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7402,7 +7209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44984576"/>
+        <c:axId val="131128320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7438,7 +7245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44936704"/>
+        <c:crossAx val="131126400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7720,11 +7527,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45449728"/>
-        <c:axId val="44987456"/>
+        <c:axId val="131496960"/>
+        <c:axId val="131499136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45449728"/>
+        <c:axId val="131496960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7751,7 +7558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44987456"/>
+        <c:crossAx val="131499136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7759,7 +7566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="44987456"/>
+        <c:axId val="131499136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7795,7 +7602,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45449728"/>
+        <c:crossAx val="131496960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7972,11 +7779,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45452800"/>
-        <c:axId val="47056576"/>
+        <c:axId val="131594496"/>
+        <c:axId val="129061248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45452800"/>
+        <c:axId val="131594496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8004,7 +7811,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47056576"/>
+        <c:crossAx val="129061248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8012,7 +7819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47056576"/>
+        <c:axId val="129061248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8048,7 +7855,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45452800"/>
+        <c:crossAx val="131594496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8235,11 +8042,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45655040"/>
-        <c:axId val="47060032"/>
+        <c:axId val="131236992"/>
+        <c:axId val="131238912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45655040"/>
+        <c:axId val="131236992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8266,7 +8073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47060032"/>
+        <c:crossAx val="131238912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8274,7 +8081,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47060032"/>
+        <c:axId val="131238912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8310,7 +8117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45655040"/>
+        <c:crossAx val="131236992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8475,11 +8282,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45655552"/>
-        <c:axId val="47062336"/>
+        <c:axId val="131563520"/>
+        <c:axId val="131565440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45655552"/>
+        <c:axId val="131563520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8506,7 +8313,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47062336"/>
+        <c:crossAx val="131565440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8514,7 +8321,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47062336"/>
+        <c:axId val="131565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8550,7 +8357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45655552"/>
+        <c:crossAx val="131563520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8725,11 +8532,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="45656064"/>
-        <c:axId val="48243840"/>
+        <c:axId val="131291392"/>
+        <c:axId val="131322240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="45656064"/>
+        <c:axId val="131291392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8756,7 +8563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48243840"/>
+        <c:crossAx val="131322240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8764,7 +8571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48243840"/>
+        <c:axId val="131322240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8800,7 +8607,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="45656064"/>
+        <c:crossAx val="131291392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8933,7 +8740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP</c:v>
+                  <c:v>SCA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9015,7 +8822,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ICA_FDP_APA</c:v>
+                  <c:v>KEAA_FDP</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9097,11 +8904,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="44431360"/>
-        <c:axId val="48246720"/>
+        <c:axId val="129753472"/>
+        <c:axId val="129755392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="44431360"/>
+        <c:axId val="129753472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9128,7 +8935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48246720"/>
+        <c:crossAx val="129755392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9136,7 +8943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48246720"/>
+        <c:axId val="129755392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9164,7 +8971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44431360"/>
+        <c:crossAx val="129753472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10251,18 +10058,18 @@
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="145" t="s">
+      <c r="E1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="147" t="s">
+      <c r="H1" s="157"/>
+      <c r="I1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="157"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -10527,18 +10334,18 @@
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147" t="s">
+      <c r="F10" s="155"/>
+      <c r="G10" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="147" t="s">
+      <c r="H10" s="157"/>
+      <c r="I10" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="149"/>
+      <c r="J10" s="158"/>
       <c r="K10" s="89" t="s">
         <v>0</v>
       </c>
@@ -10891,18 +10698,18 @@
       <c r="B19" s="40"/>
       <c r="C19" s="41"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147" t="s">
+      <c r="F19" s="155"/>
+      <c r="G19" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="148"/>
-      <c r="I19" s="147" t="s">
+      <c r="H19" s="157"/>
+      <c r="I19" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="148"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="53" t="s">
@@ -11135,18 +10942,18 @@
       <c r="B28" s="59"/>
       <c r="C28" s="60"/>
       <c r="D28" s="61"/>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="146"/>
-      <c r="G28" s="147" t="s">
+      <c r="F28" s="155"/>
+      <c r="G28" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="147" t="s">
+      <c r="H28" s="157"/>
+      <c r="I28" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="148"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="75" t="s">
@@ -11379,18 +11186,18 @@
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="83"/>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="147" t="s">
+      <c r="F37" s="155"/>
+      <c r="G37" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="148"/>
-      <c r="I37" s="147" t="s">
+      <c r="H37" s="157"/>
+      <c r="I37" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="148"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -11772,7 +11579,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11786,11 +11593,11 @@
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="159" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="152"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="161"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -11901,11 +11708,11 @@
       <c r="A10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="151"/>
-      <c r="D10" s="152"/>
+      <c r="C10" s="160"/>
+      <c r="D10" s="161"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="99" t="s">
@@ -12019,11 +11826,11 @@
       <c r="A19" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="150" t="s">
+      <c r="B19" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="151"/>
-      <c r="D19" s="152"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="161"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="99" t="s">
@@ -12134,11 +11941,11 @@
       <c r="A28" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="151"/>
-      <c r="D28" s="152"/>
+      <c r="C28" s="160"/>
+      <c r="D28" s="161"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="99" t="s">
@@ -12249,11 +12056,11 @@
       <c r="A37" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="151"/>
-      <c r="D37" s="152"/>
+      <c r="C37" s="160"/>
+      <c r="D37" s="161"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -12378,8 +12185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12395,13 +12202,13 @@
       <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -12578,13 +12385,13 @@
       <c r="A11" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="161"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="99" t="s">
@@ -12761,13 +12568,13 @@
       <c r="A21" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="151"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="161"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="99" t="s">
@@ -12944,13 +12751,13 @@
       <c r="A31" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="150" t="s">
+      <c r="B31" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="161"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="99" t="s">
@@ -13127,13 +12934,13 @@
       <c r="A41" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="159" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="151"/>
-      <c r="D41" s="151"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="152"/>
+      <c r="C41" s="160"/>
+      <c r="D41" s="160"/>
+      <c r="E41" s="160"/>
+      <c r="F41" s="161"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="99" t="s">
@@ -13324,8 +13131,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="P87" sqref="P87"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="O84" sqref="O84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13342,18 +13149,18 @@
       <c r="B1" s="81"/>
       <c r="C1" s="82"/>
       <c r="D1" s="83"/>
-      <c r="E1" s="145" t="s">
+      <c r="E1" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147" t="s">
+      <c r="F1" s="155"/>
+      <c r="G1" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="148"/>
-      <c r="I1" s="147" t="s">
+      <c r="H1" s="157"/>
+      <c r="I1" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="148"/>
+      <c r="J1" s="157"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
@@ -13612,18 +13419,18 @@
       <c r="B10" s="81"/>
       <c r="C10" s="82"/>
       <c r="D10" s="83"/>
-      <c r="E10" s="145" t="s">
+      <c r="E10" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="146"/>
-      <c r="G10" s="147" t="s">
+      <c r="F10" s="155"/>
+      <c r="G10" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="148"/>
-      <c r="I10" s="147" t="s">
+      <c r="H10" s="157"/>
+      <c r="I10" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="149"/>
+      <c r="J10" s="158"/>
       <c r="K10" s="89" t="s">
         <v>0</v>
       </c>
@@ -13946,18 +13753,18 @@
       <c r="B19" s="81"/>
       <c r="C19" s="82"/>
       <c r="D19" s="83"/>
-      <c r="E19" s="145" t="s">
+      <c r="E19" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="146"/>
-      <c r="G19" s="147" t="s">
+      <c r="F19" s="155"/>
+      <c r="G19" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="148"/>
-      <c r="I19" s="147" t="s">
+      <c r="H19" s="157"/>
+      <c r="I19" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J19" s="148"/>
+      <c r="J19" s="157"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="99" t="s">
@@ -14190,18 +13997,18 @@
       <c r="B28" s="81"/>
       <c r="C28" s="82"/>
       <c r="D28" s="83"/>
-      <c r="E28" s="145" t="s">
+      <c r="E28" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="146"/>
-      <c r="G28" s="147" t="s">
+      <c r="F28" s="155"/>
+      <c r="G28" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H28" s="148"/>
-      <c r="I28" s="147" t="s">
+      <c r="H28" s="157"/>
+      <c r="I28" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="148"/>
+      <c r="J28" s="157"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="99" t="s">
@@ -14434,18 +14241,18 @@
       <c r="B37" s="81"/>
       <c r="C37" s="82"/>
       <c r="D37" s="83"/>
-      <c r="E37" s="145" t="s">
+      <c r="E37" s="154" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="146"/>
-      <c r="G37" s="147" t="s">
+      <c r="F37" s="155"/>
+      <c r="G37" s="156" t="s">
         <v>13</v>
       </c>
-      <c r="H37" s="148"/>
-      <c r="I37" s="147" t="s">
+      <c r="H37" s="157"/>
+      <c r="I37" s="156" t="s">
         <v>15</v>
       </c>
-      <c r="J37" s="148"/>
+      <c r="J37" s="157"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="99" t="s">
@@ -14796,8 +14603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AE121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I55" workbookViewId="0">
-      <selection activeCell="Y76" sqref="Y76"/>
+    <sheetView topLeftCell="F91" workbookViewId="0">
+      <selection activeCell="V53" sqref="V53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14810,18 +14617,18 @@
       <c r="A2" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="161" t="s">
+      <c r="D2" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="161"/>
-      <c r="F2" s="161" t="s">
+      <c r="E2" s="170"/>
+      <c r="F2" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="161"/>
-      <c r="H2" s="161" t="s">
+      <c r="G2" s="170"/>
+      <c r="H2" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="161"/>
+      <c r="I2" s="170"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A3" s="107" t="s">
@@ -14894,11 +14701,11 @@
         <f>(E4+G4+I4)/3</f>
         <v>5.0742200000000004</v>
       </c>
-      <c r="L4" s="156">
+      <c r="L4" s="165">
         <f>(J4+J5+J6+J7+J8)/5</f>
         <v>6.9176433333333334</v>
       </c>
-      <c r="M4" s="156">
+      <c r="M4" s="165">
         <f>(K4+K5+K6+K7+K8)/5</f>
         <v>5.0916680000000003</v>
       </c>
@@ -14939,8 +14746,8 @@
         <f t="shared" ref="K5:K27" si="1">(E5+G5+I5)/3</f>
         <v>5.1106799999999994</v>
       </c>
-      <c r="L5" s="157"/>
-      <c r="M5" s="157"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A6" s="135" t="s">
@@ -14978,8 +14785,8 @@
         <f t="shared" si="1"/>
         <v>5.0611966666666666</v>
       </c>
-      <c r="L6" s="157"/>
-      <c r="M6" s="157"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A7" s="135" t="s">
@@ -15017,8 +14824,8 @@
         <f t="shared" si="1"/>
         <v>5.1054699999999995</v>
       </c>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
       <c r="P7" t="s">
         <v>70</v>
       </c>
@@ -15059,17 +14866,17 @@
         <f t="shared" si="1"/>
         <v>5.1067733333333338</v>
       </c>
-      <c r="L8" s="157"/>
-      <c r="M8" s="157"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
       <c r="P8" s="107"/>
       <c r="Q8" s="110" t="s">
         <v>77</v>
       </c>
       <c r="R8" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="S8" s="111" t="s">
-        <v>79</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.15">
@@ -15108,11 +14915,11 @@
         <f t="shared" si="1"/>
         <v>5.0182333333333338</v>
       </c>
-      <c r="L9" s="156">
+      <c r="L9" s="165">
         <f t="shared" ref="L9" si="2">(J9+J10+J11+J12+J13)/5</f>
         <v>20.139433333333333</v>
       </c>
-      <c r="M9" s="156">
+      <c r="M9" s="165">
         <f>(K9+K10+K11+K12+K13)/5</f>
         <v>5.0893246666666672</v>
       </c>
@@ -15171,8 +14978,8 @@
         <f t="shared" si="1"/>
         <v>5.1067733333333329</v>
       </c>
-      <c r="L10" s="157"/>
-      <c r="M10" s="157"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
       <c r="P10" s="135" t="s">
         <v>16</v>
       </c>
@@ -15231,8 +15038,8 @@
         <f t="shared" si="1"/>
         <v>5.09375</v>
       </c>
-      <c r="L11" s="157"/>
-      <c r="M11" s="157"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="166"/>
       <c r="P11" s="135" t="s">
         <v>22</v>
       </c>
@@ -15248,17 +15055,17 @@
       <c r="W11" s="85"/>
       <c r="X11" s="108"/>
       <c r="Y11" s="111" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="Z11" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AC11" s="108"/>
       <c r="AD11" s="111" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AE11" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.15">
@@ -15297,8 +15104,8 @@
         <f t="shared" si="1"/>
         <v>5.119793333333333</v>
       </c>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="166"/>
       <c r="P12" s="135" t="s">
         <v>28</v>
       </c>
@@ -15367,8 +15174,8 @@
         <f t="shared" si="1"/>
         <v>5.1080733333333326</v>
       </c>
-      <c r="L13" s="157"/>
-      <c r="M13" s="157"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="166"/>
       <c r="P13" s="140" t="s">
         <v>34</v>
       </c>
@@ -15437,11 +15244,11 @@
         <f t="shared" si="1"/>
         <v>5.070313333333333</v>
       </c>
-      <c r="L14" s="156">
+      <c r="L14" s="165">
         <f t="shared" ref="L14:M14" si="3">(J14+J15+J16+J17+J18)/5</f>
         <v>67.460940000000008</v>
       </c>
-      <c r="M14" s="156">
+      <c r="M14" s="165">
         <f t="shared" si="3"/>
         <v>5.0895833333333336</v>
       </c>
@@ -15502,8 +15309,8 @@
         <f t="shared" si="1"/>
         <v>5.1132833333333325</v>
       </c>
-      <c r="L15" s="157"/>
-      <c r="M15" s="157"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="166"/>
       <c r="P15" s="132" t="s">
         <v>80</v>
       </c>
@@ -15563,17 +15370,17 @@
         <f t="shared" si="1"/>
         <v>5.1106766666666665</v>
       </c>
-      <c r="L16" s="157"/>
-      <c r="M16" s="157"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
       <c r="P16" s="107"/>
       <c r="Q16" s="110" t="s">
         <v>77</v>
       </c>
       <c r="R16" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="S16" s="111" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="W16" s="85"/>
       <c r="X16" s="90" t="s">
@@ -15631,8 +15438,8 @@
         <f t="shared" si="1"/>
         <v>5.07552</v>
       </c>
-      <c r="L17" s="157"/>
-      <c r="M17" s="157"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="166"/>
       <c r="P17" s="135" t="s">
         <v>0</v>
       </c>
@@ -15682,8 +15489,8 @@
         <f t="shared" si="1"/>
         <v>5.0781233333333331</v>
       </c>
-      <c r="L18" s="157"/>
-      <c r="M18" s="157"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
       <c r="P18" s="135" t="s">
         <v>16</v>
       </c>
@@ -15733,11 +15540,11 @@
         <f t="shared" si="1"/>
         <v>5.125</v>
       </c>
-      <c r="L19" s="156">
+      <c r="L19" s="165">
         <f t="shared" ref="L19:M19" si="4">(J19+J20+J21+J22+J23)/5</f>
         <v>346.6375666666666</v>
       </c>
-      <c r="M19" s="156">
+      <c r="M19" s="165">
         <f t="shared" si="4"/>
         <v>5.0906253333333336</v>
       </c>
@@ -15790,8 +15597,8 @@
         <f t="shared" si="1"/>
         <v>5.0846366666666674</v>
       </c>
-      <c r="L20" s="157"/>
-      <c r="M20" s="157"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
       <c r="P20" s="135" t="s">
         <v>28</v>
       </c>
@@ -15841,8 +15648,8 @@
         <f t="shared" si="1"/>
         <v>5.0898433333333335</v>
       </c>
-      <c r="L21" s="157"/>
-      <c r="M21" s="157"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
       <c r="P21" s="140" t="s">
         <v>34</v>
       </c>
@@ -15892,8 +15699,8 @@
         <f t="shared" si="1"/>
         <v>5.0846366666666674</v>
       </c>
-      <c r="L22" s="157"/>
-      <c r="M22" s="157"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.15">
@@ -15932,8 +15739,8 @@
         <f t="shared" si="1"/>
         <v>5.0690099999999996</v>
       </c>
-      <c r="L23" s="157"/>
-      <c r="M23" s="157"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
       <c r="P23" s="132"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.15">
@@ -15972,11 +15779,11 @@
         <f t="shared" si="1"/>
         <v>5.1184900000000004</v>
       </c>
-      <c r="L24" s="156">
+      <c r="L24" s="165">
         <f t="shared" ref="L24" si="5">(J24+J25+J26+J27+J28)/5</f>
         <v>106.03247333333334</v>
       </c>
-      <c r="M24" s="156">
+      <c r="M24" s="165">
         <f>(K24+K25+K26+K27+K28)/5</f>
         <v>5.0960926666666664</v>
       </c>
@@ -16018,8 +15825,8 @@
         <f t="shared" si="1"/>
         <v>5.1184900000000004</v>
       </c>
-      <c r="L25" s="157"/>
-      <c r="M25" s="157"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
       <c r="P25" s="132"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.15">
@@ -16058,8 +15865,8 @@
         <f t="shared" si="1"/>
         <v>5.1080700000000006</v>
       </c>
-      <c r="L26" s="157"/>
-      <c r="M26" s="157"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
       <c r="P26" s="132"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.15">
@@ -16098,8 +15905,8 @@
         <f t="shared" si="1"/>
         <v>5.0976533333333327</v>
       </c>
-      <c r="L27" s="157"/>
-      <c r="M27" s="157"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
       <c r="P27" s="132"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
@@ -16138,8 +15945,8 @@
         <f>(E28+G28+I28)/3</f>
         <v>5.0377599999999996</v>
       </c>
-      <c r="L28" s="157"/>
-      <c r="M28" s="157"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
       <c r="P28" s="85"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -16150,7 +15957,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="133" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="P31" s="132"/>
     </row>
@@ -16226,11 +16033,11 @@
         <f>(E33+G33+I33)/3</f>
         <v>10.90366</v>
       </c>
-      <c r="L33" s="158">
+      <c r="L33" s="167">
         <f>(J33+J34+J35+J36+J37)/5</f>
         <v>3.5021360000000001</v>
       </c>
-      <c r="M33" s="153">
+      <c r="M33" s="162">
         <f>(K33+K34+K35+K36+K37)/5</f>
         <v>10.845320000000001</v>
       </c>
@@ -16271,8 +16078,8 @@
         <f t="shared" ref="K34:K57" si="7">(E34+G34+I34)/3</f>
         <v>11.218760000000001</v>
       </c>
-      <c r="L34" s="159"/>
-      <c r="M34" s="154"/>
+      <c r="L34" s="168"/>
+      <c r="M34" s="163"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="135" t="s">
@@ -16310,8 +16117,8 @@
         <f t="shared" si="7"/>
         <v>10.593746666666666</v>
       </c>
-      <c r="L35" s="159"/>
-      <c r="M35" s="154"/>
+      <c r="L35" s="168"/>
+      <c r="M35" s="163"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="135" t="s">
@@ -16349,8 +16156,8 @@
         <f t="shared" si="7"/>
         <v>10.911466666666668</v>
       </c>
-      <c r="L36" s="159"/>
-      <c r="M36" s="154"/>
+      <c r="L36" s="168"/>
+      <c r="M36" s="163"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="135" t="s">
@@ -16388,8 +16195,8 @@
         <f t="shared" si="7"/>
         <v>10.598966666666668</v>
       </c>
-      <c r="L37" s="159"/>
-      <c r="M37" s="154"/>
+      <c r="L37" s="168"/>
+      <c r="M37" s="163"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="135" t="s">
@@ -16427,11 +16234,11 @@
         <f t="shared" si="7"/>
         <v>10.59637</v>
       </c>
-      <c r="L38" s="158">
+      <c r="L38" s="167">
         <f t="shared" ref="L38:M38" si="8">(J38+J39+J40+J41+J42)/5</f>
         <v>7.7157520000000002</v>
       </c>
-      <c r="M38" s="153">
+      <c r="M38" s="162">
         <f t="shared" si="8"/>
         <v>11.715633333333333</v>
       </c>
@@ -16472,8 +16279,8 @@
         <f t="shared" si="7"/>
         <v>10.597663333333333</v>
       </c>
-      <c r="L39" s="159"/>
-      <c r="M39" s="154"/>
+      <c r="L39" s="168"/>
+      <c r="M39" s="163"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="135" t="s">
@@ -16511,8 +16318,8 @@
         <f t="shared" si="7"/>
         <v>10.912763333333332</v>
       </c>
-      <c r="L40" s="159"/>
-      <c r="M40" s="154"/>
+      <c r="L40" s="168"/>
+      <c r="M40" s="163"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="135" t="s">
@@ -16550,8 +16357,8 @@
         <f t="shared" si="7"/>
         <v>10.60027</v>
       </c>
-      <c r="L41" s="159"/>
-      <c r="M41" s="154"/>
+      <c r="L41" s="168"/>
+      <c r="M41" s="163"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="135" t="s">
@@ -16589,8 +16396,8 @@
         <f t="shared" si="7"/>
         <v>15.871099999999998</v>
       </c>
-      <c r="L42" s="159"/>
-      <c r="M42" s="154"/>
+      <c r="L42" s="168"/>
+      <c r="M42" s="163"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="135" t="s">
@@ -16628,11 +16435,11 @@
         <f t="shared" si="7"/>
         <v>15.888026666666667</v>
       </c>
-      <c r="L43" s="158">
+      <c r="L43" s="167">
         <f t="shared" ref="L43:M43" si="9">(J43+J44+J45+J46+J47)/5</f>
         <v>15.964618000000002</v>
       </c>
-      <c r="M43" s="153">
+      <c r="M43" s="162">
         <f t="shared" si="9"/>
         <v>10.909379333333334</v>
       </c>
@@ -16673,8 +16480,8 @@
         <f t="shared" si="7"/>
         <v>10.601559999999999</v>
       </c>
-      <c r="L44" s="159"/>
-      <c r="M44" s="154"/>
+      <c r="L44" s="168"/>
+      <c r="M44" s="163"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="135" t="s">
@@ -16712,8 +16519,8 @@
         <f t="shared" si="7"/>
         <v>5.9335966666666664</v>
       </c>
-      <c r="L45" s="159"/>
-      <c r="M45" s="154"/>
+      <c r="L45" s="168"/>
+      <c r="M45" s="163"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="135" t="s">
@@ -16751,8 +16558,8 @@
         <f t="shared" si="7"/>
         <v>11.223956666666666</v>
       </c>
-      <c r="L46" s="159"/>
-      <c r="M46" s="154"/>
+      <c r="L46" s="168"/>
+      <c r="M46" s="163"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="135" t="s">
@@ -16790,8 +16597,8 @@
         <f t="shared" si="7"/>
         <v>10.899756666666667</v>
       </c>
-      <c r="L47" s="159"/>
-      <c r="M47" s="154"/>
+      <c r="L47" s="168"/>
+      <c r="M47" s="163"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="135" t="s">
@@ -16829,11 +16636,11 @@
         <f t="shared" si="7"/>
         <v>21.501300000000001</v>
       </c>
-      <c r="L48" s="158">
+      <c r="L48" s="167">
         <f t="shared" ref="L48:M48" si="10">(J48+J49+J50+J51+J52)/5</f>
         <v>23.522805999999999</v>
       </c>
-      <c r="M48" s="153">
+      <c r="M48" s="162">
         <f t="shared" si="10"/>
         <v>16.016151999999998</v>
       </c>
@@ -16874,8 +16681,8 @@
         <f t="shared" si="7"/>
         <v>10.593749999999998</v>
       </c>
-      <c r="L49" s="159"/>
-      <c r="M49" s="154"/>
+      <c r="L49" s="168"/>
+      <c r="M49" s="163"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="135" t="s">
@@ -16913,8 +16720,8 @@
         <f t="shared" si="7"/>
         <v>15.88153</v>
       </c>
-      <c r="L50" s="159"/>
-      <c r="M50" s="154"/>
+      <c r="L50" s="168"/>
+      <c r="M50" s="163"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="135" t="s">
@@ -16952,8 +16759,8 @@
         <f t="shared" si="7"/>
         <v>21.184899999999999</v>
       </c>
-      <c r="L51" s="159"/>
-      <c r="M51" s="154"/>
+      <c r="L51" s="168"/>
+      <c r="M51" s="163"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="135" t="s">
@@ -16991,8 +16798,8 @@
         <f t="shared" si="7"/>
         <v>10.919280000000001</v>
       </c>
-      <c r="L52" s="159"/>
-      <c r="M52" s="154"/>
+      <c r="L52" s="168"/>
+      <c r="M52" s="163"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="135" t="s">
@@ -17030,11 +16837,11 @@
         <f t="shared" si="7"/>
         <v>10.59637</v>
       </c>
-      <c r="L53" s="158">
+      <c r="L53" s="167">
         <f t="shared" ref="L53:M53" si="11">(J53+J54+J55+J56+J57)/5</f>
         <v>26.129814666666668</v>
       </c>
-      <c r="M53" s="153">
+      <c r="M53" s="162">
         <f t="shared" si="11"/>
         <v>14.952871999999999</v>
       </c>
@@ -17075,8 +16882,8 @@
         <f t="shared" si="7"/>
         <v>15.884106666666668</v>
       </c>
-      <c r="L54" s="159"/>
-      <c r="M54" s="154"/>
+      <c r="L54" s="168"/>
+      <c r="M54" s="163"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="135" t="s">
@@ -17114,8 +16921,8 @@
         <f t="shared" si="7"/>
         <v>16.191416666666665</v>
       </c>
-      <c r="L55" s="159"/>
-      <c r="M55" s="154"/>
+      <c r="L55" s="168"/>
+      <c r="M55" s="163"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="135" t="s">
@@ -17153,8 +16960,8 @@
         <f t="shared" si="7"/>
         <v>16.209636666666665</v>
       </c>
-      <c r="L56" s="159"/>
-      <c r="M56" s="154"/>
+      <c r="L56" s="168"/>
+      <c r="M56" s="163"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="140" t="s">
@@ -17192,12 +16999,12 @@
         <f t="shared" si="7"/>
         <v>15.882829999999998</v>
       </c>
-      <c r="L57" s="160"/>
-      <c r="M57" s="155"/>
+      <c r="L57" s="169"/>
+      <c r="M57" s="164"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="133" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
@@ -17271,11 +17078,11 @@
         <f>(E62+G62+I62)/3</f>
         <v>21.171900000000001</v>
       </c>
-      <c r="L62" s="158">
+      <c r="L62" s="167">
         <f>(J62+J63+J64+J65+J66)/5</f>
         <v>1.1300508666666667</v>
       </c>
-      <c r="M62" s="153">
+      <c r="M62" s="162">
         <f>(K62+K63+K64+K65+K66)/5</f>
         <v>21.22448</v>
       </c>
@@ -17316,8 +17123,8 @@
         <f t="shared" ref="K63:K86" si="13">(E63+G63+I63)/3</f>
         <v>21.164066666666667</v>
       </c>
-      <c r="L63" s="159"/>
-      <c r="M63" s="154"/>
+      <c r="L63" s="168"/>
+      <c r="M63" s="163"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="135" t="s">
@@ -17355,8 +17162,8 @@
         <f t="shared" si="13"/>
         <v>21.466133333333335</v>
       </c>
-      <c r="L64" s="159"/>
-      <c r="M64" s="154"/>
+      <c r="L64" s="168"/>
+      <c r="M64" s="163"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A65" s="135" t="s">
@@ -17394,8 +17201,8 @@
         <f t="shared" si="13"/>
         <v>21.154933333333336</v>
       </c>
-      <c r="L65" s="159"/>
-      <c r="M65" s="154"/>
+      <c r="L65" s="168"/>
+      <c r="M65" s="163"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A66" s="135" t="s">
@@ -17433,8 +17240,8 @@
         <f t="shared" si="13"/>
         <v>21.165366666666667</v>
       </c>
-      <c r="L66" s="159"/>
-      <c r="M66" s="154"/>
+      <c r="L66" s="168"/>
+      <c r="M66" s="163"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A67" s="135" t="s">
@@ -17472,11 +17279,11 @@
         <f t="shared" si="13"/>
         <v>21.473966666666666</v>
       </c>
-      <c r="L67" s="158">
+      <c r="L67" s="167">
         <f t="shared" ref="L67:M67" si="14">(J67+J68+J69+J70+J71)/5</f>
         <v>1.8303726666666666</v>
       </c>
-      <c r="M67" s="153">
+      <c r="M67" s="162">
         <f t="shared" si="14"/>
         <v>21.355226666666667</v>
       </c>
@@ -17517,8 +17324,8 @@
         <f t="shared" si="13"/>
         <v>21.795599999999997</v>
       </c>
-      <c r="L68" s="159"/>
-      <c r="M68" s="154"/>
+      <c r="L68" s="168"/>
+      <c r="M68" s="163"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A69" s="135" t="s">
@@ -17556,8 +17363,8 @@
         <f t="shared" si="13"/>
         <v>21.164066666666667</v>
       </c>
-      <c r="L69" s="159"/>
-      <c r="M69" s="154"/>
+      <c r="L69" s="168"/>
+      <c r="M69" s="163"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A70" s="135" t="s">
@@ -17595,8 +17402,8 @@
         <f t="shared" si="13"/>
         <v>21.174499999999998</v>
       </c>
-      <c r="L70" s="159"/>
-      <c r="M70" s="154"/>
+      <c r="L70" s="168"/>
+      <c r="M70" s="163"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A71" s="135" t="s">
@@ -17634,8 +17441,8 @@
         <f t="shared" si="13"/>
         <v>21.168000000000003</v>
       </c>
-      <c r="L71" s="159"/>
-      <c r="M71" s="154"/>
+      <c r="L71" s="168"/>
+      <c r="M71" s="163"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A72" s="135" t="s">
@@ -17673,11 +17480,11 @@
         <f t="shared" si="13"/>
         <v>21.166666666666668</v>
       </c>
-      <c r="L72" s="158">
+      <c r="L72" s="167">
         <f t="shared" ref="L72:M72" si="15">(J72+J73+J74+J75+J76)/5</f>
         <v>3.2919506666666662</v>
       </c>
-      <c r="M72" s="153">
+      <c r="M72" s="162">
         <f t="shared" si="15"/>
         <v>19.048439333333334</v>
       </c>
@@ -17718,8 +17525,8 @@
         <f t="shared" si="13"/>
         <v>21.177099999999999</v>
       </c>
-      <c r="L73" s="159"/>
-      <c r="M73" s="154"/>
+      <c r="L73" s="168"/>
+      <c r="M73" s="163"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A74" s="135" t="s">
@@ -17757,8 +17564,8 @@
         <f t="shared" si="13"/>
         <v>21.140599999999999</v>
       </c>
-      <c r="L74" s="159"/>
-      <c r="M74" s="154"/>
+      <c r="L74" s="168"/>
+      <c r="M74" s="163"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A75" s="135" t="s">
@@ -17796,8 +17603,8 @@
         <f t="shared" si="13"/>
         <v>21.161466666666669</v>
       </c>
-      <c r="L75" s="159"/>
-      <c r="M75" s="154"/>
+      <c r="L75" s="168"/>
+      <c r="M75" s="163"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A76" s="135" t="s">
@@ -17835,8 +17642,8 @@
         <f t="shared" si="13"/>
         <v>10.596363333333334</v>
       </c>
-      <c r="L76" s="159"/>
-      <c r="M76" s="154"/>
+      <c r="L76" s="168"/>
+      <c r="M76" s="163"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A77" s="135" t="s">
@@ -17874,11 +17681,11 @@
         <f t="shared" si="13"/>
         <v>21.481800000000003</v>
       </c>
-      <c r="L77" s="158">
+      <c r="L77" s="167">
         <f t="shared" ref="L77:M77" si="16">(J77+J78+J79+J80+J81)/5</f>
         <v>4.428239333333333</v>
       </c>
-      <c r="M77" s="153">
+      <c r="M77" s="162">
         <f t="shared" si="16"/>
         <v>20.233345333333336</v>
       </c>
@@ -17919,8 +17726,8 @@
         <f t="shared" si="13"/>
         <v>21.165366666666667</v>
       </c>
-      <c r="L78" s="159"/>
-      <c r="M78" s="154"/>
+      <c r="L78" s="168"/>
+      <c r="M78" s="163"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A79" s="135" t="s">
@@ -17958,8 +17765,8 @@
         <f t="shared" si="13"/>
         <v>21.479200000000002</v>
       </c>
-      <c r="L79" s="159"/>
-      <c r="M79" s="154"/>
+      <c r="L79" s="168"/>
+      <c r="M79" s="163"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A80" s="135" t="s">
@@ -17997,8 +17804,8 @@
         <f t="shared" si="13"/>
         <v>15.869793333333334</v>
       </c>
-      <c r="L80" s="159"/>
-      <c r="M80" s="154"/>
+      <c r="L80" s="168"/>
+      <c r="M80" s="163"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A81" s="135" t="s">
@@ -18036,8 +17843,8 @@
         <f t="shared" si="13"/>
         <v>21.170566666666669</v>
       </c>
-      <c r="L81" s="159"/>
-      <c r="M81" s="154"/>
+      <c r="L81" s="168"/>
+      <c r="M81" s="163"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A82" s="135" t="s">
@@ -18075,11 +17882,11 @@
         <f t="shared" si="13"/>
         <v>10.876293333333335</v>
       </c>
-      <c r="L82" s="158">
+      <c r="L82" s="167">
         <f t="shared" ref="L82:M82" si="17">(J82+J83+J84+J85+J86)/5</f>
         <v>4.6149006666666663</v>
       </c>
-      <c r="M82" s="153">
+      <c r="M82" s="162">
         <f t="shared" si="17"/>
         <v>18.240378</v>
       </c>
@@ -18120,8 +17927,8 @@
         <f t="shared" si="13"/>
         <v>16.196629999999999</v>
       </c>
-      <c r="L83" s="159"/>
-      <c r="M83" s="154"/>
+      <c r="L83" s="168"/>
+      <c r="M83" s="163"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A84" s="135" t="s">
@@ -18159,8 +17966,8 @@
         <f t="shared" si="13"/>
         <v>21.166699999999999</v>
       </c>
-      <c r="L84" s="159"/>
-      <c r="M84" s="154"/>
+      <c r="L84" s="168"/>
+      <c r="M84" s="163"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A85" s="135" t="s">
@@ -18198,8 +18005,8 @@
         <f t="shared" si="13"/>
         <v>21.488299999999999</v>
       </c>
-      <c r="L85" s="159"/>
-      <c r="M85" s="154"/>
+      <c r="L85" s="168"/>
+      <c r="M85" s="163"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A86" s="140" t="s">
@@ -18237,8 +18044,8 @@
         <f t="shared" si="13"/>
         <v>21.473966666666666</v>
       </c>
-      <c r="L86" s="160"/>
-      <c r="M86" s="155"/>
+      <c r="L86" s="169"/>
+      <c r="M86" s="164"/>
     </row>
     <row r="105" spans="9:18" x14ac:dyDescent="0.15">
       <c r="I105" t="s">
@@ -18256,10 +18063,10 @@
         <v>77</v>
       </c>
       <c r="K108" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L108" s="111" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="9:18" x14ac:dyDescent="0.15">
@@ -18340,10 +18147,10 @@
         <v>77</v>
       </c>
       <c r="K116" s="110" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="L116" s="111" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
     </row>
     <row r="117" spans="9:12" x14ac:dyDescent="0.15">
@@ -18453,10 +18260,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:Y40"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" topLeftCell="H7" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -18464,12 +18271,12 @@
     <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" s="107"/>
       <c r="B2" s="110" t="s">
         <v>77</v>
@@ -18481,7 +18288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="135" t="s">
         <v>0</v>
       </c>
@@ -18495,7 +18302,7 @@
         <v>1.1300508666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="135" t="s">
         <v>16</v>
       </c>
@@ -18509,7 +18316,7 @@
         <v>1.8303726666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="135" t="s">
         <v>22</v>
       </c>
@@ -18523,7 +18330,7 @@
         <v>3.2919506666666662</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="135" t="s">
         <v>28</v>
       </c>
@@ -18558,7 +18365,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="140" t="s">
         <v>34</v>
       </c>
@@ -18589,12 +18396,12 @@
       <c r="N7" s="143">
         <v>0</v>
       </c>
-      <c r="O7" s="162">
+      <c r="O7" s="171">
         <f>(N7+N8+N9+N10+N11)/5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
       <c r="I8" s="135" t="s">
         <v>0</v>
@@ -18614,9 +18421,9 @@
       <c r="N8" s="143">
         <v>0</v>
       </c>
-      <c r="O8" s="163"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O8" s="172"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A9" s="132" t="s">
         <v>80</v>
       </c>
@@ -18638,9 +18445,9 @@
       <c r="N9" s="143">
         <v>0</v>
       </c>
-      <c r="O9" s="163"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="O9" s="172"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" s="107"/>
       <c r="B10" s="110" t="s">
         <v>77</v>
@@ -18669,12 +18476,12 @@
       <c r="N10" s="143">
         <v>0</v>
       </c>
-      <c r="O10" s="163"/>
+      <c r="O10" s="172"/>
       <c r="V10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A11" s="135" t="s">
         <v>0</v>
       </c>
@@ -18705,21 +18512,25 @@
       <c r="N11" s="143">
         <v>0</v>
       </c>
-      <c r="O11" s="163"/>
-      <c r="R11" t="s">
+      <c r="O11" s="172"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="S11" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" t="s">
-        <v>97</v>
+      <c r="S11" s="110" t="s">
+        <v>114</v>
+      </c>
+      <c r="T11" s="111" t="s">
+        <v>119</v>
+      </c>
+      <c r="U11" s="136" t="s">
+        <v>115</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A12" s="135" t="s">
         <v>16</v>
       </c>
@@ -18750,28 +18561,31 @@
       <c r="N12" s="143">
         <v>0</v>
       </c>
-      <c r="O12" s="163">
+      <c r="O12" s="172">
         <f t="shared" ref="O12" si="0">(N12+N13+N14+N15+N16)/5</f>
         <v>0</v>
       </c>
       <c r="Q12" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="85">
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="85">
         <v>0.63244999999999996</v>
       </c>
       <c r="T12">
-        <f>R12/S12</f>
-        <v>0</v>
+        <f>((R12/S12)-1)*-1</f>
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
       </c>
       <c r="V12">
         <v>2.6729035550263649E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A13" s="135" t="s">
         <v>22</v>
       </c>
@@ -18802,25 +18616,28 @@
       <c r="N13" s="143">
         <v>0</v>
       </c>
-      <c r="O13" s="163"/>
+      <c r="O13" s="172"/>
       <c r="Q13" s="89" t="s">
         <v>94</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="85">
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="85">
         <v>0.45175300000000002</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T16" si="1">R13/S13</f>
-        <v>0</v>
+        <f>((R13/S13)-1)*-1</f>
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
       </c>
       <c r="V13">
         <v>4.8155308949333897E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A14" s="135" t="s">
         <v>28</v>
       </c>
@@ -18851,25 +18668,31 @@
       <c r="N14" s="143">
         <v>0</v>
       </c>
-      <c r="O14" s="163"/>
+      <c r="O14" s="172"/>
       <c r="Q14" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="85">
         <v>1.5713999999999999E-2</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="85">
         <v>0.58789999999999998</v>
       </c>
       <c r="T14">
-        <f>R14/S14</f>
-        <v>2.6729035550263649E-2</v>
+        <f>((R14/S14)-1)*-1</f>
+        <v>0.97327096444973638</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
       </c>
       <c r="V14">
         <v>7.2228630094323537E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="Y14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" s="140" t="s">
         <v>34</v>
       </c>
@@ -18900,22 +18723,25 @@
       <c r="N15" s="143">
         <v>0</v>
       </c>
-      <c r="O15" s="163"/>
+      <c r="O15" s="172"/>
       <c r="Q15" s="89" t="s">
         <v>95</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="85">
         <v>1.8182E-2</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="85">
         <v>0.37757000000000002</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
-        <v>4.8155308949333897E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+        <f>((R15/S15)-1)*-1</f>
+        <v>0.95184469105066616</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.15">
       <c r="I16" s="135" t="s">
         <v>16</v>
       </c>
@@ -18934,19 +18760,22 @@
       <c r="N16" s="143">
         <v>0</v>
       </c>
-      <c r="O16" s="163"/>
+      <c r="O16" s="172"/>
       <c r="Q16" s="90" t="s">
         <v>96</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="109">
         <v>2.3076000000000003E-2</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="109">
         <v>0.31948549999999998</v>
       </c>
       <c r="T16">
-        <f t="shared" si="1"/>
-        <v>7.2228630094323537E-2</v>
+        <f>((R16/S16)-1)*-1</f>
+        <v>0.92777136990567644</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.15">
@@ -18968,8 +18797,8 @@
       <c r="N17" s="143">
         <v>0</v>
       </c>
-      <c r="O17" s="163">
-        <f t="shared" ref="O17" si="2">(N17+N18+N19+N20+N21)/5</f>
+      <c r="O17" s="172">
+        <f t="shared" ref="O17" si="1">(N17+N18+N19+N20+N21)/5</f>
         <v>1.5713999999999999E-2</v>
       </c>
     </row>
@@ -18992,7 +18821,7 @@
       <c r="N18" s="143">
         <v>0</v>
       </c>
-      <c r="O18" s="163"/>
+      <c r="O18" s="172"/>
     </row>
     <row r="19" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I19" s="135" t="s">
@@ -19013,7 +18842,7 @@
       <c r="N19" s="143">
         <v>7.8570000000000001E-2</v>
       </c>
-      <c r="O19" s="163"/>
+      <c r="O19" s="172"/>
     </row>
     <row r="20" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I20" s="135" t="s">
@@ -19034,7 +18863,7 @@
       <c r="N20" s="143">
         <v>0</v>
       </c>
-      <c r="O20" s="163"/>
+      <c r="O20" s="172"/>
     </row>
     <row r="21" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I21" s="135" t="s">
@@ -19055,7 +18884,7 @@
       <c r="N21" s="143">
         <v>0</v>
       </c>
-      <c r="O21" s="163"/>
+      <c r="O21" s="172"/>
     </row>
     <row r="22" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I22" s="135" t="s">
@@ -19076,8 +18905,8 @@
       <c r="N22" s="143">
         <v>0</v>
       </c>
-      <c r="O22" s="163">
-        <f t="shared" ref="O22" si="3">(N22+N23+N24+N25+N26)/5</f>
+      <c r="O22" s="172">
+        <f t="shared" ref="O22" si="2">(N22+N23+N24+N25+N26)/5</f>
         <v>1.8182E-2</v>
       </c>
     </row>
@@ -19100,7 +18929,7 @@
       <c r="N23" s="143">
         <v>0</v>
       </c>
-      <c r="O23" s="163"/>
+      <c r="O23" s="172"/>
     </row>
     <row r="24" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I24" s="135" t="s">
@@ -19121,7 +18950,7 @@
       <c r="N24" s="143">
         <v>0</v>
       </c>
-      <c r="O24" s="163"/>
+      <c r="O24" s="172"/>
     </row>
     <row r="25" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I25" s="135" t="s">
@@ -19142,7 +18971,7 @@
       <c r="N25" s="143">
         <v>9.0910000000000005E-2</v>
       </c>
-      <c r="O25" s="163"/>
+      <c r="O25" s="172"/>
     </row>
     <row r="26" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I26" s="135" t="s">
@@ -19163,7 +18992,7 @@
       <c r="N26" s="143">
         <v>0</v>
       </c>
-      <c r="O26" s="163"/>
+      <c r="O26" s="172"/>
     </row>
     <row r="27" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I27" s="135" t="s">
@@ -19184,8 +19013,8 @@
       <c r="N27" s="143">
         <v>0</v>
       </c>
-      <c r="O27" s="163">
-        <f t="shared" ref="O27" si="4">(N27+N28+N29+N30+N31)/5</f>
+      <c r="O27" s="172">
+        <f t="shared" ref="O27" si="3">(N27+N28+N29+N30+N31)/5</f>
         <v>2.3076000000000003E-2</v>
       </c>
     </row>
@@ -19208,7 +19037,7 @@
       <c r="N28" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O28" s="163"/>
+      <c r="O28" s="172"/>
     </row>
     <row r="29" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I29" s="135" t="s">
@@ -19229,7 +19058,7 @@
       <c r="N29" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O29" s="163"/>
+      <c r="O29" s="172"/>
     </row>
     <row r="30" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I30" s="135" t="s">
@@ -19250,7 +19079,7 @@
       <c r="N30" s="143">
         <v>3.8460000000000001E-2</v>
       </c>
-      <c r="O30" s="163"/>
+      <c r="O30" s="172"/>
     </row>
     <row r="31" spans="9:15" x14ac:dyDescent="0.15">
       <c r="I31" s="140" t="s">
@@ -19271,7 +19100,7 @@
       <c r="N31" s="144">
         <v>0</v>
       </c>
-      <c r="O31" s="164"/>
+      <c r="O31" s="173"/>
     </row>
     <row r="35" spans="9:14" x14ac:dyDescent="0.15">
       <c r="J35" s="135" t="s">
@@ -19400,7 +19229,8 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19408,8 +19238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:L18"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19419,10 +19249,10 @@
   <sheetData>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
@@ -19439,7 +19269,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="110" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D5" s="110" t="s">
         <v>99</v>
@@ -19450,10 +19280,10 @@
         <v>77</v>
       </c>
       <c r="K5" s="110" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L5" s="111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -19610,7 +19440,7 @@
         <v>77</v>
       </c>
       <c r="C13" s="110" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D13" s="110" t="s">
         <v>99</v>
@@ -19621,10 +19451,10 @@
         <v>77</v>
       </c>
       <c r="K13" s="110" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="L13" s="111" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -19769,4 +19599,266 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B6:J29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="C6" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="103" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="104" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B7" s="107"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="161"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B8" s="134"/>
+      <c r="C8" s="159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="161"/>
+      <c r="E8" s="159" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="161"/>
+      <c r="G8" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="161"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B9" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="146"/>
+      <c r="D9" s="146">
+        <v>26.827033333333333</v>
+      </c>
+      <c r="E9" s="147"/>
+      <c r="F9" s="148">
+        <v>24.124100000000009</v>
+      </c>
+      <c r="G9" s="149"/>
+      <c r="H9" s="150">
+        <v>3.6627200000000002</v>
+      </c>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B10" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="146"/>
+      <c r="D10" s="146">
+        <v>50.175433333333324</v>
+      </c>
+      <c r="E10" s="147"/>
+      <c r="F10" s="150">
+        <v>47.341933333333337</v>
+      </c>
+      <c r="G10" s="149"/>
+      <c r="H10" s="150">
+        <v>10.065480000000001</v>
+      </c>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B11" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146">
+        <v>120.20159999999998</v>
+      </c>
+      <c r="E11" s="147"/>
+      <c r="F11" s="150">
+        <v>101.16596666666669</v>
+      </c>
+      <c r="G11" s="149"/>
+      <c r="H11" s="150">
+        <v>38.762833333333326</v>
+      </c>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B12" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146">
+        <v>239.69266666666658</v>
+      </c>
+      <c r="E12" s="147"/>
+      <c r="F12" s="150">
+        <v>211.62</v>
+      </c>
+      <c r="G12" s="149"/>
+      <c r="H12" s="150">
+        <v>52.89116666666672</v>
+      </c>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="B13" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152">
+        <v>149.82966666666664</v>
+      </c>
+      <c r="E13" s="90"/>
+      <c r="F13" s="153">
+        <v>134.21166666666667</v>
+      </c>
+      <c r="G13" s="90"/>
+      <c r="H13" s="153">
+        <v>35.092233333333333</v>
+      </c>
+      <c r="I13" s="90"/>
+      <c r="J13" s="153"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B24" s="134"/>
+      <c r="C24" s="159" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="161"/>
+      <c r="E24" s="159" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="161"/>
+      <c r="G24" s="159" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="161"/>
+    </row>
+    <row r="25" spans="2:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B25" s="145" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="146">
+        <v>4.0781300000000007</v>
+      </c>
+      <c r="D25" s="146"/>
+      <c r="E25" s="147">
+        <v>3.7031299999999998</v>
+      </c>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149">
+        <v>4.2578100000000001</v>
+      </c>
+      <c r="H25" s="150"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B26" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="146">
+        <v>3.6367200000000004</v>
+      </c>
+      <c r="D26" s="146"/>
+      <c r="E26" s="147">
+        <v>3.63672</v>
+      </c>
+      <c r="F26" s="150"/>
+      <c r="G26" s="149">
+        <v>4.25</v>
+      </c>
+      <c r="H26" s="150"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B27" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="146">
+        <v>3.6523400000000001</v>
+      </c>
+      <c r="D27" s="146"/>
+      <c r="E27" s="147">
+        <v>3.6523400000000001</v>
+      </c>
+      <c r="F27" s="150"/>
+      <c r="G27" s="149">
+        <v>4.2617200000000004</v>
+      </c>
+      <c r="H27" s="150"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B28" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" s="146">
+        <v>4.2929700000000004</v>
+      </c>
+      <c r="D28" s="146"/>
+      <c r="E28" s="147">
+        <v>4.2929700000000004</v>
+      </c>
+      <c r="F28" s="150"/>
+      <c r="G28" s="149">
+        <v>4.2890600000000001</v>
+      </c>
+      <c r="H28" s="150"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B29" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="C29" s="152">
+        <v>3.6380233333333329</v>
+      </c>
+      <c r="D29" s="152"/>
+      <c r="E29" s="90">
+        <v>3.6406299999999998</v>
+      </c>
+      <c r="F29" s="153"/>
+      <c r="G29" s="90">
+        <v>4.2578100000000001</v>
+      </c>
+      <c r="H29" s="153"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G24:H24"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>